--- a/test_cases/LS-S3-PE-53.xlsx
+++ b/test_cases/LS-S3-PE-53.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Documents\GitHub\TestingAplicaciones-Los_Sintra-TPO\test_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3136DB-3000-4A1B-B8A0-2297413424D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FBA936-B509-4F3D-87B4-D546842FAAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C5E4AC05-B01F-4F6F-8319-A6C0AEA84F2F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="218">
   <si>
     <t>Test Cases</t>
   </si>
@@ -1225,6 +1225,9 @@
   </si>
   <si>
     <t>LS-S2-PE-53-07</t>
+  </si>
+  <si>
+    <t>Validar que el usuario pueda  cambiar contraseña</t>
   </si>
 </sst>
 </file>
@@ -1675,7 +1678,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1862,6 +1865,117 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1874,29 +1988,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1904,75 +2048,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="11"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1983,110 +2090,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2094,160 +2196,60 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="11"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Celda de comprobación" xfId="2" builtinId="23"/>
@@ -2568,8 +2570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CB65D9-B748-45C3-83EE-6283D3D55279}">
   <dimension ref="A1:BV181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2585,100 +2587,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="184"/>
+      <c r="O1" s="184"/>
+      <c r="P1" s="184"/>
+      <c r="Q1" s="184"/>
+      <c r="R1" s="184"/>
+      <c r="S1" s="184"/>
+      <c r="T1" s="184"/>
+      <c r="U1" s="184"/>
+      <c r="V1" s="184"/>
+      <c r="W1" s="184"/>
     </row>
     <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="88"/>
+      <c r="A2" s="184"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="184"/>
+      <c r="S2" s="184"/>
+      <c r="T2" s="184"/>
+      <c r="U2" s="184"/>
+      <c r="V2" s="184"/>
+      <c r="W2" s="184"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
+      <c r="B3" s="187"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="187"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
+      <c r="B4" s="180"/>
+      <c r="C4" s="180"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="180"/>
+      <c r="I4" s="180"/>
+      <c r="J4" s="180"/>
     </row>
     <row r="5" spans="1:30" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="65"/>
-      <c r="D5" s="90" t="s">
+      <c r="D5" s="66" t="s">
         <v>210</v>
       </c>
-      <c r="E5" s="90"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="65"/>
-      <c r="H5" s="144" t="s">
+      <c r="H5" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="144"/>
-      <c r="J5" s="144"/>
-      <c r="K5" s="144"/>
-      <c r="L5" s="144"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="177"/>
+      <c r="K5" s="177"/>
+      <c r="L5" s="177"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -2695,21 +2697,21 @@
         <v>4</v>
       </c>
       <c r="C6" s="65"/>
-      <c r="D6" s="90" t="s">
+      <c r="D6" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="90"/>
+      <c r="E6" s="66"/>
       <c r="F6" s="65" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="65"/>
-      <c r="H6" s="145" t="s">
+      <c r="H6" s="178" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="145"/>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="145"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="178"/>
+      <c r="K6" s="178"/>
+      <c r="L6" s="178"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
@@ -2722,21 +2724,21 @@
       <c r="V6" s="8"/>
     </row>
     <row r="7" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="89"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="148" t="s">
+      <c r="C7" s="185"/>
+      <c r="D7" s="186"/>
+      <c r="E7" s="186"/>
+      <c r="F7" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="148"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="148"/>
+      <c r="L7" s="148"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
@@ -2749,15 +2751,15 @@
       <c r="V7" s="8"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
+      <c r="B8" s="180"/>
+      <c r="C8" s="180"/>
+      <c r="D8" s="180"/>
+      <c r="E8" s="180"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="180"/>
+      <c r="H8" s="180"/>
+      <c r="I8" s="180"/>
+      <c r="J8" s="180"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -2772,14 +2774,14 @@
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:30" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="71" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="71"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="82"/>
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
@@ -2799,15 +2801,15 @@
       <c r="V9" s="2"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
+      <c r="B10" s="180"/>
+      <c r="C10" s="180"/>
+      <c r="D10" s="180"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="180"/>
+      <c r="G10" s="180"/>
+      <c r="H10" s="180"/>
+      <c r="I10" s="180"/>
+      <c r="J10" s="180"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -2825,11 +2827,11 @@
       <c r="B11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="148" t="s">
+      <c r="C11" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="148"/>
-      <c r="E11" s="148"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
       <c r="G11" s="63"/>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
@@ -2843,11 +2845,11 @@
       <c r="B12" s="6">
         <v>1</v>
       </c>
-      <c r="C12" s="146" t="s">
+      <c r="C12" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="146"/>
-      <c r="E12" s="146"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
       <c r="G12" s="64"/>
       <c r="H12" s="64"/>
       <c r="I12" s="64"/>
@@ -2861,11 +2863,11 @@
       <c r="B13" s="6">
         <v>2</v>
       </c>
-      <c r="C13" s="146" t="s">
+      <c r="C13" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="146"/>
-      <c r="E13" s="146"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
@@ -2879,11 +2881,11 @@
       <c r="B14" s="11">
         <v>3</v>
       </c>
-      <c r="C14" s="147" t="s">
+      <c r="C14" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="147"/>
-      <c r="E14" s="147"/>
+      <c r="D14" s="179"/>
+      <c r="E14" s="179"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
@@ -2930,64 +2932,64 @@
       <c r="V16" s="5"/>
     </row>
     <row r="17" spans="2:74" ht="32.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B17" s="149" t="s">
+      <c r="B17" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="87"/>
-      <c r="S17" s="87"/>
-      <c r="T17" s="87"/>
-      <c r="U17" s="87"/>
-      <c r="V17" s="87"/>
-      <c r="W17" s="87"/>
-      <c r="X17" s="86"/>
-      <c r="Y17" s="87"/>
-      <c r="Z17" s="87"/>
-      <c r="AA17" s="87"/>
-      <c r="AB17" s="87"/>
-      <c r="AC17" s="87"/>
-      <c r="AD17" s="87"/>
-      <c r="AE17" s="87"/>
-      <c r="AF17" s="87"/>
-      <c r="AG17" s="87"/>
-      <c r="AH17" s="87"/>
-      <c r="AI17" s="87"/>
-      <c r="AJ17" s="87"/>
-      <c r="AK17" s="87"/>
-      <c r="AL17" s="87"/>
-      <c r="AM17" s="87"/>
-      <c r="AN17" s="87"/>
-      <c r="AO17" s="86"/>
-      <c r="AP17" s="87"/>
-      <c r="AQ17" s="87"/>
-      <c r="AR17" s="87"/>
-      <c r="AS17" s="87"/>
-      <c r="AT17" s="87"/>
-      <c r="AU17" s="87"/>
-      <c r="AV17" s="87"/>
-      <c r="AW17" s="87"/>
-      <c r="AX17" s="87"/>
-      <c r="AY17" s="87"/>
-      <c r="AZ17" s="87"/>
-      <c r="BA17" s="87"/>
-      <c r="BB17" s="87"/>
-      <c r="BC17" s="87"/>
-      <c r="BD17" s="87"/>
-      <c r="BE17" s="87"/>
+      <c r="C17" s="176"/>
+      <c r="D17" s="176"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="176"/>
+      <c r="G17" s="176"/>
+      <c r="H17" s="176"/>
+      <c r="I17" s="176"/>
+      <c r="J17" s="176"/>
+      <c r="K17" s="176"/>
+      <c r="L17" s="176"/>
+      <c r="M17" s="176"/>
+      <c r="N17" s="176"/>
+      <c r="O17" s="176"/>
+      <c r="P17" s="176"/>
+      <c r="Q17" s="176"/>
+      <c r="R17" s="176"/>
+      <c r="S17" s="176"/>
+      <c r="T17" s="176"/>
+      <c r="U17" s="176"/>
+      <c r="V17" s="176"/>
+      <c r="W17" s="176"/>
+      <c r="X17" s="175"/>
+      <c r="Y17" s="176"/>
+      <c r="Z17" s="176"/>
+      <c r="AA17" s="176"/>
+      <c r="AB17" s="176"/>
+      <c r="AC17" s="176"/>
+      <c r="AD17" s="176"/>
+      <c r="AE17" s="176"/>
+      <c r="AF17" s="176"/>
+      <c r="AG17" s="176"/>
+      <c r="AH17" s="176"/>
+      <c r="AI17" s="176"/>
+      <c r="AJ17" s="176"/>
+      <c r="AK17" s="176"/>
+      <c r="AL17" s="176"/>
+      <c r="AM17" s="176"/>
+      <c r="AN17" s="176"/>
+      <c r="AO17" s="175"/>
+      <c r="AP17" s="176"/>
+      <c r="AQ17" s="176"/>
+      <c r="AR17" s="176"/>
+      <c r="AS17" s="176"/>
+      <c r="AT17" s="176"/>
+      <c r="AU17" s="176"/>
+      <c r="AV17" s="176"/>
+      <c r="AW17" s="176"/>
+      <c r="AX17" s="176"/>
+      <c r="AY17" s="176"/>
+      <c r="AZ17" s="176"/>
+      <c r="BA17" s="176"/>
+      <c r="BB17" s="176"/>
+      <c r="BC17" s="176"/>
+      <c r="BD17" s="176"/>
+      <c r="BE17" s="176"/>
     </row>
     <row r="18" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B18" s="17"/>
@@ -3014,65 +3016,65 @@
       <c r="W18" s="18"/>
     </row>
     <row r="19" spans="2:74" ht="34.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B19" s="166" t="s">
+      <c r="B19" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="166"/>
-      <c r="D19" s="166"/>
-      <c r="E19" s="166"/>
-      <c r="F19" s="166"/>
-      <c r="G19" s="166"/>
-      <c r="H19" s="166"/>
-      <c r="I19" s="166"/>
-      <c r="J19" s="166"/>
-      <c r="K19" s="166"/>
-      <c r="L19" s="166"/>
-      <c r="M19" s="166"/>
-      <c r="N19" s="166"/>
-      <c r="O19" s="166"/>
-      <c r="P19" s="166"/>
-      <c r="Q19" s="166"/>
-      <c r="R19" s="166"/>
-      <c r="S19" s="166"/>
-      <c r="T19" s="166"/>
-      <c r="U19" s="166"/>
-      <c r="V19" s="166"/>
-      <c r="W19" s="166"/>
-      <c r="X19" s="166"/>
-      <c r="Y19" s="166"/>
-      <c r="Z19" s="166"/>
-      <c r="AA19" s="166"/>
-      <c r="AB19" s="166"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="160"/>
+      <c r="I19" s="160"/>
+      <c r="J19" s="160"/>
+      <c r="K19" s="160"/>
+      <c r="L19" s="160"/>
+      <c r="M19" s="160"/>
+      <c r="N19" s="160"/>
+      <c r="O19" s="160"/>
+      <c r="P19" s="160"/>
+      <c r="Q19" s="160"/>
+      <c r="R19" s="160"/>
+      <c r="S19" s="160"/>
+      <c r="T19" s="160"/>
+      <c r="U19" s="160"/>
+      <c r="V19" s="160"/>
+      <c r="W19" s="160"/>
+      <c r="X19" s="160"/>
+      <c r="Y19" s="160"/>
+      <c r="Z19" s="160"/>
+      <c r="AA19" s="160"/>
+      <c r="AB19" s="160"/>
       <c r="AD19" s="33"/>
-      <c r="AF19" s="166" t="s">
+      <c r="AF19" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="AG19" s="166"/>
-      <c r="AH19" s="166"/>
-      <c r="AI19" s="166"/>
-      <c r="AJ19" s="166"/>
-      <c r="AK19" s="166"/>
-      <c r="AL19" s="166"/>
-      <c r="AM19" s="166"/>
-      <c r="AN19" s="166"/>
-      <c r="AO19" s="166"/>
-      <c r="AP19" s="166"/>
-      <c r="AQ19" s="166"/>
-      <c r="AR19" s="166"/>
-      <c r="AS19" s="166"/>
-      <c r="AT19" s="166"/>
-      <c r="AU19" s="166"/>
-      <c r="AV19" s="166"/>
-      <c r="AW19" s="166"/>
-      <c r="AX19" s="166"/>
-      <c r="AY19" s="166"/>
-      <c r="AZ19" s="166"/>
-      <c r="BA19" s="166"/>
-      <c r="BB19" s="166"/>
-      <c r="BC19" s="166"/>
-      <c r="BD19" s="166"/>
-      <c r="BE19" s="166"/>
-      <c r="BF19" s="166"/>
+      <c r="AG19" s="160"/>
+      <c r="AH19" s="160"/>
+      <c r="AI19" s="160"/>
+      <c r="AJ19" s="160"/>
+      <c r="AK19" s="160"/>
+      <c r="AL19" s="160"/>
+      <c r="AM19" s="160"/>
+      <c r="AN19" s="160"/>
+      <c r="AO19" s="160"/>
+      <c r="AP19" s="160"/>
+      <c r="AQ19" s="160"/>
+      <c r="AR19" s="160"/>
+      <c r="AS19" s="160"/>
+      <c r="AT19" s="160"/>
+      <c r="AU19" s="160"/>
+      <c r="AV19" s="160"/>
+      <c r="AW19" s="160"/>
+      <c r="AX19" s="160"/>
+      <c r="AY19" s="160"/>
+      <c r="AZ19" s="160"/>
+      <c r="BA19" s="160"/>
+      <c r="BB19" s="160"/>
+      <c r="BC19" s="160"/>
+      <c r="BD19" s="160"/>
+      <c r="BE19" s="160"/>
+      <c r="BF19" s="160"/>
     </row>
     <row r="20" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B20" s="17"/>
@@ -3103,37 +3105,37 @@
       <c r="AD21" s="33"/>
     </row>
     <row r="22" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="120" t="s">
+      <c r="B22" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="121"/>
-      <c r="D22" s="122" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="122"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="122"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="122"/>
-      <c r="K22" s="122"/>
-      <c r="M22" s="70" t="s">
+      <c r="C22" s="134"/>
+      <c r="D22" s="99" t="s">
+        <v>217</v>
+      </c>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
+      <c r="M22" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="N22" s="70"/>
-      <c r="O22" s="71" t="s">
+      <c r="N22" s="81"/>
+      <c r="O22" s="82" t="s">
         <v>22</v>
       </c>
       <c r="AD22" s="33"/>
       <c r="AF22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AG22" s="148" t="s">
+      <c r="AG22" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="AH22" s="148"/>
-      <c r="AI22" s="148"/>
-      <c r="AJ22" s="148"/>
+      <c r="AH22" s="91"/>
+      <c r="AI22" s="91"/>
+      <c r="AJ22" s="91"/>
       <c r="AL22" s="7" t="s">
         <v>12</v>
       </c>
@@ -3145,219 +3147,219 @@
       <c r="AP22" s="65"/>
       <c r="AQ22" s="50"/>
       <c r="AR22" s="50"/>
-      <c r="AS22" s="120" t="s">
+      <c r="AS22" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="AT22" s="121"/>
-      <c r="AU22" s="122" t="s">
+      <c r="AT22" s="134"/>
+      <c r="AU22" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="AV22" s="122"/>
-      <c r="AW22" s="122"/>
-      <c r="AX22" s="122"/>
-      <c r="AY22" s="122"/>
-      <c r="AZ22" s="122"/>
-      <c r="BA22" s="122"/>
-      <c r="BB22" s="122"/>
-      <c r="BD22" s="70" t="s">
+      <c r="AV22" s="99"/>
+      <c r="AW22" s="99"/>
+      <c r="AX22" s="99"/>
+      <c r="AY22" s="99"/>
+      <c r="AZ22" s="99"/>
+      <c r="BA22" s="99"/>
+      <c r="BB22" s="99"/>
+      <c r="BD22" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="BE22" s="70"/>
-      <c r="BF22" s="71" t="s">
+      <c r="BE22" s="81"/>
+      <c r="BF22" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="BI22" s="120" t="s">
+      <c r="BI22" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="BJ22" s="121"/>
-      <c r="BK22" s="122" t="s">
+      <c r="BJ22" s="134"/>
+      <c r="BK22" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="BL22" s="122"/>
-      <c r="BM22" s="122"/>
-      <c r="BN22" s="122"/>
-      <c r="BO22" s="122"/>
-      <c r="BP22" s="122"/>
-      <c r="BQ22" s="122"/>
-      <c r="BR22" s="122"/>
-      <c r="BT22" s="70" t="s">
+      <c r="BL22" s="99"/>
+      <c r="BM22" s="99"/>
+      <c r="BN22" s="99"/>
+      <c r="BO22" s="99"/>
+      <c r="BP22" s="99"/>
+      <c r="BQ22" s="99"/>
+      <c r="BR22" s="99"/>
+      <c r="BT22" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="BU22" s="70"/>
-      <c r="BV22" s="71" t="s">
+      <c r="BU22" s="81"/>
+      <c r="BV22" s="82" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="2:74" x14ac:dyDescent="0.3">
-      <c r="B23" s="121"/>
-      <c r="C23" s="121"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="122"/>
-      <c r="G23" s="122"/>
-      <c r="H23" s="122"/>
-      <c r="I23" s="122"/>
-      <c r="J23" s="122"/>
-      <c r="K23" s="122"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="71"/>
+      <c r="B23" s="134"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="99"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="82"/>
       <c r="AD23" s="33"/>
       <c r="AF23" s="12">
         <v>1</v>
       </c>
-      <c r="AG23" s="122" t="s">
+      <c r="AG23" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="AH23" s="122"/>
-      <c r="AI23" s="122"/>
-      <c r="AJ23" s="122"/>
+      <c r="AH23" s="99"/>
+      <c r="AI23" s="99"/>
+      <c r="AJ23" s="99"/>
       <c r="AL23" s="12">
         <v>1</v>
       </c>
-      <c r="AM23" s="69" t="s">
+      <c r="AM23" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="AN23" s="69"/>
-      <c r="AO23" s="69"/>
-      <c r="AP23" s="69"/>
+      <c r="AN23" s="106"/>
+      <c r="AO23" s="106"/>
+      <c r="AP23" s="106"/>
       <c r="AQ23" s="50"/>
       <c r="AR23" s="50"/>
-      <c r="AS23" s="121"/>
-      <c r="AT23" s="121"/>
-      <c r="AU23" s="122"/>
-      <c r="AV23" s="122"/>
-      <c r="AW23" s="122"/>
-      <c r="AX23" s="122"/>
-      <c r="AY23" s="122"/>
-      <c r="AZ23" s="122"/>
-      <c r="BA23" s="122"/>
-      <c r="BB23" s="122"/>
-      <c r="BD23" s="70"/>
-      <c r="BE23" s="70"/>
-      <c r="BF23" s="71"/>
-      <c r="BI23" s="121"/>
-      <c r="BJ23" s="121"/>
-      <c r="BK23" s="122"/>
-      <c r="BL23" s="122"/>
-      <c r="BM23" s="122"/>
-      <c r="BN23" s="122"/>
-      <c r="BO23" s="122"/>
-      <c r="BP23" s="122"/>
-      <c r="BQ23" s="122"/>
-      <c r="BR23" s="122"/>
-      <c r="BT23" s="70"/>
-      <c r="BU23" s="70"/>
-      <c r="BV23" s="71"/>
+      <c r="AS23" s="134"/>
+      <c r="AT23" s="134"/>
+      <c r="AU23" s="99"/>
+      <c r="AV23" s="99"/>
+      <c r="AW23" s="99"/>
+      <c r="AX23" s="99"/>
+      <c r="AY23" s="99"/>
+      <c r="AZ23" s="99"/>
+      <c r="BA23" s="99"/>
+      <c r="BB23" s="99"/>
+      <c r="BD23" s="81"/>
+      <c r="BE23" s="81"/>
+      <c r="BF23" s="82"/>
+      <c r="BI23" s="134"/>
+      <c r="BJ23" s="134"/>
+      <c r="BK23" s="99"/>
+      <c r="BL23" s="99"/>
+      <c r="BM23" s="99"/>
+      <c r="BN23" s="99"/>
+      <c r="BO23" s="99"/>
+      <c r="BP23" s="99"/>
+      <c r="BQ23" s="99"/>
+      <c r="BR23" s="99"/>
+      <c r="BT23" s="81"/>
+      <c r="BU23" s="81"/>
+      <c r="BV23" s="82"/>
     </row>
     <row r="24" spans="2:74" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="123" t="s">
+      <c r="B24" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="123"/>
-      <c r="D24" s="124" t="s">
+      <c r="C24" s="135"/>
+      <c r="D24" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="124"/>
-      <c r="F24" s="123" t="s">
+      <c r="E24" s="136"/>
+      <c r="F24" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="123"/>
-      <c r="H24" s="124" t="s">
+      <c r="G24" s="135"/>
+      <c r="H24" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="I24" s="124"/>
-      <c r="J24" s="124"/>
-      <c r="K24" s="124"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="71"/>
+      <c r="I24" s="136"/>
+      <c r="J24" s="136"/>
+      <c r="K24" s="136"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="82"/>
       <c r="AD24" s="33"/>
       <c r="AF24" s="12">
         <v>2</v>
       </c>
-      <c r="AG24" s="69" t="s">
+      <c r="AG24" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="AH24" s="69"/>
-      <c r="AI24" s="69"/>
-      <c r="AJ24" s="69"/>
+      <c r="AH24" s="106"/>
+      <c r="AI24" s="106"/>
+      <c r="AJ24" s="106"/>
       <c r="AL24" s="13">
         <v>2</v>
       </c>
-      <c r="AM24" s="69" t="s">
+      <c r="AM24" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="AN24" s="69"/>
-      <c r="AO24" s="69"/>
-      <c r="AP24" s="69"/>
+      <c r="AN24" s="106"/>
+      <c r="AO24" s="106"/>
+      <c r="AP24" s="106"/>
       <c r="AQ24" s="50"/>
       <c r="AR24" s="50"/>
-      <c r="AS24" s="123" t="s">
+      <c r="AS24" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="AT24" s="123"/>
-      <c r="AU24" s="124" t="s">
+      <c r="AT24" s="135"/>
+      <c r="AU24" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="AV24" s="124"/>
-      <c r="AW24" s="123" t="s">
+      <c r="AV24" s="136"/>
+      <c r="AW24" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="AX24" s="123"/>
-      <c r="AY24" s="124" t="s">
+      <c r="AX24" s="135"/>
+      <c r="AY24" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="AZ24" s="124"/>
-      <c r="BA24" s="124"/>
-      <c r="BB24" s="124"/>
-      <c r="BD24" s="70"/>
-      <c r="BE24" s="70"/>
-      <c r="BF24" s="71"/>
-      <c r="BI24" s="123" t="s">
+      <c r="AZ24" s="136"/>
+      <c r="BA24" s="136"/>
+      <c r="BB24" s="136"/>
+      <c r="BD24" s="81"/>
+      <c r="BE24" s="81"/>
+      <c r="BF24" s="82"/>
+      <c r="BI24" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="BJ24" s="123"/>
-      <c r="BK24" s="124" t="s">
+      <c r="BJ24" s="135"/>
+      <c r="BK24" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="BL24" s="124"/>
-      <c r="BM24" s="123" t="s">
+      <c r="BL24" s="136"/>
+      <c r="BM24" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="BN24" s="123"/>
-      <c r="BO24" s="124" t="s">
+      <c r="BN24" s="135"/>
+      <c r="BO24" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="BP24" s="124"/>
-      <c r="BQ24" s="124"/>
-      <c r="BR24" s="124"/>
-      <c r="BT24" s="70"/>
-      <c r="BU24" s="70"/>
-      <c r="BV24" s="71"/>
+      <c r="BP24" s="136"/>
+      <c r="BQ24" s="136"/>
+      <c r="BR24" s="136"/>
+      <c r="BT24" s="81"/>
+      <c r="BU24" s="81"/>
+      <c r="BV24" s="82"/>
     </row>
     <row r="25" spans="2:74" x14ac:dyDescent="0.3">
       <c r="I25" s="34"/>
       <c r="J25" s="34"/>
       <c r="AD25" s="33"/>
-      <c r="AF25" s="158">
+      <c r="AF25" s="156">
         <v>3</v>
       </c>
-      <c r="AG25" s="96" t="s">
+      <c r="AG25" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="AH25" s="97"/>
-      <c r="AI25" s="97"/>
-      <c r="AJ25" s="98"/>
+      <c r="AH25" s="79"/>
+      <c r="AI25" s="79"/>
+      <c r="AJ25" s="80"/>
       <c r="AL25" s="12">
         <v>3</v>
       </c>
-      <c r="AM25" s="69" t="s">
+      <c r="AM25" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="AN25" s="69"/>
-      <c r="AO25" s="69"/>
-      <c r="AP25" s="69"/>
+      <c r="AN25" s="106"/>
+      <c r="AO25" s="106"/>
+      <c r="AP25" s="106"/>
       <c r="AZ25" s="34"/>
       <c r="BA25" s="34"/>
       <c r="BP25" s="34"/>
@@ -3367,32 +3369,32 @@
       <c r="B26" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="70" t="s">
+      <c r="C26" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="143" t="s">
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="H26" s="143"/>
-      <c r="I26" s="143"/>
-      <c r="J26" s="143"/>
-      <c r="K26" s="143"/>
-      <c r="L26" s="143"/>
-      <c r="M26" s="143"/>
-      <c r="N26" s="143"/>
-      <c r="O26" s="143"/>
+      <c r="H26" s="137"/>
+      <c r="I26" s="137"/>
+      <c r="J26" s="137"/>
+      <c r="K26" s="137"/>
+      <c r="L26" s="137"/>
+      <c r="M26" s="137"/>
+      <c r="N26" s="137"/>
+      <c r="O26" s="137"/>
       <c r="R26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="S26" s="148" t="s">
+      <c r="S26" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="T26" s="148"/>
-      <c r="U26" s="148"/>
-      <c r="V26" s="148"/>
+      <c r="T26" s="91"/>
+      <c r="U26" s="91"/>
+      <c r="V26" s="91"/>
       <c r="X26" s="7" t="s">
         <v>12</v>
       </c>
@@ -3403,506 +3405,506 @@
       <c r="AA26" s="65"/>
       <c r="AB26" s="65"/>
       <c r="AD26" s="33"/>
-      <c r="AF26" s="158"/>
-      <c r="AG26" s="115"/>
-      <c r="AH26" s="116"/>
-      <c r="AI26" s="116"/>
-      <c r="AJ26" s="117"/>
+      <c r="AF26" s="156"/>
+      <c r="AG26" s="157"/>
+      <c r="AH26" s="158"/>
+      <c r="AI26" s="158"/>
+      <c r="AJ26" s="159"/>
       <c r="AL26" s="12">
         <v>4</v>
       </c>
-      <c r="AM26" s="69" t="s">
+      <c r="AM26" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="AN26" s="69"/>
-      <c r="AO26" s="69"/>
-      <c r="AP26" s="69"/>
+      <c r="AN26" s="106"/>
+      <c r="AO26" s="106"/>
+      <c r="AP26" s="106"/>
       <c r="AQ26" s="46"/>
       <c r="AR26" s="46"/>
       <c r="AS26" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AT26" s="70" t="s">
+      <c r="AT26" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="AU26" s="70"/>
-      <c r="AV26" s="70"/>
-      <c r="AW26" s="70"/>
-      <c r="AX26" s="143" t="s">
+      <c r="AU26" s="81"/>
+      <c r="AV26" s="81"/>
+      <c r="AW26" s="81"/>
+      <c r="AX26" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="AY26" s="143"/>
-      <c r="AZ26" s="143"/>
-      <c r="BA26" s="143"/>
-      <c r="BB26" s="143"/>
-      <c r="BC26" s="143"/>
-      <c r="BD26" s="143"/>
-      <c r="BE26" s="143"/>
-      <c r="BF26" s="143"/>
+      <c r="AY26" s="137"/>
+      <c r="AZ26" s="137"/>
+      <c r="BA26" s="137"/>
+      <c r="BB26" s="137"/>
+      <c r="BC26" s="137"/>
+      <c r="BD26" s="137"/>
+      <c r="BE26" s="137"/>
+      <c r="BF26" s="137"/>
       <c r="BI26" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="BJ26" s="70" t="s">
+      <c r="BJ26" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="BK26" s="70"/>
-      <c r="BL26" s="70"/>
-      <c r="BM26" s="70"/>
-      <c r="BN26" s="143" t="s">
+      <c r="BK26" s="81"/>
+      <c r="BL26" s="81"/>
+      <c r="BM26" s="81"/>
+      <c r="BN26" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="BO26" s="143"/>
-      <c r="BP26" s="143"/>
-      <c r="BQ26" s="143"/>
-      <c r="BR26" s="143"/>
-      <c r="BS26" s="143"/>
-      <c r="BT26" s="143"/>
-      <c r="BU26" s="143"/>
-      <c r="BV26" s="143"/>
+      <c r="BO26" s="137"/>
+      <c r="BP26" s="137"/>
+      <c r="BQ26" s="137"/>
+      <c r="BR26" s="137"/>
+      <c r="BS26" s="137"/>
+      <c r="BT26" s="137"/>
+      <c r="BU26" s="137"/>
+      <c r="BV26" s="137"/>
     </row>
     <row r="27" spans="2:74" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <v>1</v>
       </c>
-      <c r="C27" s="125" t="s">
+      <c r="C27" s="167" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="126"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="127"/>
-      <c r="G27" s="137" t="s">
+      <c r="D27" s="168"/>
+      <c r="E27" s="168"/>
+      <c r="F27" s="169"/>
+      <c r="G27" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="H27" s="138"/>
-      <c r="I27" s="138"/>
-      <c r="J27" s="138"/>
-      <c r="K27" s="138"/>
-      <c r="L27" s="138"/>
-      <c r="M27" s="138"/>
-      <c r="N27" s="138"/>
-      <c r="O27" s="139"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="143"/>
+      <c r="M27" s="143"/>
+      <c r="N27" s="143"/>
+      <c r="O27" s="144"/>
       <c r="R27" s="12">
         <v>1</v>
       </c>
-      <c r="S27" s="122" t="s">
+      <c r="S27" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="T27" s="122"/>
-      <c r="U27" s="122"/>
-      <c r="V27" s="122"/>
+      <c r="T27" s="99"/>
+      <c r="U27" s="99"/>
+      <c r="V27" s="99"/>
       <c r="X27" s="12">
         <v>1</v>
       </c>
-      <c r="Y27" s="69" t="s">
+      <c r="Y27" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="Z27" s="69"/>
-      <c r="AA27" s="69"/>
-      <c r="AB27" s="69"/>
+      <c r="Z27" s="106"/>
+      <c r="AA27" s="106"/>
+      <c r="AB27" s="106"/>
       <c r="AD27" s="33"/>
       <c r="AF27" s="12">
         <v>4</v>
       </c>
-      <c r="AG27" s="122" t="s">
+      <c r="AG27" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="AH27" s="122"/>
-      <c r="AI27" s="122"/>
-      <c r="AJ27" s="122"/>
+      <c r="AH27" s="99"/>
+      <c r="AI27" s="99"/>
+      <c r="AJ27" s="99"/>
       <c r="AL27" s="12">
         <v>5</v>
       </c>
-      <c r="AM27" s="69" t="s">
+      <c r="AM27" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="AN27" s="69"/>
-      <c r="AO27" s="69"/>
-      <c r="AP27" s="69"/>
+      <c r="AN27" s="106"/>
+      <c r="AO27" s="106"/>
+      <c r="AP27" s="106"/>
       <c r="AQ27" s="47"/>
       <c r="AR27" s="47"/>
       <c r="AS27" s="12">
         <v>1</v>
       </c>
-      <c r="AT27" s="137" t="s">
+      <c r="AT27" s="142" t="s">
         <v>39</v>
       </c>
-      <c r="AU27" s="138"/>
-      <c r="AV27" s="138"/>
-      <c r="AW27" s="139"/>
-      <c r="AX27" s="137" t="s">
+      <c r="AU27" s="143"/>
+      <c r="AV27" s="143"/>
+      <c r="AW27" s="144"/>
+      <c r="AX27" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="AY27" s="138"/>
-      <c r="AZ27" s="138"/>
-      <c r="BA27" s="138"/>
-      <c r="BB27" s="138"/>
-      <c r="BC27" s="138"/>
-      <c r="BD27" s="138"/>
-      <c r="BE27" s="138"/>
-      <c r="BF27" s="139"/>
+      <c r="AY27" s="143"/>
+      <c r="AZ27" s="143"/>
+      <c r="BA27" s="143"/>
+      <c r="BB27" s="143"/>
+      <c r="BC27" s="143"/>
+      <c r="BD27" s="143"/>
+      <c r="BE27" s="143"/>
+      <c r="BF27" s="144"/>
       <c r="BI27" s="12">
         <v>1</v>
       </c>
-      <c r="BJ27" s="137" t="s">
+      <c r="BJ27" s="142" t="s">
         <v>39</v>
       </c>
-      <c r="BK27" s="138"/>
-      <c r="BL27" s="138"/>
-      <c r="BM27" s="139"/>
-      <c r="BN27" s="137" t="s">
+      <c r="BK27" s="143"/>
+      <c r="BL27" s="143"/>
+      <c r="BM27" s="144"/>
+      <c r="BN27" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="BO27" s="138"/>
-      <c r="BP27" s="138"/>
-      <c r="BQ27" s="138"/>
-      <c r="BR27" s="138"/>
-      <c r="BS27" s="138"/>
-      <c r="BT27" s="138"/>
-      <c r="BU27" s="138"/>
-      <c r="BV27" s="139"/>
+      <c r="BO27" s="143"/>
+      <c r="BP27" s="143"/>
+      <c r="BQ27" s="143"/>
+      <c r="BR27" s="143"/>
+      <c r="BS27" s="143"/>
+      <c r="BT27" s="143"/>
+      <c r="BU27" s="143"/>
+      <c r="BV27" s="144"/>
     </row>
     <row r="28" spans="2:74" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13">
         <v>2</v>
       </c>
-      <c r="C28" s="128" t="s">
+      <c r="C28" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="129"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="130"/>
-      <c r="G28" s="134" t="s">
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="135"/>
-      <c r="I28" s="135"/>
-      <c r="J28" s="135"/>
-      <c r="K28" s="135"/>
-      <c r="L28" s="135"/>
-      <c r="M28" s="135"/>
-      <c r="N28" s="135"/>
-      <c r="O28" s="136"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="146"/>
+      <c r="K28" s="146"/>
+      <c r="L28" s="146"/>
+      <c r="M28" s="146"/>
+      <c r="N28" s="146"/>
+      <c r="O28" s="147"/>
       <c r="R28" s="12">
         <v>2</v>
       </c>
-      <c r="S28" s="69" t="s">
+      <c r="S28" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="T28" s="69"/>
-      <c r="U28" s="69"/>
-      <c r="V28" s="69"/>
+      <c r="T28" s="106"/>
+      <c r="U28" s="106"/>
+      <c r="V28" s="106"/>
       <c r="X28" s="13">
         <v>2</v>
       </c>
-      <c r="Y28" s="69" t="s">
+      <c r="Y28" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="Z28" s="69"/>
-      <c r="AA28" s="69"/>
-      <c r="AB28" s="69"/>
+      <c r="Z28" s="106"/>
+      <c r="AA28" s="106"/>
+      <c r="AB28" s="106"/>
       <c r="AD28" s="33"/>
       <c r="AF28" s="12">
         <v>5</v>
       </c>
-      <c r="AG28" s="122" t="s">
+      <c r="AG28" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="AH28" s="122"/>
-      <c r="AI28" s="122"/>
-      <c r="AJ28" s="122"/>
+      <c r="AH28" s="99"/>
+      <c r="AI28" s="99"/>
+      <c r="AJ28" s="99"/>
       <c r="AL28" s="12">
         <v>6</v>
       </c>
-      <c r="AM28" s="69" t="s">
+      <c r="AM28" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="AN28" s="69"/>
-      <c r="AO28" s="69"/>
-      <c r="AP28" s="69"/>
+      <c r="AN28" s="106"/>
+      <c r="AO28" s="106"/>
+      <c r="AP28" s="106"/>
       <c r="AS28" s="13">
         <v>2</v>
       </c>
-      <c r="AT28" s="134" t="s">
+      <c r="AT28" s="145" t="s">
         <v>43</v>
       </c>
-      <c r="AU28" s="135"/>
-      <c r="AV28" s="135"/>
-      <c r="AW28" s="136"/>
-      <c r="AX28" s="93" t="s">
+      <c r="AU28" s="146"/>
+      <c r="AV28" s="146"/>
+      <c r="AW28" s="147"/>
+      <c r="AX28" s="148" t="s">
         <v>44</v>
       </c>
-      <c r="AY28" s="93"/>
-      <c r="AZ28" s="93"/>
-      <c r="BA28" s="93"/>
-      <c r="BB28" s="93"/>
-      <c r="BC28" s="93"/>
-      <c r="BD28" s="93"/>
-      <c r="BE28" s="93"/>
-      <c r="BF28" s="93"/>
+      <c r="AY28" s="148"/>
+      <c r="AZ28" s="148"/>
+      <c r="BA28" s="148"/>
+      <c r="BB28" s="148"/>
+      <c r="BC28" s="148"/>
+      <c r="BD28" s="148"/>
+      <c r="BE28" s="148"/>
+      <c r="BF28" s="148"/>
       <c r="BI28" s="13">
         <v>2</v>
       </c>
-      <c r="BJ28" s="134" t="s">
+      <c r="BJ28" s="145" t="s">
         <v>43</v>
       </c>
-      <c r="BK28" s="135"/>
-      <c r="BL28" s="135"/>
-      <c r="BM28" s="136"/>
-      <c r="BN28" s="93" t="s">
+      <c r="BK28" s="146"/>
+      <c r="BL28" s="146"/>
+      <c r="BM28" s="147"/>
+      <c r="BN28" s="148" t="s">
         <v>48</v>
       </c>
-      <c r="BO28" s="93"/>
-      <c r="BP28" s="93"/>
-      <c r="BQ28" s="93"/>
-      <c r="BR28" s="93"/>
-      <c r="BS28" s="93"/>
-      <c r="BT28" s="93"/>
-      <c r="BU28" s="93"/>
-      <c r="BV28" s="93"/>
+      <c r="BO28" s="148"/>
+      <c r="BP28" s="148"/>
+      <c r="BQ28" s="148"/>
+      <c r="BR28" s="148"/>
+      <c r="BS28" s="148"/>
+      <c r="BT28" s="148"/>
+      <c r="BU28" s="148"/>
+      <c r="BV28" s="148"/>
     </row>
     <row r="29" spans="2:74" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
         <v>3</v>
       </c>
-      <c r="C29" s="131" t="s">
+      <c r="C29" s="194" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="132"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="137" t="s">
+      <c r="D29" s="195"/>
+      <c r="E29" s="195"/>
+      <c r="F29" s="196"/>
+      <c r="G29" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="H29" s="138"/>
-      <c r="I29" s="138"/>
-      <c r="J29" s="138"/>
-      <c r="K29" s="138"/>
-      <c r="L29" s="138"/>
-      <c r="M29" s="138"/>
-      <c r="N29" s="138"/>
-      <c r="O29" s="139"/>
-      <c r="R29" s="158">
+      <c r="H29" s="143"/>
+      <c r="I29" s="143"/>
+      <c r="J29" s="143"/>
+      <c r="K29" s="143"/>
+      <c r="L29" s="143"/>
+      <c r="M29" s="143"/>
+      <c r="N29" s="143"/>
+      <c r="O29" s="144"/>
+      <c r="R29" s="156">
         <v>3</v>
       </c>
-      <c r="S29" s="96" t="s">
+      <c r="S29" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="T29" s="97"/>
-      <c r="U29" s="97"/>
-      <c r="V29" s="98"/>
+      <c r="T29" s="79"/>
+      <c r="U29" s="79"/>
+      <c r="V29" s="80"/>
       <c r="X29" s="12">
         <v>3</v>
       </c>
-      <c r="Y29" s="69" t="s">
+      <c r="Y29" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="Z29" s="69"/>
-      <c r="AA29" s="69"/>
-      <c r="AB29" s="69"/>
+      <c r="Z29" s="106"/>
+      <c r="AA29" s="106"/>
+      <c r="AB29" s="106"/>
       <c r="AD29" s="33"/>
       <c r="AF29" s="12">
         <v>6</v>
       </c>
-      <c r="AG29" s="162" t="s">
+      <c r="AG29" s="155" t="s">
         <v>53</v>
       </c>
-      <c r="AH29" s="162"/>
-      <c r="AI29" s="162"/>
-      <c r="AJ29" s="162"/>
+      <c r="AH29" s="155"/>
+      <c r="AI29" s="155"/>
+      <c r="AJ29" s="155"/>
       <c r="AL29" s="12">
         <v>7</v>
       </c>
-      <c r="AM29" s="69" t="s">
+      <c r="AM29" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="AN29" s="69"/>
-      <c r="AO29" s="69"/>
-      <c r="AP29" s="69"/>
+      <c r="AN29" s="106"/>
+      <c r="AO29" s="106"/>
+      <c r="AP29" s="106"/>
       <c r="AS29" s="12">
         <v>3</v>
       </c>
-      <c r="AT29" s="104" t="s">
+      <c r="AT29" s="138" t="s">
         <v>55</v>
       </c>
-      <c r="AU29" s="105"/>
-      <c r="AV29" s="105"/>
-      <c r="AW29" s="106"/>
-      <c r="AX29" s="104" t="s">
+      <c r="AU29" s="139"/>
+      <c r="AV29" s="139"/>
+      <c r="AW29" s="140"/>
+      <c r="AX29" s="138" t="s">
         <v>56</v>
       </c>
-      <c r="AY29" s="105"/>
-      <c r="AZ29" s="105"/>
-      <c r="BA29" s="105"/>
-      <c r="BB29" s="105"/>
-      <c r="BC29" s="105"/>
-      <c r="BD29" s="105"/>
-      <c r="BE29" s="105"/>
-      <c r="BF29" s="106"/>
+      <c r="AY29" s="139"/>
+      <c r="AZ29" s="139"/>
+      <c r="BA29" s="139"/>
+      <c r="BB29" s="139"/>
+      <c r="BC29" s="139"/>
+      <c r="BD29" s="139"/>
+      <c r="BE29" s="139"/>
+      <c r="BF29" s="140"/>
       <c r="BI29" s="13">
         <v>2</v>
       </c>
-      <c r="BJ29" s="134" t="s">
+      <c r="BJ29" s="145" t="s">
         <v>57</v>
       </c>
-      <c r="BK29" s="135"/>
-      <c r="BL29" s="135"/>
-      <c r="BM29" s="136"/>
-      <c r="BN29" s="93" t="s">
+      <c r="BK29" s="146"/>
+      <c r="BL29" s="146"/>
+      <c r="BM29" s="147"/>
+      <c r="BN29" s="148" t="s">
         <v>58</v>
       </c>
-      <c r="BO29" s="93"/>
-      <c r="BP29" s="93"/>
-      <c r="BQ29" s="93"/>
-      <c r="BR29" s="93"/>
-      <c r="BS29" s="93"/>
-      <c r="BT29" s="93"/>
-      <c r="BU29" s="93"/>
-      <c r="BV29" s="93"/>
+      <c r="BO29" s="148"/>
+      <c r="BP29" s="148"/>
+      <c r="BQ29" s="148"/>
+      <c r="BR29" s="148"/>
+      <c r="BS29" s="148"/>
+      <c r="BT29" s="148"/>
+      <c r="BU29" s="148"/>
+      <c r="BV29" s="148"/>
     </row>
     <row r="30" spans="2:74" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="12">
         <v>4</v>
       </c>
-      <c r="C30" s="125" t="s">
+      <c r="C30" s="167" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="126"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="127"/>
-      <c r="G30" s="137" t="s">
+      <c r="D30" s="168"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="169"/>
+      <c r="G30" s="142" t="s">
         <v>60</v>
       </c>
-      <c r="H30" s="138"/>
-      <c r="I30" s="138"/>
-      <c r="J30" s="138"/>
-      <c r="K30" s="138"/>
-      <c r="L30" s="138"/>
-      <c r="M30" s="138"/>
-      <c r="N30" s="138"/>
-      <c r="O30" s="139"/>
-      <c r="R30" s="158"/>
-      <c r="S30" s="115"/>
-      <c r="T30" s="116"/>
-      <c r="U30" s="116"/>
-      <c r="V30" s="117"/>
+      <c r="H30" s="143"/>
+      <c r="I30" s="143"/>
+      <c r="J30" s="143"/>
+      <c r="K30" s="143"/>
+      <c r="L30" s="143"/>
+      <c r="M30" s="143"/>
+      <c r="N30" s="143"/>
+      <c r="O30" s="144"/>
+      <c r="R30" s="156"/>
+      <c r="S30" s="157"/>
+      <c r="T30" s="158"/>
+      <c r="U30" s="158"/>
+      <c r="V30" s="159"/>
       <c r="AD30" s="33"/>
       <c r="AL30" s="12">
         <v>8</v>
       </c>
-      <c r="AM30" s="69" t="s">
+      <c r="AM30" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="AN30" s="69"/>
-      <c r="AO30" s="69"/>
-      <c r="AP30" s="69"/>
+      <c r="AN30" s="106"/>
+      <c r="AO30" s="106"/>
+      <c r="AP30" s="106"/>
       <c r="AS30" s="13">
         <v>4</v>
       </c>
-      <c r="AT30" s="137" t="s">
+      <c r="AT30" s="142" t="s">
         <v>62</v>
       </c>
-      <c r="AU30" s="138"/>
-      <c r="AV30" s="138"/>
-      <c r="AW30" s="139"/>
-      <c r="AX30" s="104" t="s">
+      <c r="AU30" s="143"/>
+      <c r="AV30" s="143"/>
+      <c r="AW30" s="144"/>
+      <c r="AX30" s="138" t="s">
         <v>63</v>
       </c>
-      <c r="AY30" s="105"/>
-      <c r="AZ30" s="105"/>
-      <c r="BA30" s="105"/>
-      <c r="BB30" s="105"/>
-      <c r="BC30" s="105"/>
-      <c r="BD30" s="105"/>
-      <c r="BE30" s="105"/>
-      <c r="BF30" s="106"/>
+      <c r="AY30" s="139"/>
+      <c r="AZ30" s="139"/>
+      <c r="BA30" s="139"/>
+      <c r="BB30" s="139"/>
+      <c r="BC30" s="139"/>
+      <c r="BD30" s="139"/>
+      <c r="BE30" s="139"/>
+      <c r="BF30" s="140"/>
     </row>
     <row r="31" spans="2:74" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <v>5</v>
       </c>
-      <c r="C31" s="164" t="s">
+      <c r="C31" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="164"/>
-      <c r="E31" s="164"/>
-      <c r="F31" s="164"/>
-      <c r="G31" s="146" t="s">
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="141" t="s">
         <v>65</v>
       </c>
-      <c r="H31" s="146"/>
-      <c r="I31" s="146"/>
-      <c r="J31" s="146"/>
-      <c r="K31" s="146"/>
-      <c r="L31" s="146"/>
-      <c r="M31" s="146"/>
-      <c r="N31" s="146"/>
-      <c r="O31" s="146"/>
+      <c r="H31" s="141"/>
+      <c r="I31" s="141"/>
+      <c r="J31" s="141"/>
+      <c r="K31" s="141"/>
+      <c r="L31" s="141"/>
+      <c r="M31" s="141"/>
+      <c r="N31" s="141"/>
+      <c r="O31" s="141"/>
       <c r="R31" s="12">
         <v>4</v>
       </c>
-      <c r="S31" s="122" t="s">
+      <c r="S31" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="T31" s="122"/>
-      <c r="U31" s="122"/>
-      <c r="V31" s="122"/>
+      <c r="T31" s="99"/>
+      <c r="U31" s="99"/>
+      <c r="V31" s="99"/>
       <c r="AD31" s="33"/>
       <c r="AL31" s="12">
         <v>9</v>
       </c>
-      <c r="AM31" s="69" t="s">
+      <c r="AM31" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="AN31" s="69"/>
-      <c r="AO31" s="69"/>
-      <c r="AP31" s="69"/>
+      <c r="AN31" s="106"/>
+      <c r="AO31" s="106"/>
+      <c r="AP31" s="106"/>
       <c r="AQ31" s="47"/>
       <c r="AR31" s="47"/>
       <c r="AS31" s="13">
         <v>5</v>
       </c>
-      <c r="AT31" s="173" t="s">
+      <c r="AT31" s="152" t="s">
         <v>67</v>
       </c>
-      <c r="AU31" s="174"/>
-      <c r="AV31" s="174"/>
-      <c r="AW31" s="175"/>
-      <c r="AX31" s="137" t="s">
+      <c r="AU31" s="153"/>
+      <c r="AV31" s="153"/>
+      <c r="AW31" s="154"/>
+      <c r="AX31" s="142" t="s">
         <v>68</v>
       </c>
-      <c r="AY31" s="138"/>
-      <c r="AZ31" s="138"/>
-      <c r="BA31" s="138"/>
-      <c r="BB31" s="138"/>
-      <c r="BC31" s="138"/>
-      <c r="BD31" s="138"/>
-      <c r="BE31" s="138"/>
-      <c r="BF31" s="139"/>
+      <c r="AY31" s="143"/>
+      <c r="AZ31" s="143"/>
+      <c r="BA31" s="143"/>
+      <c r="BB31" s="143"/>
+      <c r="BC31" s="143"/>
+      <c r="BD31" s="143"/>
+      <c r="BE31" s="143"/>
+      <c r="BF31" s="144"/>
     </row>
     <row r="32" spans="2:74" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="15"/>
-      <c r="C32" s="168"/>
-      <c r="D32" s="168"/>
-      <c r="E32" s="168"/>
-      <c r="F32" s="168"/>
-      <c r="G32" s="169"/>
-      <c r="H32" s="169"/>
-      <c r="I32" s="169"/>
-      <c r="J32" s="169"/>
-      <c r="K32" s="169"/>
-      <c r="L32" s="169"/>
-      <c r="M32" s="169"/>
-      <c r="N32" s="169"/>
-      <c r="O32" s="169"/>
+      <c r="C32" s="162"/>
+      <c r="D32" s="162"/>
+      <c r="E32" s="162"/>
+      <c r="F32" s="162"/>
+      <c r="G32" s="163"/>
+      <c r="H32" s="163"/>
+      <c r="I32" s="163"/>
+      <c r="J32" s="163"/>
+      <c r="K32" s="163"/>
+      <c r="L32" s="163"/>
+      <c r="M32" s="163"/>
+      <c r="N32" s="163"/>
+      <c r="O32" s="163"/>
       <c r="R32" s="12">
         <v>5</v>
       </c>
-      <c r="S32" s="122" t="s">
+      <c r="S32" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="T32" s="122"/>
-      <c r="U32" s="122"/>
-      <c r="V32" s="122"/>
+      <c r="T32" s="99"/>
+      <c r="U32" s="99"/>
+      <c r="V32" s="99"/>
       <c r="AD32" s="33"/>
       <c r="AF32" s="15"/>
       <c r="AG32" s="47"/>
@@ -3920,34 +3922,34 @@
       <c r="AS32" s="12">
         <v>6</v>
       </c>
-      <c r="AT32" s="173" t="s">
+      <c r="AT32" s="152" t="s">
         <v>69</v>
       </c>
-      <c r="AU32" s="174"/>
-      <c r="AV32" s="174"/>
-      <c r="AW32" s="175"/>
-      <c r="AX32" s="137" t="s">
+      <c r="AU32" s="153"/>
+      <c r="AV32" s="153"/>
+      <c r="AW32" s="154"/>
+      <c r="AX32" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="AY32" s="138"/>
-      <c r="AZ32" s="138"/>
-      <c r="BA32" s="138"/>
-      <c r="BB32" s="138"/>
-      <c r="BC32" s="138"/>
-      <c r="BD32" s="138"/>
-      <c r="BE32" s="138"/>
-      <c r="BF32" s="139"/>
+      <c r="AY32" s="143"/>
+      <c r="AZ32" s="143"/>
+      <c r="BA32" s="143"/>
+      <c r="BB32" s="143"/>
+      <c r="BC32" s="143"/>
+      <c r="BD32" s="143"/>
+      <c r="BE32" s="143"/>
+      <c r="BF32" s="144"/>
     </row>
     <row r="33" spans="2:58" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R33" s="12">
         <v>6</v>
       </c>
-      <c r="S33" s="162" t="s">
+      <c r="S33" s="155" t="s">
         <v>70</v>
       </c>
-      <c r="T33" s="162"/>
-      <c r="U33" s="162"/>
-      <c r="V33" s="162"/>
+      <c r="T33" s="155"/>
+      <c r="U33" s="155"/>
+      <c r="V33" s="155"/>
       <c r="AD33" s="33"/>
       <c r="AF33" s="15"/>
       <c r="AG33" s="47"/>
@@ -3965,33 +3967,33 @@
       <c r="AS33" s="12">
         <v>7</v>
       </c>
-      <c r="AT33" s="137" t="s">
+      <c r="AT33" s="142" t="s">
         <v>59</v>
       </c>
-      <c r="AU33" s="138"/>
-      <c r="AV33" s="138"/>
-      <c r="AW33" s="139"/>
-      <c r="AX33" s="137" t="s">
+      <c r="AU33" s="143"/>
+      <c r="AV33" s="143"/>
+      <c r="AW33" s="144"/>
+      <c r="AX33" s="142" t="s">
         <v>71</v>
       </c>
-      <c r="AY33" s="138"/>
-      <c r="AZ33" s="138"/>
-      <c r="BA33" s="138"/>
-      <c r="BB33" s="138"/>
-      <c r="BC33" s="138"/>
-      <c r="BD33" s="138"/>
-      <c r="BE33" s="138"/>
-      <c r="BF33" s="139"/>
+      <c r="AY33" s="143"/>
+      <c r="AZ33" s="143"/>
+      <c r="BA33" s="143"/>
+      <c r="BB33" s="143"/>
+      <c r="BC33" s="143"/>
+      <c r="BD33" s="143"/>
+      <c r="BE33" s="143"/>
+      <c r="BF33" s="144"/>
     </row>
     <row r="34" spans="2:58" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="65" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="65"/>
-      <c r="D34" s="90" t="s">
+      <c r="D34" s="66" t="s">
         <v>211</v>
       </c>
-      <c r="E34" s="90"/>
+      <c r="E34" s="66"/>
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
       <c r="H34" s="23"/>
@@ -4024,44 +4026,44 @@
       <c r="AS34" s="12">
         <v>8</v>
       </c>
-      <c r="AT34" s="173" t="s">
+      <c r="AT34" s="152" t="s">
         <v>72</v>
       </c>
-      <c r="AU34" s="174"/>
-      <c r="AV34" s="174"/>
-      <c r="AW34" s="175"/>
-      <c r="AX34" s="137" t="s">
+      <c r="AU34" s="153"/>
+      <c r="AV34" s="153"/>
+      <c r="AW34" s="154"/>
+      <c r="AX34" s="142" t="s">
         <v>68</v>
       </c>
-      <c r="AY34" s="138"/>
-      <c r="AZ34" s="138"/>
-      <c r="BA34" s="138"/>
-      <c r="BB34" s="138"/>
-      <c r="BC34" s="138"/>
-      <c r="BD34" s="138"/>
-      <c r="BE34" s="138"/>
-      <c r="BF34" s="139"/>
+      <c r="AY34" s="143"/>
+      <c r="AZ34" s="143"/>
+      <c r="BA34" s="143"/>
+      <c r="BB34" s="143"/>
+      <c r="BC34" s="143"/>
+      <c r="BD34" s="143"/>
+      <c r="BE34" s="143"/>
+      <c r="BF34" s="144"/>
     </row>
     <row r="35" spans="2:58" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="159" t="s">
+      <c r="B35" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="160"/>
-      <c r="D35" s="125" t="s">
+      <c r="C35" s="166"/>
+      <c r="D35" s="167" t="s">
         <v>73</v>
       </c>
-      <c r="E35" s="126"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="126"/>
-      <c r="H35" s="126"/>
-      <c r="I35" s="126"/>
-      <c r="J35" s="126"/>
-      <c r="K35" s="127"/>
-      <c r="M35" s="72" t="s">
+      <c r="E35" s="168"/>
+      <c r="F35" s="168"/>
+      <c r="G35" s="168"/>
+      <c r="H35" s="168"/>
+      <c r="I35" s="168"/>
+      <c r="J35" s="168"/>
+      <c r="K35" s="169"/>
+      <c r="M35" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="N35" s="73"/>
-      <c r="O35" s="76" t="s">
+      <c r="N35" s="189"/>
+      <c r="O35" s="192" t="s">
         <v>11</v>
       </c>
       <c r="AD35" s="33"/>
@@ -4081,46 +4083,46 @@
       <c r="AS35" s="12">
         <v>9</v>
       </c>
-      <c r="AT35" s="173" t="s">
+      <c r="AT35" s="152" t="s">
         <v>69</v>
       </c>
-      <c r="AU35" s="174"/>
-      <c r="AV35" s="174"/>
-      <c r="AW35" s="175"/>
-      <c r="AX35" s="137" t="s">
+      <c r="AU35" s="153"/>
+      <c r="AV35" s="153"/>
+      <c r="AW35" s="154"/>
+      <c r="AX35" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="AY35" s="138"/>
-      <c r="AZ35" s="138"/>
-      <c r="BA35" s="138"/>
-      <c r="BB35" s="138"/>
-      <c r="BC35" s="138"/>
-      <c r="BD35" s="138"/>
-      <c r="BE35" s="138"/>
-      <c r="BF35" s="139"/>
+      <c r="AY35" s="143"/>
+      <c r="AZ35" s="143"/>
+      <c r="BA35" s="143"/>
+      <c r="BB35" s="143"/>
+      <c r="BC35" s="143"/>
+      <c r="BD35" s="143"/>
+      <c r="BE35" s="143"/>
+      <c r="BF35" s="144"/>
     </row>
     <row r="36" spans="2:58" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="153" t="s">
+      <c r="B36" s="170" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="154"/>
-      <c r="D36" s="155" t="s">
+      <c r="C36" s="171"/>
+      <c r="D36" s="172" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="156"/>
-      <c r="F36" s="153" t="s">
+      <c r="E36" s="174"/>
+      <c r="F36" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="G36" s="154"/>
-      <c r="H36" s="155" t="s">
+      <c r="G36" s="171"/>
+      <c r="H36" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="I36" s="157"/>
-      <c r="J36" s="157"/>
-      <c r="K36" s="156"/>
-      <c r="M36" s="74"/>
-      <c r="N36" s="75"/>
-      <c r="O36" s="77"/>
+      <c r="I36" s="173"/>
+      <c r="J36" s="173"/>
+      <c r="K36" s="174"/>
+      <c r="M36" s="190"/>
+      <c r="N36" s="191"/>
+      <c r="O36" s="193"/>
       <c r="AD36" s="33"/>
       <c r="AF36" s="15"/>
       <c r="AG36" s="23"/>
@@ -4138,23 +4140,23 @@
       <c r="AS36" s="12">
         <v>10</v>
       </c>
-      <c r="AT36" s="170" t="s">
+      <c r="AT36" s="149" t="s">
         <v>64</v>
       </c>
-      <c r="AU36" s="171"/>
-      <c r="AV36" s="171"/>
-      <c r="AW36" s="172"/>
-      <c r="AX36" s="170" t="s">
+      <c r="AU36" s="150"/>
+      <c r="AV36" s="150"/>
+      <c r="AW36" s="151"/>
+      <c r="AX36" s="149" t="s">
         <v>65</v>
       </c>
-      <c r="AY36" s="171"/>
-      <c r="AZ36" s="171"/>
-      <c r="BA36" s="171"/>
-      <c r="BB36" s="171"/>
-      <c r="BC36" s="171"/>
-      <c r="BD36" s="171"/>
-      <c r="BE36" s="171"/>
-      <c r="BF36" s="172"/>
+      <c r="AY36" s="150"/>
+      <c r="AZ36" s="150"/>
+      <c r="BA36" s="150"/>
+      <c r="BB36" s="150"/>
+      <c r="BC36" s="150"/>
+      <c r="BD36" s="150"/>
+      <c r="BE36" s="150"/>
+      <c r="BF36" s="151"/>
     </row>
     <row r="37" spans="2:58" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AD37" s="33"/>
@@ -4163,32 +4165,32 @@
       <c r="B38" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="70" t="s">
+      <c r="C38" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="143" t="s">
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="H38" s="143"/>
-      <c r="I38" s="143"/>
-      <c r="J38" s="143"/>
-      <c r="K38" s="143"/>
-      <c r="L38" s="143"/>
-      <c r="M38" s="143"/>
-      <c r="N38" s="143"/>
-      <c r="O38" s="143"/>
+      <c r="H38" s="137"/>
+      <c r="I38" s="137"/>
+      <c r="J38" s="137"/>
+      <c r="K38" s="137"/>
+      <c r="L38" s="137"/>
+      <c r="M38" s="137"/>
+      <c r="N38" s="137"/>
+      <c r="O38" s="137"/>
       <c r="R38" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="S38" s="148" t="s">
+      <c r="S38" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="T38" s="148"/>
-      <c r="U38" s="148"/>
-      <c r="V38" s="148"/>
+      <c r="T38" s="91"/>
+      <c r="U38" s="91"/>
+      <c r="V38" s="91"/>
       <c r="X38" s="7" t="s">
         <v>12</v>
       </c>
@@ -4204,124 +4206,124 @@
       <c r="B39" s="35">
         <v>3</v>
       </c>
-      <c r="C39" s="128" t="s">
+      <c r="C39" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="129"/>
-      <c r="E39" s="129"/>
-      <c r="F39" s="130"/>
-      <c r="G39" s="83" t="s">
+      <c r="D39" s="69"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="H39" s="84"/>
-      <c r="I39" s="84"/>
-      <c r="J39" s="84"/>
-      <c r="K39" s="84"/>
-      <c r="L39" s="84"/>
-      <c r="M39" s="84"/>
-      <c r="N39" s="84"/>
-      <c r="O39" s="85"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="73"/>
       <c r="R39" s="12">
         <v>1</v>
       </c>
-      <c r="S39" s="122" t="s">
+      <c r="S39" s="99" t="s">
         <v>76</v>
       </c>
-      <c r="T39" s="122"/>
-      <c r="U39" s="122"/>
-      <c r="V39" s="122"/>
+      <c r="T39" s="99"/>
+      <c r="U39" s="99"/>
+      <c r="V39" s="99"/>
       <c r="X39" s="13">
         <v>1</v>
       </c>
-      <c r="Y39" s="66" t="s">
+      <c r="Y39" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="Z39" s="67"/>
-      <c r="AA39" s="67"/>
-      <c r="AB39" s="68"/>
+      <c r="Z39" s="104"/>
+      <c r="AA39" s="104"/>
+      <c r="AB39" s="105"/>
       <c r="AD39" s="33"/>
     </row>
     <row r="40" spans="2:58" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="35">
         <v>4</v>
       </c>
-      <c r="C40" s="150" t="s">
+      <c r="C40" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="151"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="152"/>
-      <c r="G40" s="134" t="s">
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="145" t="s">
         <v>79</v>
       </c>
-      <c r="H40" s="135"/>
-      <c r="I40" s="135"/>
-      <c r="J40" s="135"/>
-      <c r="K40" s="135"/>
-      <c r="L40" s="135"/>
-      <c r="M40" s="135"/>
-      <c r="N40" s="135"/>
-      <c r="O40" s="136"/>
+      <c r="H40" s="146"/>
+      <c r="I40" s="146"/>
+      <c r="J40" s="146"/>
+      <c r="K40" s="146"/>
+      <c r="L40" s="146"/>
+      <c r="M40" s="146"/>
+      <c r="N40" s="146"/>
+      <c r="O40" s="147"/>
       <c r="R40" s="12">
         <v>2</v>
       </c>
-      <c r="S40" s="122" t="s">
+      <c r="S40" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="T40" s="122"/>
-      <c r="U40" s="122"/>
-      <c r="V40" s="122"/>
+      <c r="T40" s="99"/>
+      <c r="U40" s="99"/>
+      <c r="V40" s="99"/>
       <c r="X40" s="13">
         <v>2</v>
       </c>
-      <c r="Y40" s="66" t="s">
+      <c r="Y40" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="Z40" s="67"/>
-      <c r="AA40" s="67"/>
-      <c r="AB40" s="68"/>
+      <c r="Z40" s="104"/>
+      <c r="AA40" s="104"/>
+      <c r="AB40" s="105"/>
       <c r="AD40" s="33"/>
     </row>
     <row r="41" spans="2:58" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="35">
         <v>5</v>
       </c>
-      <c r="C41" s="128" t="s">
+      <c r="C41" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="129"/>
-      <c r="E41" s="129"/>
-      <c r="F41" s="130"/>
-      <c r="G41" s="83" t="s">
+      <c r="D41" s="69"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="H41" s="84"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="84"/>
-      <c r="K41" s="84"/>
-      <c r="L41" s="84"/>
-      <c r="M41" s="84"/>
-      <c r="N41" s="84"/>
-      <c r="O41" s="85"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="72"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="72"/>
+      <c r="N41" s="72"/>
+      <c r="O41" s="73"/>
       <c r="R41" s="12">
         <v>3</v>
       </c>
-      <c r="S41" s="122" t="s">
+      <c r="S41" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="T41" s="122"/>
-      <c r="U41" s="122"/>
-      <c r="V41" s="122"/>
+      <c r="T41" s="99"/>
+      <c r="U41" s="99"/>
+      <c r="V41" s="99"/>
       <c r="AD41" s="33"/>
       <c r="AF41" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AG41" s="148" t="s">
+      <c r="AG41" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="AH41" s="148"/>
-      <c r="AI41" s="148"/>
-      <c r="AJ41" s="148"/>
+      <c r="AH41" s="91"/>
+      <c r="AI41" s="91"/>
+      <c r="AJ41" s="91"/>
       <c r="AL41" s="7" t="s">
         <v>12</v>
       </c>
@@ -4333,25 +4335,25 @@
       <c r="AP41" s="65"/>
       <c r="AQ41" s="30"/>
       <c r="AR41" s="30"/>
-      <c r="AS41" s="120" t="s">
+      <c r="AS41" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="AT41" s="121"/>
-      <c r="AU41" s="122" t="s">
+      <c r="AT41" s="134"/>
+      <c r="AU41" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="AV41" s="122"/>
-      <c r="AW41" s="122"/>
-      <c r="AX41" s="122"/>
-      <c r="AY41" s="122"/>
-      <c r="AZ41" s="122"/>
-      <c r="BA41" s="122"/>
-      <c r="BB41" s="122"/>
-      <c r="BD41" s="70" t="s">
+      <c r="AV41" s="99"/>
+      <c r="AW41" s="99"/>
+      <c r="AX41" s="99"/>
+      <c r="AY41" s="99"/>
+      <c r="AZ41" s="99"/>
+      <c r="BA41" s="99"/>
+      <c r="BB41" s="99"/>
+      <c r="BD41" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="BE41" s="70"/>
-      <c r="BF41" s="71" t="s">
+      <c r="BE41" s="81"/>
+      <c r="BF41" s="82" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4359,124 +4361,124 @@
       <c r="B42" s="35">
         <v>6</v>
       </c>
-      <c r="C42" s="150" t="s">
+      <c r="C42" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="151"/>
-      <c r="E42" s="151"/>
-      <c r="F42" s="152"/>
-      <c r="G42" s="134" t="s">
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="145" t="s">
         <v>79</v>
       </c>
-      <c r="H42" s="135"/>
-      <c r="I42" s="135"/>
-      <c r="J42" s="135"/>
-      <c r="K42" s="135"/>
-      <c r="L42" s="135"/>
-      <c r="M42" s="135"/>
-      <c r="N42" s="135"/>
-      <c r="O42" s="136"/>
+      <c r="H42" s="146"/>
+      <c r="I42" s="146"/>
+      <c r="J42" s="146"/>
+      <c r="K42" s="146"/>
+      <c r="L42" s="146"/>
+      <c r="M42" s="146"/>
+      <c r="N42" s="146"/>
+      <c r="O42" s="147"/>
       <c r="R42" s="12">
         <v>4</v>
       </c>
-      <c r="S42" s="122" t="s">
+      <c r="S42" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="T42" s="122"/>
-      <c r="U42" s="122"/>
-      <c r="V42" s="122"/>
+      <c r="T42" s="99"/>
+      <c r="U42" s="99"/>
+      <c r="V42" s="99"/>
       <c r="AD42" s="33"/>
       <c r="AF42" s="12">
         <v>1</v>
       </c>
-      <c r="AG42" s="146" t="s">
+      <c r="AG42" s="141" t="s">
         <v>76</v>
       </c>
-      <c r="AH42" s="146"/>
-      <c r="AI42" s="146"/>
-      <c r="AJ42" s="146"/>
+      <c r="AH42" s="141"/>
+      <c r="AI42" s="141"/>
+      <c r="AJ42" s="141"/>
       <c r="AL42" s="13">
         <v>1</v>
       </c>
-      <c r="AM42" s="66" t="s">
+      <c r="AM42" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="AN42" s="67"/>
-      <c r="AO42" s="67"/>
-      <c r="AP42" s="68"/>
+      <c r="AN42" s="104"/>
+      <c r="AO42" s="104"/>
+      <c r="AP42" s="105"/>
       <c r="AQ42" s="30"/>
       <c r="AR42" s="30"/>
-      <c r="AS42" s="123" t="s">
+      <c r="AS42" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="AT42" s="123"/>
-      <c r="AU42" s="124" t="s">
+      <c r="AT42" s="135"/>
+      <c r="AU42" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="AV42" s="124"/>
-      <c r="AW42" s="123" t="s">
+      <c r="AV42" s="136"/>
+      <c r="AW42" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="AX42" s="123"/>
-      <c r="AY42" s="124" t="s">
+      <c r="AX42" s="135"/>
+      <c r="AY42" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="AZ42" s="124"/>
-      <c r="BA42" s="124"/>
-      <c r="BB42" s="124"/>
-      <c r="BD42" s="70"/>
-      <c r="BE42" s="70"/>
-      <c r="BF42" s="71"/>
+      <c r="AZ42" s="136"/>
+      <c r="BA42" s="136"/>
+      <c r="BB42" s="136"/>
+      <c r="BD42" s="81"/>
+      <c r="BE42" s="81"/>
+      <c r="BF42" s="82"/>
     </row>
     <row r="43" spans="2:58" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="35">
         <v>7</v>
       </c>
-      <c r="C43" s="128" t="s">
+      <c r="C43" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="129"/>
-      <c r="E43" s="129"/>
-      <c r="F43" s="130"/>
-      <c r="G43" s="134" t="s">
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="145" t="s">
         <v>90</v>
       </c>
-      <c r="H43" s="135"/>
-      <c r="I43" s="135"/>
-      <c r="J43" s="135"/>
-      <c r="K43" s="135"/>
-      <c r="L43" s="135"/>
-      <c r="M43" s="135"/>
-      <c r="N43" s="135"/>
-      <c r="O43" s="136"/>
-      <c r="R43" s="158">
+      <c r="H43" s="146"/>
+      <c r="I43" s="146"/>
+      <c r="J43" s="146"/>
+      <c r="K43" s="146"/>
+      <c r="L43" s="146"/>
+      <c r="M43" s="146"/>
+      <c r="N43" s="146"/>
+      <c r="O43" s="147"/>
+      <c r="R43" s="156">
         <v>5</v>
       </c>
-      <c r="S43" s="122" t="s">
+      <c r="S43" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="T43" s="122"/>
-      <c r="U43" s="122"/>
-      <c r="V43" s="122"/>
+      <c r="T43" s="99"/>
+      <c r="U43" s="99"/>
+      <c r="V43" s="99"/>
       <c r="AD43" s="33"/>
       <c r="AF43" s="12">
         <v>2</v>
       </c>
-      <c r="AG43" s="146" t="s">
+      <c r="AG43" s="141" t="s">
         <v>92</v>
       </c>
-      <c r="AH43" s="146"/>
-      <c r="AI43" s="146"/>
-      <c r="AJ43" s="146"/>
+      <c r="AH43" s="141"/>
+      <c r="AI43" s="141"/>
+      <c r="AJ43" s="141"/>
       <c r="AL43" s="13">
         <v>2</v>
       </c>
-      <c r="AM43" s="66" t="s">
+      <c r="AM43" s="103" t="s">
         <v>93</v>
       </c>
-      <c r="AN43" s="67"/>
-      <c r="AO43" s="67"/>
-      <c r="AP43" s="68"/>
+      <c r="AN43" s="104"/>
+      <c r="AO43" s="104"/>
+      <c r="AP43" s="105"/>
       <c r="AQ43" s="30"/>
       <c r="AR43" s="30"/>
     </row>
@@ -4484,141 +4486,141 @@
       <c r="B44" s="36">
         <v>8</v>
       </c>
-      <c r="C44" s="150" t="s">
+      <c r="C44" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="151"/>
-      <c r="E44" s="151"/>
-      <c r="F44" s="152"/>
-      <c r="G44" s="134" t="s">
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="145" t="s">
         <v>79</v>
       </c>
-      <c r="H44" s="135"/>
-      <c r="I44" s="135"/>
-      <c r="J44" s="135"/>
-      <c r="K44" s="135"/>
-      <c r="L44" s="135"/>
-      <c r="M44" s="135"/>
-      <c r="N44" s="135"/>
-      <c r="O44" s="136"/>
-      <c r="R44" s="158"/>
-      <c r="S44" s="83" t="s">
+      <c r="H44" s="146"/>
+      <c r="I44" s="146"/>
+      <c r="J44" s="146"/>
+      <c r="K44" s="146"/>
+      <c r="L44" s="146"/>
+      <c r="M44" s="146"/>
+      <c r="N44" s="146"/>
+      <c r="O44" s="147"/>
+      <c r="R44" s="156"/>
+      <c r="S44" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="T44" s="84"/>
-      <c r="U44" s="84"/>
-      <c r="V44" s="85"/>
+      <c r="T44" s="72"/>
+      <c r="U44" s="72"/>
+      <c r="V44" s="73"/>
       <c r="AD44" s="33"/>
       <c r="AF44" s="13">
         <v>3</v>
       </c>
-      <c r="AG44" s="69" t="s">
+      <c r="AG44" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="AH44" s="69"/>
-      <c r="AI44" s="69"/>
-      <c r="AJ44" s="69"/>
+      <c r="AH44" s="106"/>
+      <c r="AI44" s="106"/>
+      <c r="AJ44" s="106"/>
       <c r="AL44" s="13">
         <v>3</v>
       </c>
-      <c r="AM44" s="176" t="s">
+      <c r="AM44" s="127" t="s">
         <v>96</v>
       </c>
-      <c r="AN44" s="177"/>
-      <c r="AO44" s="177"/>
-      <c r="AP44" s="178"/>
+      <c r="AN44" s="128"/>
+      <c r="AO44" s="128"/>
+      <c r="AP44" s="129"/>
       <c r="AQ44" s="30"/>
       <c r="AR44" s="30"/>
       <c r="AS44" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AT44" s="70" t="s">
+      <c r="AT44" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="AU44" s="70"/>
-      <c r="AV44" s="70"/>
-      <c r="AW44" s="70"/>
-      <c r="AX44" s="143" t="s">
+      <c r="AU44" s="81"/>
+      <c r="AV44" s="81"/>
+      <c r="AW44" s="81"/>
+      <c r="AX44" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="AY44" s="143"/>
-      <c r="AZ44" s="143"/>
-      <c r="BA44" s="143"/>
-      <c r="BB44" s="143"/>
-      <c r="BC44" s="143"/>
-      <c r="BD44" s="143"/>
-      <c r="BE44" s="143"/>
-      <c r="BF44" s="143"/>
+      <c r="AY44" s="137"/>
+      <c r="AZ44" s="137"/>
+      <c r="BA44" s="137"/>
+      <c r="BB44" s="137"/>
+      <c r="BC44" s="137"/>
+      <c r="BD44" s="137"/>
+      <c r="BE44" s="137"/>
+      <c r="BF44" s="137"/>
     </row>
     <row r="45" spans="2:58" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="35">
         <v>9</v>
       </c>
-      <c r="C45" s="150" t="s">
+      <c r="C45" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="D45" s="151"/>
-      <c r="E45" s="151"/>
-      <c r="F45" s="152"/>
-      <c r="G45" s="134" t="s">
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="145" t="s">
         <v>98</v>
       </c>
-      <c r="H45" s="135"/>
-      <c r="I45" s="135"/>
-      <c r="J45" s="135"/>
-      <c r="K45" s="135"/>
-      <c r="L45" s="135"/>
-      <c r="M45" s="135"/>
-      <c r="N45" s="135"/>
-      <c r="O45" s="136"/>
-      <c r="R45" s="158"/>
-      <c r="S45" s="161" t="s">
+      <c r="H45" s="146"/>
+      <c r="I45" s="146"/>
+      <c r="J45" s="146"/>
+      <c r="K45" s="146"/>
+      <c r="L45" s="146"/>
+      <c r="M45" s="146"/>
+      <c r="N45" s="146"/>
+      <c r="O45" s="147"/>
+      <c r="R45" s="156"/>
+      <c r="S45" s="164" t="s">
         <v>99</v>
       </c>
-      <c r="T45" s="161"/>
-      <c r="U45" s="161"/>
-      <c r="V45" s="161"/>
+      <c r="T45" s="164"/>
+      <c r="U45" s="164"/>
+      <c r="V45" s="164"/>
       <c r="AD45" s="33"/>
       <c r="AL45" s="13">
         <v>4</v>
       </c>
-      <c r="AM45" s="176" t="s">
+      <c r="AM45" s="127" t="s">
         <v>100</v>
       </c>
-      <c r="AN45" s="177"/>
-      <c r="AO45" s="177"/>
-      <c r="AP45" s="178"/>
+      <c r="AN45" s="128"/>
+      <c r="AO45" s="128"/>
+      <c r="AP45" s="129"/>
       <c r="AQ45" s="30"/>
       <c r="AR45" s="30"/>
       <c r="AS45" s="35">
         <v>1</v>
       </c>
-      <c r="AT45" s="140" t="s">
+      <c r="AT45" s="116" t="s">
         <v>101</v>
       </c>
-      <c r="AU45" s="141"/>
-      <c r="AV45" s="141"/>
-      <c r="AW45" s="142"/>
-      <c r="AX45" s="66" t="s">
+      <c r="AU45" s="117"/>
+      <c r="AV45" s="117"/>
+      <c r="AW45" s="118"/>
+      <c r="AX45" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="AY45" s="67"/>
-      <c r="AZ45" s="67"/>
-      <c r="BA45" s="67"/>
-      <c r="BB45" s="67"/>
-      <c r="BC45" s="67"/>
-      <c r="BD45" s="67"/>
-      <c r="BE45" s="67"/>
-      <c r="BF45" s="68"/>
+      <c r="AY45" s="104"/>
+      <c r="AZ45" s="104"/>
+      <c r="BA45" s="104"/>
+      <c r="BB45" s="104"/>
+      <c r="BC45" s="104"/>
+      <c r="BD45" s="104"/>
+      <c r="BE45" s="104"/>
+      <c r="BF45" s="105"/>
     </row>
     <row r="46" spans="2:58" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="R46" s="158"/>
-      <c r="S46" s="118" t="s">
+      <c r="R46" s="156"/>
+      <c r="S46" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="T46" s="118"/>
-      <c r="U46" s="118"/>
-      <c r="V46" s="118"/>
+      <c r="T46" s="67"/>
+      <c r="U46" s="67"/>
+      <c r="V46" s="67"/>
       <c r="AD46" s="33"/>
       <c r="AF46" s="22"/>
       <c r="AG46" s="22"/>
@@ -4628,34 +4630,34 @@
       <c r="AL46" s="13">
         <v>5</v>
       </c>
-      <c r="AM46" s="179" t="s">
+      <c r="AM46" s="130" t="s">
         <v>104</v>
       </c>
-      <c r="AN46" s="180"/>
-      <c r="AO46" s="180"/>
-      <c r="AP46" s="181"/>
+      <c r="AN46" s="131"/>
+      <c r="AO46" s="131"/>
+      <c r="AP46" s="132"/>
       <c r="AQ46" s="30"/>
       <c r="AR46" s="30"/>
       <c r="AS46" s="35">
         <v>2</v>
       </c>
-      <c r="AT46" s="104" t="s">
+      <c r="AT46" s="138" t="s">
         <v>105</v>
       </c>
-      <c r="AU46" s="105"/>
-      <c r="AV46" s="105"/>
-      <c r="AW46" s="106"/>
-      <c r="AX46" s="83" t="s">
+      <c r="AU46" s="139"/>
+      <c r="AV46" s="139"/>
+      <c r="AW46" s="140"/>
+      <c r="AX46" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="AY46" s="84"/>
-      <c r="AZ46" s="84"/>
-      <c r="BA46" s="84"/>
-      <c r="BB46" s="84"/>
-      <c r="BC46" s="84"/>
-      <c r="BD46" s="84"/>
-      <c r="BE46" s="84"/>
-      <c r="BF46" s="85"/>
+      <c r="AY46" s="72"/>
+      <c r="AZ46" s="72"/>
+      <c r="BA46" s="72"/>
+      <c r="BB46" s="72"/>
+      <c r="BC46" s="72"/>
+      <c r="BD46" s="72"/>
+      <c r="BE46" s="72"/>
+      <c r="BF46" s="73"/>
     </row>
     <row r="47" spans="2:58" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AD47" s="33"/>
@@ -4667,44 +4669,44 @@
       <c r="AL47" s="13">
         <v>6</v>
       </c>
-      <c r="AM47" s="179" t="s">
+      <c r="AM47" s="130" t="s">
         <v>107</v>
       </c>
-      <c r="AN47" s="180"/>
-      <c r="AO47" s="180"/>
-      <c r="AP47" s="181"/>
+      <c r="AN47" s="131"/>
+      <c r="AO47" s="131"/>
+      <c r="AP47" s="132"/>
       <c r="AQ47" s="30"/>
       <c r="AR47" s="30"/>
       <c r="AS47" s="13">
         <v>3</v>
       </c>
-      <c r="AT47" s="140" t="s">
+      <c r="AT47" s="116" t="s">
         <v>108</v>
       </c>
-      <c r="AU47" s="141"/>
-      <c r="AV47" s="141"/>
-      <c r="AW47" s="142"/>
-      <c r="AX47" s="66" t="s">
+      <c r="AU47" s="117"/>
+      <c r="AV47" s="117"/>
+      <c r="AW47" s="118"/>
+      <c r="AX47" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="AY47" s="67"/>
-      <c r="AZ47" s="67"/>
-      <c r="BA47" s="67"/>
-      <c r="BB47" s="67"/>
-      <c r="BC47" s="67"/>
-      <c r="BD47" s="67"/>
-      <c r="BE47" s="67"/>
-      <c r="BF47" s="68"/>
+      <c r="AY47" s="104"/>
+      <c r="AZ47" s="104"/>
+      <c r="BA47" s="104"/>
+      <c r="BB47" s="104"/>
+      <c r="BC47" s="104"/>
+      <c r="BD47" s="104"/>
+      <c r="BE47" s="104"/>
+      <c r="BF47" s="105"/>
     </row>
     <row r="48" spans="2:58" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="65" t="s">
         <v>1</v>
       </c>
       <c r="C48" s="65"/>
-      <c r="D48" s="90" t="s">
+      <c r="D48" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="E48" s="90"/>
+      <c r="E48" s="66"/>
       <c r="AD48" s="33"/>
       <c r="AF48" s="22"/>
       <c r="AG48" s="57"/>
@@ -4721,44 +4723,44 @@
       <c r="AS48" s="13">
         <v>4</v>
       </c>
-      <c r="AT48" s="140" t="s">
+      <c r="AT48" s="116" t="s">
         <v>110</v>
       </c>
-      <c r="AU48" s="141"/>
-      <c r="AV48" s="141"/>
-      <c r="AW48" s="142"/>
-      <c r="AX48" s="66" t="s">
+      <c r="AU48" s="117"/>
+      <c r="AV48" s="117"/>
+      <c r="AW48" s="118"/>
+      <c r="AX48" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="AY48" s="67"/>
-      <c r="AZ48" s="67"/>
-      <c r="BA48" s="67"/>
-      <c r="BB48" s="67"/>
-      <c r="BC48" s="67"/>
-      <c r="BD48" s="67"/>
-      <c r="BE48" s="67"/>
-      <c r="BF48" s="68"/>
+      <c r="AY48" s="104"/>
+      <c r="AZ48" s="104"/>
+      <c r="BA48" s="104"/>
+      <c r="BB48" s="104"/>
+      <c r="BC48" s="104"/>
+      <c r="BD48" s="104"/>
+      <c r="BE48" s="104"/>
+      <c r="BF48" s="105"/>
     </row>
     <row r="49" spans="2:74" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="120" t="s">
+      <c r="B49" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="121"/>
-      <c r="D49" s="122" t="s">
+      <c r="C49" s="134"/>
+      <c r="D49" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="E49" s="122"/>
-      <c r="F49" s="122"/>
-      <c r="G49" s="122"/>
-      <c r="H49" s="122"/>
-      <c r="I49" s="122"/>
-      <c r="J49" s="122"/>
-      <c r="K49" s="122"/>
-      <c r="M49" s="70" t="s">
+      <c r="E49" s="99"/>
+      <c r="F49" s="99"/>
+      <c r="G49" s="99"/>
+      <c r="H49" s="99"/>
+      <c r="I49" s="99"/>
+      <c r="J49" s="99"/>
+      <c r="K49" s="99"/>
+      <c r="M49" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="N49" s="70"/>
-      <c r="O49" s="71" t="s">
+      <c r="N49" s="81"/>
+      <c r="O49" s="82" t="s">
         <v>11</v>
       </c>
       <c r="AD49" s="33"/>
@@ -4776,46 +4778,46 @@
       <c r="AS49" s="35">
         <v>5</v>
       </c>
-      <c r="AT49" s="140" t="s">
+      <c r="AT49" s="116" t="s">
         <v>112</v>
       </c>
-      <c r="AU49" s="141"/>
-      <c r="AV49" s="141"/>
-      <c r="AW49" s="142"/>
-      <c r="AX49" s="66" t="s">
+      <c r="AU49" s="117"/>
+      <c r="AV49" s="117"/>
+      <c r="AW49" s="118"/>
+      <c r="AX49" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="AY49" s="67"/>
-      <c r="AZ49" s="67"/>
-      <c r="BA49" s="67"/>
-      <c r="BB49" s="67"/>
-      <c r="BC49" s="67"/>
-      <c r="BD49" s="67"/>
-      <c r="BE49" s="67"/>
-      <c r="BF49" s="68"/>
+      <c r="AY49" s="104"/>
+      <c r="AZ49" s="104"/>
+      <c r="BA49" s="104"/>
+      <c r="BB49" s="104"/>
+      <c r="BC49" s="104"/>
+      <c r="BD49" s="104"/>
+      <c r="BE49" s="104"/>
+      <c r="BF49" s="105"/>
     </row>
     <row r="50" spans="2:74" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="123" t="s">
+      <c r="B50" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="123"/>
-      <c r="D50" s="124" t="s">
+      <c r="C50" s="135"/>
+      <c r="D50" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="E50" s="124"/>
-      <c r="F50" s="123" t="s">
+      <c r="E50" s="136"/>
+      <c r="F50" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="G50" s="123"/>
-      <c r="H50" s="124" t="s">
+      <c r="G50" s="135"/>
+      <c r="H50" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="I50" s="124"/>
-      <c r="J50" s="124"/>
-      <c r="K50" s="124"/>
-      <c r="M50" s="70"/>
-      <c r="N50" s="70"/>
-      <c r="O50" s="71"/>
+      <c r="I50" s="136"/>
+      <c r="J50" s="136"/>
+      <c r="K50" s="136"/>
+      <c r="M50" s="81"/>
+      <c r="N50" s="81"/>
+      <c r="O50" s="82"/>
       <c r="AD50" s="33"/>
       <c r="AL50" s="30"/>
       <c r="AM50" s="30"/>
@@ -4827,23 +4829,23 @@
       <c r="AS50" s="35">
         <v>6</v>
       </c>
-      <c r="AT50" s="140" t="s">
+      <c r="AT50" s="116" t="s">
         <v>113</v>
       </c>
-      <c r="AU50" s="141"/>
-      <c r="AV50" s="141"/>
-      <c r="AW50" s="142"/>
-      <c r="AX50" s="83" t="s">
+      <c r="AU50" s="117"/>
+      <c r="AV50" s="117"/>
+      <c r="AW50" s="118"/>
+      <c r="AX50" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="AY50" s="84"/>
-      <c r="AZ50" s="84"/>
-      <c r="BA50" s="84"/>
-      <c r="BB50" s="84"/>
-      <c r="BC50" s="84"/>
-      <c r="BD50" s="84"/>
-      <c r="BE50" s="84"/>
-      <c r="BF50" s="85"/>
+      <c r="AY50" s="72"/>
+      <c r="AZ50" s="72"/>
+      <c r="BA50" s="72"/>
+      <c r="BB50" s="72"/>
+      <c r="BC50" s="72"/>
+      <c r="BD50" s="72"/>
+      <c r="BE50" s="72"/>
+      <c r="BF50" s="73"/>
     </row>
     <row r="51" spans="2:74" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AD51" s="33"/>
@@ -4857,54 +4859,54 @@
       <c r="AS51" s="13">
         <v>7</v>
       </c>
-      <c r="AT51" s="140" t="s">
+      <c r="AT51" s="116" t="s">
         <v>114</v>
       </c>
-      <c r="AU51" s="141"/>
-      <c r="AV51" s="141"/>
-      <c r="AW51" s="142"/>
-      <c r="AX51" s="66" t="s">
+      <c r="AU51" s="117"/>
+      <c r="AV51" s="117"/>
+      <c r="AW51" s="118"/>
+      <c r="AX51" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="AY51" s="67"/>
-      <c r="AZ51" s="67"/>
-      <c r="BA51" s="67"/>
-      <c r="BB51" s="67"/>
-      <c r="BC51" s="67"/>
-      <c r="BD51" s="67"/>
-      <c r="BE51" s="67"/>
-      <c r="BF51" s="68"/>
+      <c r="AY51" s="104"/>
+      <c r="AZ51" s="104"/>
+      <c r="BA51" s="104"/>
+      <c r="BB51" s="104"/>
+      <c r="BC51" s="104"/>
+      <c r="BD51" s="104"/>
+      <c r="BE51" s="104"/>
+      <c r="BF51" s="105"/>
     </row>
     <row r="52" spans="2:74" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="70" t="s">
+      <c r="C52" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="143" t="s">
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="H52" s="143"/>
-      <c r="I52" s="143"/>
-      <c r="J52" s="143"/>
-      <c r="K52" s="143"/>
-      <c r="L52" s="143"/>
-      <c r="M52" s="143"/>
-      <c r="N52" s="143"/>
-      <c r="O52" s="143"/>
+      <c r="H52" s="137"/>
+      <c r="I52" s="137"/>
+      <c r="J52" s="137"/>
+      <c r="K52" s="137"/>
+      <c r="L52" s="137"/>
+      <c r="M52" s="137"/>
+      <c r="N52" s="137"/>
+      <c r="O52" s="137"/>
       <c r="R52" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="S52" s="148" t="s">
+      <c r="S52" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="T52" s="148"/>
-      <c r="U52" s="148"/>
-      <c r="V52" s="148"/>
+      <c r="T52" s="91"/>
+      <c r="U52" s="91"/>
+      <c r="V52" s="91"/>
       <c r="X52" s="7" t="s">
         <v>12</v>
       </c>
@@ -4925,234 +4927,234 @@
       <c r="AS52" s="19">
         <v>8</v>
       </c>
-      <c r="AT52" s="183" t="s">
+      <c r="AT52" s="122" t="s">
         <v>115</v>
       </c>
-      <c r="AU52" s="184"/>
-      <c r="AV52" s="184"/>
-      <c r="AW52" s="185"/>
-      <c r="AX52" s="78" t="s">
+      <c r="AU52" s="123"/>
+      <c r="AV52" s="123"/>
+      <c r="AW52" s="124"/>
+      <c r="AX52" s="125" t="s">
         <v>116</v>
       </c>
-      <c r="AY52" s="79"/>
-      <c r="AZ52" s="79"/>
-      <c r="BA52" s="79"/>
-      <c r="BB52" s="79"/>
-      <c r="BC52" s="79"/>
-      <c r="BD52" s="79"/>
-      <c r="BE52" s="79"/>
-      <c r="BF52" s="80"/>
+      <c r="AY52" s="126"/>
+      <c r="AZ52" s="126"/>
+      <c r="BA52" s="126"/>
+      <c r="BB52" s="126"/>
+      <c r="BC52" s="126"/>
+      <c r="BD52" s="126"/>
+      <c r="BE52" s="126"/>
+      <c r="BF52" s="112"/>
     </row>
     <row r="53" spans="2:74" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="35">
         <v>3</v>
       </c>
-      <c r="C53" s="140" t="s">
+      <c r="C53" s="116" t="s">
         <v>101</v>
       </c>
-      <c r="D53" s="141"/>
-      <c r="E53" s="141"/>
-      <c r="F53" s="142"/>
-      <c r="G53" s="104" t="s">
+      <c r="D53" s="117"/>
+      <c r="E53" s="117"/>
+      <c r="F53" s="118"/>
+      <c r="G53" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="H53" s="105"/>
-      <c r="I53" s="105"/>
-      <c r="J53" s="105"/>
-      <c r="K53" s="105"/>
-      <c r="L53" s="105"/>
-      <c r="M53" s="105"/>
-      <c r="N53" s="105"/>
-      <c r="O53" s="106"/>
+      <c r="H53" s="139"/>
+      <c r="I53" s="139"/>
+      <c r="J53" s="139"/>
+      <c r="K53" s="139"/>
+      <c r="L53" s="139"/>
+      <c r="M53" s="139"/>
+      <c r="N53" s="139"/>
+      <c r="O53" s="140"/>
       <c r="R53" s="12">
         <v>1</v>
       </c>
-      <c r="S53" s="146" t="s">
+      <c r="S53" s="141" t="s">
         <v>76</v>
       </c>
-      <c r="T53" s="146"/>
-      <c r="U53" s="146"/>
-      <c r="V53" s="146"/>
+      <c r="T53" s="141"/>
+      <c r="U53" s="141"/>
+      <c r="V53" s="141"/>
       <c r="X53" s="13">
         <v>1</v>
       </c>
-      <c r="Y53" s="66" t="s">
+      <c r="Y53" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="Z53" s="67"/>
-      <c r="AA53" s="67"/>
-      <c r="AB53" s="68"/>
+      <c r="Z53" s="104"/>
+      <c r="AA53" s="104"/>
+      <c r="AB53" s="105"/>
       <c r="AD53" s="33"/>
       <c r="AS53" s="35">
         <v>9</v>
       </c>
-      <c r="AT53" s="165" t="s">
+      <c r="AT53" s="119" t="s">
         <v>97</v>
       </c>
-      <c r="AU53" s="165"/>
-      <c r="AV53" s="165"/>
-      <c r="AW53" s="165"/>
-      <c r="AX53" s="118" t="s">
+      <c r="AU53" s="119"/>
+      <c r="AV53" s="119"/>
+      <c r="AW53" s="119"/>
+      <c r="AX53" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="AY53" s="118"/>
-      <c r="AZ53" s="118"/>
-      <c r="BA53" s="118"/>
-      <c r="BB53" s="118"/>
-      <c r="BC53" s="118"/>
-      <c r="BD53" s="118"/>
-      <c r="BE53" s="118"/>
-      <c r="BF53" s="118"/>
+      <c r="AY53" s="67"/>
+      <c r="AZ53" s="67"/>
+      <c r="BA53" s="67"/>
+      <c r="BB53" s="67"/>
+      <c r="BC53" s="67"/>
+      <c r="BD53" s="67"/>
+      <c r="BE53" s="67"/>
+      <c r="BF53" s="67"/>
     </row>
     <row r="54" spans="2:74" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="35">
         <v>4</v>
       </c>
-      <c r="C54" s="104" t="s">
+      <c r="C54" s="138" t="s">
         <v>105</v>
       </c>
-      <c r="D54" s="105"/>
-      <c r="E54" s="105"/>
-      <c r="F54" s="106"/>
-      <c r="G54" s="140" t="s">
+      <c r="D54" s="139"/>
+      <c r="E54" s="139"/>
+      <c r="F54" s="140"/>
+      <c r="G54" s="116" t="s">
         <v>118</v>
       </c>
-      <c r="H54" s="141"/>
-      <c r="I54" s="141"/>
-      <c r="J54" s="141"/>
-      <c r="K54" s="141"/>
-      <c r="L54" s="141"/>
-      <c r="M54" s="141"/>
-      <c r="N54" s="141"/>
-      <c r="O54" s="142"/>
+      <c r="H54" s="117"/>
+      <c r="I54" s="117"/>
+      <c r="J54" s="117"/>
+      <c r="K54" s="117"/>
+      <c r="L54" s="117"/>
+      <c r="M54" s="117"/>
+      <c r="N54" s="117"/>
+      <c r="O54" s="118"/>
       <c r="R54" s="12">
         <v>2</v>
       </c>
-      <c r="S54" s="146" t="s">
+      <c r="S54" s="141" t="s">
         <v>92</v>
       </c>
-      <c r="T54" s="146"/>
-      <c r="U54" s="146"/>
-      <c r="V54" s="146"/>
+      <c r="T54" s="141"/>
+      <c r="U54" s="141"/>
+      <c r="V54" s="141"/>
       <c r="X54" s="13">
         <v>2</v>
       </c>
-      <c r="Y54" s="66" t="s">
+      <c r="Y54" s="103" t="s">
         <v>93</v>
       </c>
-      <c r="Z54" s="67"/>
-      <c r="AA54" s="67"/>
-      <c r="AB54" s="68"/>
+      <c r="Z54" s="104"/>
+      <c r="AA54" s="104"/>
+      <c r="AB54" s="105"/>
       <c r="AD54" s="33"/>
       <c r="AS54" s="53"/>
-      <c r="AT54" s="182"/>
-      <c r="AU54" s="182"/>
-      <c r="AV54" s="182"/>
-      <c r="AW54" s="182"/>
-      <c r="AX54" s="81"/>
-      <c r="AY54" s="81"/>
-      <c r="AZ54" s="81"/>
-      <c r="BA54" s="81"/>
-      <c r="BB54" s="81"/>
-      <c r="BC54" s="81"/>
-      <c r="BD54" s="81"/>
-      <c r="BE54" s="81"/>
-      <c r="BF54" s="81"/>
+      <c r="AT54" s="120"/>
+      <c r="AU54" s="120"/>
+      <c r="AV54" s="120"/>
+      <c r="AW54" s="120"/>
+      <c r="AX54" s="121"/>
+      <c r="AY54" s="121"/>
+      <c r="AZ54" s="121"/>
+      <c r="BA54" s="121"/>
+      <c r="BB54" s="121"/>
+      <c r="BC54" s="121"/>
+      <c r="BD54" s="121"/>
+      <c r="BE54" s="121"/>
+      <c r="BF54" s="121"/>
     </row>
     <row r="55" spans="2:74" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="35">
         <v>5</v>
       </c>
-      <c r="C55" s="140" t="s">
+      <c r="C55" s="116" t="s">
         <v>112</v>
       </c>
-      <c r="D55" s="141"/>
-      <c r="E55" s="141"/>
-      <c r="F55" s="142"/>
-      <c r="G55" s="140" t="s">
+      <c r="D55" s="117"/>
+      <c r="E55" s="117"/>
+      <c r="F55" s="118"/>
+      <c r="G55" s="116" t="s">
         <v>119</v>
       </c>
-      <c r="H55" s="141"/>
-      <c r="I55" s="141"/>
-      <c r="J55" s="141"/>
-      <c r="K55" s="141"/>
-      <c r="L55" s="141"/>
-      <c r="M55" s="141"/>
-      <c r="N55" s="141"/>
-      <c r="O55" s="142"/>
+      <c r="H55" s="117"/>
+      <c r="I55" s="117"/>
+      <c r="J55" s="117"/>
+      <c r="K55" s="117"/>
+      <c r="L55" s="117"/>
+      <c r="M55" s="117"/>
+      <c r="N55" s="117"/>
+      <c r="O55" s="118"/>
       <c r="R55" s="13">
         <v>3</v>
       </c>
-      <c r="S55" s="69" t="s">
+      <c r="S55" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="T55" s="69"/>
-      <c r="U55" s="69"/>
-      <c r="V55" s="69"/>
+      <c r="T55" s="106"/>
+      <c r="U55" s="106"/>
+      <c r="V55" s="106"/>
       <c r="X55" s="13">
         <v>3</v>
       </c>
-      <c r="Y55" s="66" t="s">
+      <c r="Y55" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="Z55" s="67"/>
-      <c r="AA55" s="67"/>
-      <c r="AB55" s="68"/>
+      <c r="Z55" s="104"/>
+      <c r="AA55" s="104"/>
+      <c r="AB55" s="105"/>
       <c r="AD55" s="33"/>
     </row>
     <row r="56" spans="2:74" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="35">
         <v>6</v>
       </c>
-      <c r="C56" s="104" t="s">
+      <c r="C56" s="138" t="s">
         <v>113</v>
       </c>
-      <c r="D56" s="105"/>
-      <c r="E56" s="105"/>
-      <c r="F56" s="106"/>
-      <c r="G56" s="104" t="s">
+      <c r="D56" s="139"/>
+      <c r="E56" s="139"/>
+      <c r="F56" s="140"/>
+      <c r="G56" s="138" t="s">
         <v>121</v>
       </c>
-      <c r="H56" s="105"/>
-      <c r="I56" s="105"/>
-      <c r="J56" s="105"/>
-      <c r="K56" s="105"/>
-      <c r="L56" s="105"/>
-      <c r="M56" s="105"/>
-      <c r="N56" s="105"/>
-      <c r="O56" s="106"/>
+      <c r="H56" s="139"/>
+      <c r="I56" s="139"/>
+      <c r="J56" s="139"/>
+      <c r="K56" s="139"/>
+      <c r="L56" s="139"/>
+      <c r="M56" s="139"/>
+      <c r="N56" s="139"/>
+      <c r="O56" s="140"/>
       <c r="X56" s="13">
         <v>4</v>
       </c>
-      <c r="Y56" s="66" t="s">
+      <c r="Y56" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="Z56" s="67"/>
-      <c r="AA56" s="67"/>
-      <c r="AB56" s="68"/>
+      <c r="Z56" s="104"/>
+      <c r="AA56" s="104"/>
+      <c r="AB56" s="105"/>
       <c r="AD56" s="33"/>
     </row>
     <row r="57" spans="2:74" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="35">
         <v>7</v>
       </c>
-      <c r="C57" s="140" t="s">
+      <c r="C57" s="116" t="s">
         <v>97</v>
       </c>
-      <c r="D57" s="141"/>
-      <c r="E57" s="141"/>
-      <c r="F57" s="142"/>
-      <c r="G57" s="140" t="s">
+      <c r="D57" s="117"/>
+      <c r="E57" s="117"/>
+      <c r="F57" s="118"/>
+      <c r="G57" s="116" t="s">
         <v>123</v>
       </c>
-      <c r="H57" s="141"/>
-      <c r="I57" s="141"/>
-      <c r="J57" s="141"/>
-      <c r="K57" s="141"/>
-      <c r="L57" s="141"/>
-      <c r="M57" s="141"/>
-      <c r="N57" s="141"/>
-      <c r="O57" s="142"/>
+      <c r="H57" s="117"/>
+      <c r="I57" s="117"/>
+      <c r="J57" s="117"/>
+      <c r="K57" s="117"/>
+      <c r="L57" s="117"/>
+      <c r="M57" s="117"/>
+      <c r="N57" s="117"/>
+      <c r="O57" s="118"/>
       <c r="AD57" s="33"/>
     </row>
     <row r="58" spans="2:74" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5160,12 +5162,12 @@
       <c r="AF58" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AG58" s="148" t="s">
+      <c r="AG58" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="AH58" s="148"/>
-      <c r="AI58" s="148"/>
-      <c r="AJ58" s="148"/>
+      <c r="AH58" s="91"/>
+      <c r="AI58" s="91"/>
+      <c r="AJ58" s="91"/>
       <c r="AL58" s="7" t="s">
         <v>12</v>
       </c>
@@ -5175,48 +5177,48 @@
       <c r="AN58" s="65"/>
       <c r="AO58" s="65"/>
       <c r="AP58" s="65"/>
-      <c r="AS58" s="94" t="s">
+      <c r="AS58" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="AT58" s="95"/>
-      <c r="AU58" s="96" t="s">
+      <c r="AT58" s="90"/>
+      <c r="AU58" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="AV58" s="97"/>
-      <c r="AW58" s="97"/>
-      <c r="AX58" s="97"/>
-      <c r="AY58" s="97"/>
-      <c r="AZ58" s="97"/>
-      <c r="BA58" s="97"/>
-      <c r="BB58" s="98"/>
+      <c r="AV58" s="79"/>
+      <c r="AW58" s="79"/>
+      <c r="AX58" s="79"/>
+      <c r="AY58" s="79"/>
+      <c r="AZ58" s="79"/>
+      <c r="BA58" s="79"/>
+      <c r="BB58" s="80"/>
       <c r="BC58" s="37"/>
-      <c r="BD58" s="70" t="s">
+      <c r="BD58" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="BE58" s="70"/>
-      <c r="BF58" s="71" t="s">
+      <c r="BE58" s="81"/>
+      <c r="BF58" s="82" t="s">
         <v>125</v>
       </c>
-      <c r="BI58" s="94" t="s">
+      <c r="BI58" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="BJ58" s="95"/>
-      <c r="BK58" s="96" t="s">
+      <c r="BJ58" s="90"/>
+      <c r="BK58" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="BL58" s="97"/>
-      <c r="BM58" s="97"/>
-      <c r="BN58" s="97"/>
-      <c r="BO58" s="97"/>
-      <c r="BP58" s="97"/>
-      <c r="BQ58" s="97"/>
-      <c r="BR58" s="98"/>
+      <c r="BL58" s="79"/>
+      <c r="BM58" s="79"/>
+      <c r="BN58" s="79"/>
+      <c r="BO58" s="79"/>
+      <c r="BP58" s="79"/>
+      <c r="BQ58" s="79"/>
+      <c r="BR58" s="80"/>
       <c r="BS58" s="37"/>
-      <c r="BT58" s="70" t="s">
+      <c r="BT58" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="BU58" s="70"/>
-      <c r="BV58" s="71" t="s">
+      <c r="BU58" s="81"/>
+      <c r="BV58" s="82" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5225,361 +5227,343 @@
       <c r="AF59" s="12">
         <v>1</v>
       </c>
-      <c r="AG59" s="122" t="s">
+      <c r="AG59" s="99" t="s">
         <v>76</v>
       </c>
-      <c r="AH59" s="122"/>
-      <c r="AI59" s="122"/>
-      <c r="AJ59" s="122"/>
+      <c r="AH59" s="99"/>
+      <c r="AI59" s="99"/>
+      <c r="AJ59" s="99"/>
       <c r="AL59" s="13">
         <v>1</v>
       </c>
-      <c r="AM59" s="66" t="s">
+      <c r="AM59" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="AN59" s="67"/>
-      <c r="AO59" s="67"/>
-      <c r="AP59" s="68"/>
-      <c r="AS59" s="99" t="s">
+      <c r="AN59" s="104"/>
+      <c r="AO59" s="104"/>
+      <c r="AP59" s="105"/>
+      <c r="AS59" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="AT59" s="100"/>
-      <c r="AU59" s="101" t="s">
+      <c r="AT59" s="85"/>
+      <c r="AU59" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="AV59" s="102"/>
-      <c r="AW59" s="99" t="s">
+      <c r="AV59" s="87"/>
+      <c r="AW59" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="AX59" s="100"/>
-      <c r="AY59" s="101" t="s">
+      <c r="AX59" s="85"/>
+      <c r="AY59" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="AZ59" s="103"/>
-      <c r="BA59" s="103"/>
-      <c r="BB59" s="102"/>
+      <c r="AZ59" s="88"/>
+      <c r="BA59" s="88"/>
+      <c r="BB59" s="87"/>
       <c r="BC59" s="37"/>
-      <c r="BD59" s="70"/>
-      <c r="BE59" s="70"/>
-      <c r="BF59" s="71"/>
-      <c r="BI59" s="99" t="s">
+      <c r="BD59" s="81"/>
+      <c r="BE59" s="81"/>
+      <c r="BF59" s="82"/>
+      <c r="BI59" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="BJ59" s="100"/>
-      <c r="BK59" s="101" t="s">
+      <c r="BJ59" s="85"/>
+      <c r="BK59" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="BL59" s="102"/>
-      <c r="BM59" s="99" t="s">
+      <c r="BL59" s="87"/>
+      <c r="BM59" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="BN59" s="100"/>
-      <c r="BO59" s="101" t="s">
+      <c r="BN59" s="85"/>
+      <c r="BO59" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="BP59" s="103"/>
-      <c r="BQ59" s="103"/>
-      <c r="BR59" s="102"/>
+      <c r="BP59" s="88"/>
+      <c r="BQ59" s="88"/>
+      <c r="BR59" s="87"/>
       <c r="BS59" s="37"/>
-      <c r="BT59" s="70"/>
-      <c r="BU59" s="70"/>
-      <c r="BV59" s="71"/>
+      <c r="BT59" s="81"/>
+      <c r="BU59" s="81"/>
+      <c r="BV59" s="82"/>
     </row>
     <row r="60" spans="2:74" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="65" t="s">
         <v>1</v>
       </c>
       <c r="C60" s="65"/>
-      <c r="D60" s="90" t="s">
+      <c r="D60" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="E60" s="90"/>
-      <c r="F60" s="197"/>
-      <c r="G60" s="197"/>
-      <c r="H60" s="197"/>
-      <c r="I60" s="197"/>
-      <c r="J60" s="197"/>
-      <c r="K60" s="197"/>
-      <c r="L60" s="197"/>
-      <c r="M60" s="197"/>
-      <c r="N60" s="197"/>
-      <c r="O60" s="197"/>
-      <c r="P60" s="197"/>
-      <c r="Q60" s="197"/>
-      <c r="R60" s="197"/>
-      <c r="S60" s="197"/>
-      <c r="T60" s="197"/>
-      <c r="U60" s="197"/>
-      <c r="V60" s="197"/>
-      <c r="W60" s="197"/>
+      <c r="E60" s="66"/>
       <c r="AD60" s="33"/>
       <c r="AF60" s="12">
         <v>2</v>
       </c>
-      <c r="AG60" s="122" t="s">
+      <c r="AG60" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="AH60" s="122"/>
-      <c r="AI60" s="122"/>
-      <c r="AJ60" s="122"/>
+      <c r="AH60" s="99"/>
+      <c r="AI60" s="99"/>
+      <c r="AJ60" s="99"/>
       <c r="AL60" s="19">
         <v>2</v>
       </c>
-      <c r="AM60" s="186" t="s">
+      <c r="AM60" s="113" t="s">
         <v>127</v>
       </c>
-      <c r="AN60" s="187"/>
-      <c r="AO60" s="187"/>
-      <c r="AP60" s="188"/>
+      <c r="AN60" s="114"/>
+      <c r="AO60" s="114"/>
+      <c r="AP60" s="115"/>
     </row>
     <row r="61" spans="2:74" x14ac:dyDescent="0.3">
-      <c r="B61" s="94" t="s">
+      <c r="B61" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="C61" s="95"/>
-      <c r="D61" s="96" t="s">
+      <c r="C61" s="90"/>
+      <c r="D61" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="E61" s="97"/>
-      <c r="F61" s="97"/>
-      <c r="G61" s="97"/>
-      <c r="H61" s="97"/>
-      <c r="I61" s="97"/>
-      <c r="J61" s="97"/>
-      <c r="K61" s="98"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="79"/>
+      <c r="G61" s="79"/>
+      <c r="H61" s="79"/>
+      <c r="I61" s="79"/>
+      <c r="J61" s="79"/>
+      <c r="K61" s="80"/>
       <c r="L61" s="37"/>
-      <c r="M61" s="70" t="s">
+      <c r="M61" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="N61" s="70"/>
-      <c r="O61" s="71" t="s">
+      <c r="N61" s="81"/>
+      <c r="O61" s="82" t="s">
         <v>125</v>
       </c>
       <c r="AD61" s="33"/>
       <c r="AF61" s="13">
         <v>3</v>
       </c>
-      <c r="AG61" s="118" t="s">
+      <c r="AG61" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="AH61" s="118"/>
-      <c r="AI61" s="118"/>
-      <c r="AJ61" s="118"/>
+      <c r="AH61" s="67"/>
+      <c r="AI61" s="67"/>
+      <c r="AJ61" s="67"/>
       <c r="AL61" s="13">
         <v>3</v>
       </c>
-      <c r="AM61" s="189" t="s">
+      <c r="AM61" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="AN61" s="189"/>
-      <c r="AO61" s="189"/>
-      <c r="AP61" s="189"/>
+      <c r="AN61" s="74"/>
+      <c r="AO61" s="74"/>
+      <c r="AP61" s="74"/>
       <c r="AS61" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AT61" s="107" t="s">
+      <c r="AT61" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="AU61" s="108"/>
-      <c r="AV61" s="108"/>
-      <c r="AW61" s="109"/>
-      <c r="AX61" s="110" t="s">
+      <c r="AU61" s="94"/>
+      <c r="AV61" s="94"/>
+      <c r="AW61" s="95"/>
+      <c r="AX61" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="AY61" s="111"/>
-      <c r="AZ61" s="111"/>
-      <c r="BA61" s="111"/>
-      <c r="BB61" s="111"/>
-      <c r="BC61" s="111"/>
-      <c r="BD61" s="111"/>
-      <c r="BE61" s="111"/>
-      <c r="BF61" s="112"/>
+      <c r="AY61" s="97"/>
+      <c r="AZ61" s="97"/>
+      <c r="BA61" s="97"/>
+      <c r="BB61" s="97"/>
+      <c r="BC61" s="97"/>
+      <c r="BD61" s="97"/>
+      <c r="BE61" s="97"/>
+      <c r="BF61" s="98"/>
       <c r="BI61" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="BJ61" s="107" t="s">
+      <c r="BJ61" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="BK61" s="108"/>
-      <c r="BL61" s="108"/>
-      <c r="BM61" s="109"/>
-      <c r="BN61" s="110" t="s">
+      <c r="BK61" s="94"/>
+      <c r="BL61" s="94"/>
+      <c r="BM61" s="95"/>
+      <c r="BN61" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="BO61" s="111"/>
-      <c r="BP61" s="111"/>
-      <c r="BQ61" s="111"/>
-      <c r="BR61" s="111"/>
-      <c r="BS61" s="111"/>
-      <c r="BT61" s="111"/>
-      <c r="BU61" s="111"/>
-      <c r="BV61" s="112"/>
+      <c r="BO61" s="97"/>
+      <c r="BP61" s="97"/>
+      <c r="BQ61" s="97"/>
+      <c r="BR61" s="97"/>
+      <c r="BS61" s="97"/>
+      <c r="BT61" s="97"/>
+      <c r="BU61" s="97"/>
+      <c r="BV61" s="98"/>
     </row>
     <row r="62" spans="2:74" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="99" t="s">
+      <c r="B62" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="100"/>
-      <c r="D62" s="101" t="s">
+      <c r="C62" s="85"/>
+      <c r="D62" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="E62" s="102"/>
-      <c r="F62" s="99" t="s">
+      <c r="E62" s="87"/>
+      <c r="F62" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="G62" s="100"/>
-      <c r="H62" s="101" t="s">
+      <c r="G62" s="85"/>
+      <c r="H62" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="I62" s="103"/>
-      <c r="J62" s="103"/>
-      <c r="K62" s="102"/>
+      <c r="I62" s="88"/>
+      <c r="J62" s="88"/>
+      <c r="K62" s="87"/>
       <c r="L62" s="37"/>
-      <c r="M62" s="70"/>
-      <c r="N62" s="70"/>
-      <c r="O62" s="71"/>
+      <c r="M62" s="81"/>
+      <c r="N62" s="81"/>
+      <c r="O62" s="82"/>
       <c r="AD62" s="33"/>
       <c r="AF62" s="13">
         <v>4</v>
       </c>
-      <c r="AG62" s="69" t="s">
+      <c r="AG62" s="106" t="s">
         <v>130</v>
       </c>
-      <c r="AH62" s="69"/>
-      <c r="AI62" s="69"/>
-      <c r="AJ62" s="69"/>
+      <c r="AH62" s="106"/>
+      <c r="AI62" s="106"/>
+      <c r="AJ62" s="106"/>
       <c r="AL62" s="13">
         <v>4</v>
       </c>
-      <c r="AM62" s="189" t="s">
+      <c r="AM62" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="AN62" s="189"/>
-      <c r="AO62" s="189"/>
-      <c r="AP62" s="189"/>
+      <c r="AN62" s="74"/>
+      <c r="AO62" s="74"/>
+      <c r="AP62" s="74"/>
       <c r="AS62" s="35">
         <v>1</v>
       </c>
-      <c r="AT62" s="83" t="s">
+      <c r="AT62" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="AU62" s="84"/>
-      <c r="AV62" s="84"/>
-      <c r="AW62" s="85"/>
-      <c r="AX62" s="83" t="s">
+      <c r="AU62" s="72"/>
+      <c r="AV62" s="72"/>
+      <c r="AW62" s="73"/>
+      <c r="AX62" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="AY62" s="84"/>
-      <c r="AZ62" s="84"/>
-      <c r="BA62" s="84"/>
-      <c r="BB62" s="84"/>
-      <c r="BC62" s="84"/>
-      <c r="BD62" s="84"/>
-      <c r="BE62" s="84"/>
-      <c r="BF62" s="85"/>
+      <c r="AY62" s="72"/>
+      <c r="AZ62" s="72"/>
+      <c r="BA62" s="72"/>
+      <c r="BB62" s="72"/>
+      <c r="BC62" s="72"/>
+      <c r="BD62" s="72"/>
+      <c r="BE62" s="72"/>
+      <c r="BF62" s="73"/>
       <c r="BI62" s="35">
         <v>1</v>
       </c>
-      <c r="BJ62" s="83" t="s">
+      <c r="BJ62" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="BK62" s="84"/>
-      <c r="BL62" s="84"/>
-      <c r="BM62" s="85"/>
-      <c r="BN62" s="83" t="s">
+      <c r="BK62" s="72"/>
+      <c r="BL62" s="72"/>
+      <c r="BM62" s="73"/>
+      <c r="BN62" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="BO62" s="84"/>
-      <c r="BP62" s="84"/>
-      <c r="BQ62" s="84"/>
-      <c r="BR62" s="84"/>
-      <c r="BS62" s="84"/>
-      <c r="BT62" s="84"/>
-      <c r="BU62" s="84"/>
-      <c r="BV62" s="85"/>
+      <c r="BO62" s="72"/>
+      <c r="BP62" s="72"/>
+      <c r="BQ62" s="72"/>
+      <c r="BR62" s="72"/>
+      <c r="BS62" s="72"/>
+      <c r="BT62" s="72"/>
+      <c r="BU62" s="72"/>
+      <c r="BV62" s="73"/>
     </row>
     <row r="63" spans="2:74" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AD63" s="33"/>
       <c r="AL63" s="13">
         <v>5</v>
       </c>
-      <c r="AM63" s="189" t="s">
+      <c r="AM63" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="AN63" s="189"/>
-      <c r="AO63" s="189"/>
-      <c r="AP63" s="189"/>
+      <c r="AN63" s="74"/>
+      <c r="AO63" s="74"/>
+      <c r="AP63" s="74"/>
       <c r="AS63" s="13">
         <v>2</v>
       </c>
-      <c r="AT63" s="69" t="s">
+      <c r="AT63" s="106" t="s">
         <v>135</v>
       </c>
-      <c r="AU63" s="69"/>
-      <c r="AV63" s="69"/>
-      <c r="AW63" s="69"/>
-      <c r="AX63" s="69" t="s">
+      <c r="AU63" s="106"/>
+      <c r="AV63" s="106"/>
+      <c r="AW63" s="106"/>
+      <c r="AX63" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="AY63" s="69"/>
-      <c r="AZ63" s="69"/>
-      <c r="BA63" s="69"/>
-      <c r="BB63" s="69"/>
-      <c r="BC63" s="69"/>
-      <c r="BD63" s="69"/>
-      <c r="BE63" s="69"/>
-      <c r="BF63" s="69"/>
+      <c r="AY63" s="106"/>
+      <c r="AZ63" s="106"/>
+      <c r="BA63" s="106"/>
+      <c r="BB63" s="106"/>
+      <c r="BC63" s="106"/>
+      <c r="BD63" s="106"/>
+      <c r="BE63" s="106"/>
+      <c r="BF63" s="106"/>
       <c r="BI63" s="13">
         <v>2</v>
       </c>
-      <c r="BJ63" s="69" t="s">
+      <c r="BJ63" s="106" t="s">
         <v>135</v>
       </c>
-      <c r="BK63" s="69"/>
-      <c r="BL63" s="69"/>
-      <c r="BM63" s="69"/>
-      <c r="BN63" s="69" t="s">
+      <c r="BK63" s="106"/>
+      <c r="BL63" s="106"/>
+      <c r="BM63" s="106"/>
+      <c r="BN63" s="106" t="s">
         <v>137</v>
       </c>
-      <c r="BO63" s="69"/>
-      <c r="BP63" s="69"/>
-      <c r="BQ63" s="69"/>
-      <c r="BR63" s="69"/>
-      <c r="BS63" s="69"/>
-      <c r="BT63" s="69"/>
-      <c r="BU63" s="69"/>
-      <c r="BV63" s="69"/>
+      <c r="BO63" s="106"/>
+      <c r="BP63" s="106"/>
+      <c r="BQ63" s="106"/>
+      <c r="BR63" s="106"/>
+      <c r="BS63" s="106"/>
+      <c r="BT63" s="106"/>
+      <c r="BU63" s="106"/>
+      <c r="BV63" s="106"/>
     </row>
     <row r="64" spans="2:74" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C64" s="107" t="s">
+      <c r="C64" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="D64" s="108"/>
-      <c r="E64" s="108"/>
-      <c r="F64" s="109"/>
-      <c r="G64" s="110" t="s">
+      <c r="D64" s="94"/>
+      <c r="E64" s="94"/>
+      <c r="F64" s="95"/>
+      <c r="G64" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="H64" s="111"/>
-      <c r="I64" s="111"/>
-      <c r="J64" s="111"/>
-      <c r="K64" s="111"/>
-      <c r="L64" s="111"/>
-      <c r="M64" s="111"/>
-      <c r="N64" s="111"/>
-      <c r="O64" s="112"/>
+      <c r="H64" s="97"/>
+      <c r="I64" s="97"/>
+      <c r="J64" s="97"/>
+      <c r="K64" s="97"/>
+      <c r="L64" s="97"/>
+      <c r="M64" s="97"/>
+      <c r="N64" s="97"/>
+      <c r="O64" s="98"/>
       <c r="R64" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="S64" s="148" t="s">
+      <c r="S64" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="T64" s="148"/>
-      <c r="U64" s="148"/>
-      <c r="V64" s="148"/>
+      <c r="T64" s="91"/>
+      <c r="U64" s="91"/>
+      <c r="V64" s="91"/>
       <c r="X64" s="7" t="s">
         <v>12</v>
       </c>
@@ -5593,321 +5577,321 @@
       <c r="AS64" s="19">
         <v>3</v>
       </c>
-      <c r="AT64" s="163" t="s">
+      <c r="AT64" s="110" t="s">
         <v>138</v>
       </c>
-      <c r="AU64" s="163"/>
-      <c r="AV64" s="163"/>
-      <c r="AW64" s="163"/>
-      <c r="AX64" s="119" t="s">
+      <c r="AU64" s="110"/>
+      <c r="AV64" s="110"/>
+      <c r="AW64" s="110"/>
+      <c r="AX64" s="111" t="s">
         <v>139</v>
       </c>
-      <c r="AY64" s="119"/>
-      <c r="AZ64" s="119"/>
-      <c r="BA64" s="119"/>
-      <c r="BB64" s="119"/>
-      <c r="BC64" s="119"/>
-      <c r="BD64" s="119"/>
-      <c r="BE64" s="119"/>
-      <c r="BF64" s="119"/>
+      <c r="AY64" s="111"/>
+      <c r="AZ64" s="111"/>
+      <c r="BA64" s="111"/>
+      <c r="BB64" s="111"/>
+      <c r="BC64" s="111"/>
+      <c r="BD64" s="111"/>
+      <c r="BE64" s="111"/>
+      <c r="BF64" s="111"/>
       <c r="BI64" s="13">
         <v>3</v>
       </c>
-      <c r="BJ64" s="118" t="s">
+      <c r="BJ64" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="BK64" s="118"/>
-      <c r="BL64" s="118"/>
-      <c r="BM64" s="118"/>
-      <c r="BN64" s="69" t="s">
+      <c r="BK64" s="67"/>
+      <c r="BL64" s="67"/>
+      <c r="BM64" s="67"/>
+      <c r="BN64" s="106" t="s">
         <v>140</v>
       </c>
-      <c r="BO64" s="69"/>
-      <c r="BP64" s="69"/>
-      <c r="BQ64" s="69"/>
-      <c r="BR64" s="69"/>
-      <c r="BS64" s="69"/>
-      <c r="BT64" s="69"/>
-      <c r="BU64" s="69"/>
-      <c r="BV64" s="69"/>
+      <c r="BO64" s="106"/>
+      <c r="BP64" s="106"/>
+      <c r="BQ64" s="106"/>
+      <c r="BR64" s="106"/>
+      <c r="BS64" s="106"/>
+      <c r="BT64" s="106"/>
+      <c r="BU64" s="106"/>
+      <c r="BV64" s="106"/>
     </row>
     <row r="65" spans="2:74" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="35">
         <v>1</v>
       </c>
-      <c r="C65" s="83" t="s">
+      <c r="C65" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="D65" s="84"/>
-      <c r="E65" s="84"/>
-      <c r="F65" s="85"/>
-      <c r="G65" s="83" t="s">
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="73"/>
+      <c r="G65" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="H65" s="84"/>
-      <c r="I65" s="84"/>
-      <c r="J65" s="84"/>
-      <c r="K65" s="84"/>
-      <c r="L65" s="84"/>
-      <c r="M65" s="84"/>
-      <c r="N65" s="84"/>
-      <c r="O65" s="85"/>
+      <c r="H65" s="72"/>
+      <c r="I65" s="72"/>
+      <c r="J65" s="72"/>
+      <c r="K65" s="72"/>
+      <c r="L65" s="72"/>
+      <c r="M65" s="72"/>
+      <c r="N65" s="72"/>
+      <c r="O65" s="73"/>
       <c r="R65" s="12">
         <v>1</v>
       </c>
-      <c r="S65" s="146" t="s">
+      <c r="S65" s="141" t="s">
         <v>76</v>
       </c>
-      <c r="T65" s="146"/>
-      <c r="U65" s="146"/>
-      <c r="V65" s="146"/>
+      <c r="T65" s="141"/>
+      <c r="U65" s="141"/>
+      <c r="V65" s="141"/>
       <c r="X65" s="13">
         <v>1</v>
       </c>
-      <c r="Y65" s="66" t="s">
+      <c r="Y65" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="Z65" s="67"/>
-      <c r="AA65" s="67"/>
-      <c r="AB65" s="68"/>
+      <c r="Z65" s="104"/>
+      <c r="AA65" s="104"/>
+      <c r="AB65" s="105"/>
       <c r="AD65" s="33"/>
       <c r="AS65" s="35">
         <v>4</v>
       </c>
-      <c r="AT65" s="83" t="s">
+      <c r="AT65" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="AU65" s="84"/>
-      <c r="AV65" s="84"/>
-      <c r="AW65" s="85"/>
-      <c r="AX65" s="83" t="s">
+      <c r="AU65" s="72"/>
+      <c r="AV65" s="72"/>
+      <c r="AW65" s="73"/>
+      <c r="AX65" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="AY65" s="84"/>
-      <c r="AZ65" s="84"/>
-      <c r="BA65" s="84"/>
-      <c r="BB65" s="84"/>
-      <c r="BC65" s="84"/>
-      <c r="BD65" s="84"/>
-      <c r="BE65" s="84"/>
-      <c r="BF65" s="85"/>
+      <c r="AY65" s="72"/>
+      <c r="AZ65" s="72"/>
+      <c r="BA65" s="72"/>
+      <c r="BB65" s="72"/>
+      <c r="BC65" s="72"/>
+      <c r="BD65" s="72"/>
+      <c r="BE65" s="72"/>
+      <c r="BF65" s="73"/>
       <c r="BI65" s="13">
         <v>4</v>
       </c>
-      <c r="BJ65" s="69" t="s">
+      <c r="BJ65" s="106" t="s">
         <v>143</v>
       </c>
-      <c r="BK65" s="69"/>
-      <c r="BL65" s="69"/>
-      <c r="BM65" s="69"/>
-      <c r="BN65" s="69" t="s">
+      <c r="BK65" s="106"/>
+      <c r="BL65" s="106"/>
+      <c r="BM65" s="106"/>
+      <c r="BN65" s="106" t="s">
         <v>144</v>
       </c>
-      <c r="BO65" s="69"/>
-      <c r="BP65" s="69"/>
-      <c r="BQ65" s="69"/>
-      <c r="BR65" s="69"/>
-      <c r="BS65" s="69"/>
-      <c r="BT65" s="69"/>
-      <c r="BU65" s="69"/>
-      <c r="BV65" s="69"/>
+      <c r="BO65" s="106"/>
+      <c r="BP65" s="106"/>
+      <c r="BQ65" s="106"/>
+      <c r="BR65" s="106"/>
+      <c r="BS65" s="106"/>
+      <c r="BT65" s="106"/>
+      <c r="BU65" s="106"/>
+      <c r="BV65" s="106"/>
     </row>
     <row r="66" spans="2:74" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="13">
         <v>2</v>
       </c>
-      <c r="C66" s="69" t="s">
+      <c r="C66" s="106" t="s">
         <v>135</v>
       </c>
-      <c r="D66" s="69"/>
-      <c r="E66" s="69"/>
-      <c r="F66" s="69"/>
-      <c r="G66" s="69" t="s">
+      <c r="D66" s="106"/>
+      <c r="E66" s="106"/>
+      <c r="F66" s="106"/>
+      <c r="G66" s="106" t="s">
         <v>137</v>
       </c>
-      <c r="H66" s="69"/>
-      <c r="I66" s="69"/>
-      <c r="J66" s="69"/>
-      <c r="K66" s="69"/>
-      <c r="L66" s="69"/>
-      <c r="M66" s="69"/>
-      <c r="N66" s="69"/>
-      <c r="O66" s="69"/>
+      <c r="H66" s="106"/>
+      <c r="I66" s="106"/>
+      <c r="J66" s="106"/>
+      <c r="K66" s="106"/>
+      <c r="L66" s="106"/>
+      <c r="M66" s="106"/>
+      <c r="N66" s="106"/>
+      <c r="O66" s="106"/>
       <c r="R66" s="12">
         <v>2</v>
       </c>
-      <c r="S66" s="146" t="s">
+      <c r="S66" s="141" t="s">
         <v>92</v>
       </c>
-      <c r="T66" s="146"/>
-      <c r="U66" s="146"/>
-      <c r="V66" s="146"/>
+      <c r="T66" s="141"/>
+      <c r="U66" s="141"/>
+      <c r="V66" s="141"/>
       <c r="X66" s="19">
         <v>2</v>
       </c>
-      <c r="Y66" s="78" t="s">
+      <c r="Y66" s="125" t="s">
         <v>145</v>
       </c>
-      <c r="Z66" s="79"/>
-      <c r="AA66" s="79"/>
-      <c r="AB66" s="80"/>
+      <c r="Z66" s="126"/>
+      <c r="AA66" s="126"/>
+      <c r="AB66" s="112"/>
       <c r="AD66" s="33"/>
       <c r="AS66" s="13">
         <v>5</v>
       </c>
-      <c r="AT66" s="118" t="s">
+      <c r="AT66" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="AU66" s="118"/>
-      <c r="AV66" s="118"/>
-      <c r="AW66" s="118"/>
-      <c r="AX66" s="69" t="s">
+      <c r="AU66" s="67"/>
+      <c r="AV66" s="67"/>
+      <c r="AW66" s="67"/>
+      <c r="AX66" s="106" t="s">
         <v>147</v>
       </c>
-      <c r="AY66" s="69"/>
-      <c r="AZ66" s="69"/>
-      <c r="BA66" s="69"/>
-      <c r="BB66" s="69"/>
-      <c r="BC66" s="69"/>
-      <c r="BD66" s="69"/>
-      <c r="BE66" s="69"/>
-      <c r="BF66" s="69"/>
+      <c r="AY66" s="106"/>
+      <c r="AZ66" s="106"/>
+      <c r="BA66" s="106"/>
+      <c r="BB66" s="106"/>
+      <c r="BC66" s="106"/>
+      <c r="BD66" s="106"/>
+      <c r="BE66" s="106"/>
+      <c r="BF66" s="106"/>
     </row>
     <row r="67" spans="2:74" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="19">
         <v>3</v>
       </c>
-      <c r="C67" s="163" t="s">
+      <c r="C67" s="110" t="s">
         <v>138</v>
       </c>
-      <c r="D67" s="163"/>
-      <c r="E67" s="163"/>
-      <c r="F67" s="163"/>
-      <c r="G67" s="119" t="s">
+      <c r="D67" s="110"/>
+      <c r="E67" s="110"/>
+      <c r="F67" s="110"/>
+      <c r="G67" s="111" t="s">
         <v>139</v>
       </c>
-      <c r="H67" s="119"/>
-      <c r="I67" s="119"/>
-      <c r="J67" s="119"/>
-      <c r="K67" s="119"/>
-      <c r="L67" s="119"/>
-      <c r="M67" s="119"/>
-      <c r="N67" s="119"/>
-      <c r="O67" s="119"/>
+      <c r="H67" s="111"/>
+      <c r="I67" s="111"/>
+      <c r="J67" s="111"/>
+      <c r="K67" s="111"/>
+      <c r="L67" s="111"/>
+      <c r="M67" s="111"/>
+      <c r="N67" s="111"/>
+      <c r="O67" s="111"/>
       <c r="R67" s="13">
         <v>3</v>
       </c>
-      <c r="S67" s="165" t="s">
+      <c r="S67" s="119" t="s">
         <v>128</v>
       </c>
-      <c r="T67" s="165"/>
-      <c r="U67" s="165"/>
-      <c r="V67" s="165"/>
+      <c r="T67" s="119"/>
+      <c r="U67" s="119"/>
+      <c r="V67" s="119"/>
       <c r="X67" s="38"/>
-      <c r="Y67" s="79"/>
-      <c r="Z67" s="79"/>
-      <c r="AA67" s="79"/>
-      <c r="AB67" s="79"/>
+      <c r="Y67" s="126"/>
+      <c r="Z67" s="126"/>
+      <c r="AA67" s="126"/>
+      <c r="AB67" s="126"/>
       <c r="AD67" s="33"/>
       <c r="AS67" s="59">
         <v>6</v>
       </c>
-      <c r="AT67" s="191" t="s">
+      <c r="AT67" s="107" t="s">
         <v>148</v>
       </c>
-      <c r="AU67" s="192"/>
-      <c r="AV67" s="192"/>
-      <c r="AW67" s="193"/>
-      <c r="AX67" s="83" t="s">
+      <c r="AU67" s="108"/>
+      <c r="AV67" s="108"/>
+      <c r="AW67" s="109"/>
+      <c r="AX67" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="AY67" s="84"/>
-      <c r="AZ67" s="84"/>
-      <c r="BA67" s="84"/>
-      <c r="BB67" s="84"/>
-      <c r="BC67" s="84"/>
-      <c r="BD67" s="84"/>
-      <c r="BE67" s="84"/>
-      <c r="BF67" s="85"/>
+      <c r="AY67" s="72"/>
+      <c r="AZ67" s="72"/>
+      <c r="BA67" s="72"/>
+      <c r="BB67" s="72"/>
+      <c r="BC67" s="72"/>
+      <c r="BD67" s="72"/>
+      <c r="BE67" s="72"/>
+      <c r="BF67" s="73"/>
     </row>
     <row r="68" spans="2:74" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="59">
         <v>6</v>
       </c>
-      <c r="C68" s="83" t="s">
+      <c r="C68" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="D68" s="84"/>
-      <c r="E68" s="84"/>
-      <c r="F68" s="85"/>
-      <c r="G68" s="83" t="s">
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="73"/>
+      <c r="G68" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="H68" s="84"/>
-      <c r="I68" s="84"/>
-      <c r="J68" s="84"/>
-      <c r="K68" s="84"/>
-      <c r="L68" s="84"/>
-      <c r="M68" s="84"/>
-      <c r="N68" s="84"/>
-      <c r="O68" s="85"/>
+      <c r="H68" s="72"/>
+      <c r="I68" s="72"/>
+      <c r="J68" s="72"/>
+      <c r="K68" s="72"/>
+      <c r="L68" s="72"/>
+      <c r="M68" s="72"/>
+      <c r="N68" s="72"/>
+      <c r="O68" s="73"/>
       <c r="R68" s="13">
         <v>4</v>
       </c>
-      <c r="S68" s="69" t="s">
+      <c r="S68" s="106" t="s">
         <v>130</v>
       </c>
-      <c r="T68" s="69"/>
-      <c r="U68" s="69"/>
-      <c r="V68" s="69"/>
+      <c r="T68" s="106"/>
+      <c r="U68" s="106"/>
+      <c r="V68" s="106"/>
       <c r="X68" s="29"/>
-      <c r="Y68" s="81"/>
-      <c r="Z68" s="81"/>
-      <c r="AA68" s="81"/>
-      <c r="AB68" s="81"/>
+      <c r="Y68" s="121"/>
+      <c r="Z68" s="121"/>
+      <c r="AA68" s="121"/>
+      <c r="AB68" s="121"/>
       <c r="AD68" s="33"/>
       <c r="AS68" s="13">
         <v>7</v>
       </c>
-      <c r="AT68" s="118" t="s">
+      <c r="AT68" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="AU68" s="118"/>
-      <c r="AV68" s="118"/>
-      <c r="AW68" s="118"/>
-      <c r="AX68" s="80" t="s">
+      <c r="AU68" s="67"/>
+      <c r="AV68" s="67"/>
+      <c r="AW68" s="67"/>
+      <c r="AX68" s="112" t="s">
         <v>139</v>
       </c>
-      <c r="AY68" s="119"/>
-      <c r="AZ68" s="119"/>
-      <c r="BA68" s="119"/>
-      <c r="BB68" s="119"/>
-      <c r="BC68" s="119"/>
-      <c r="BD68" s="119"/>
-      <c r="BE68" s="119"/>
-      <c r="BF68" s="119"/>
+      <c r="AY68" s="111"/>
+      <c r="AZ68" s="111"/>
+      <c r="BA68" s="111"/>
+      <c r="BB68" s="111"/>
+      <c r="BC68" s="111"/>
+      <c r="BD68" s="111"/>
+      <c r="BE68" s="111"/>
+      <c r="BF68" s="111"/>
     </row>
     <row r="69" spans="2:74" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="13">
         <v>7</v>
       </c>
-      <c r="C69" s="83" t="s">
+      <c r="C69" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="D69" s="84"/>
-      <c r="E69" s="84"/>
-      <c r="F69" s="85"/>
-      <c r="G69" s="66" t="s">
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="73"/>
+      <c r="G69" s="103" t="s">
         <v>139</v>
       </c>
-      <c r="H69" s="67"/>
-      <c r="I69" s="67"/>
-      <c r="J69" s="67"/>
-      <c r="K69" s="67"/>
-      <c r="L69" s="67"/>
-      <c r="M69" s="67"/>
-      <c r="N69" s="67"/>
-      <c r="O69" s="68"/>
+      <c r="H69" s="104"/>
+      <c r="I69" s="104"/>
+      <c r="J69" s="104"/>
+      <c r="K69" s="104"/>
+      <c r="L69" s="104"/>
+      <c r="M69" s="104"/>
+      <c r="N69" s="104"/>
+      <c r="O69" s="105"/>
       <c r="R69" s="29"/>
       <c r="S69" s="16"/>
       <c r="T69" s="16"/>
@@ -5922,45 +5906,45 @@
       <c r="AS69" s="58">
         <v>8</v>
       </c>
-      <c r="AT69" s="194" t="s">
+      <c r="AT69" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="AU69" s="195"/>
-      <c r="AV69" s="195"/>
-      <c r="AW69" s="196"/>
-      <c r="AX69" s="83" t="s">
+      <c r="AU69" s="101"/>
+      <c r="AV69" s="101"/>
+      <c r="AW69" s="102"/>
+      <c r="AX69" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="AY69" s="84"/>
-      <c r="AZ69" s="84"/>
-      <c r="BA69" s="84"/>
-      <c r="BB69" s="84"/>
-      <c r="BC69" s="84"/>
-      <c r="BD69" s="84"/>
-      <c r="BE69" s="84"/>
-      <c r="BF69" s="85"/>
+      <c r="AY69" s="72"/>
+      <c r="AZ69" s="72"/>
+      <c r="BA69" s="72"/>
+      <c r="BB69" s="72"/>
+      <c r="BC69" s="72"/>
+      <c r="BD69" s="72"/>
+      <c r="BE69" s="72"/>
+      <c r="BF69" s="73"/>
     </row>
     <row r="70" spans="2:74" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="58">
         <v>8</v>
       </c>
-      <c r="C70" s="83" t="s">
+      <c r="C70" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="84"/>
-      <c r="E70" s="84"/>
-      <c r="F70" s="85"/>
-      <c r="G70" s="83" t="s">
+      <c r="D70" s="72"/>
+      <c r="E70" s="72"/>
+      <c r="F70" s="73"/>
+      <c r="G70" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="H70" s="84"/>
-      <c r="I70" s="84"/>
-      <c r="J70" s="84"/>
-      <c r="K70" s="84"/>
-      <c r="L70" s="84"/>
-      <c r="M70" s="84"/>
-      <c r="N70" s="84"/>
-      <c r="O70" s="85"/>
+      <c r="H70" s="72"/>
+      <c r="I70" s="72"/>
+      <c r="J70" s="72"/>
+      <c r="K70" s="72"/>
+      <c r="L70" s="72"/>
+      <c r="M70" s="72"/>
+      <c r="N70" s="72"/>
+      <c r="O70" s="73"/>
       <c r="R70" s="29"/>
       <c r="S70" s="16"/>
       <c r="T70" s="16"/>
@@ -5978,10 +5962,10 @@
         <v>1</v>
       </c>
       <c r="C71" s="65"/>
-      <c r="D71" s="90" t="s">
+      <c r="D71" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="E71" s="90"/>
+      <c r="E71" s="66"/>
       <c r="R71" s="29"/>
       <c r="S71" s="16"/>
       <c r="T71" s="16"/>
@@ -5995,25 +5979,25 @@
       <c r="AD71" s="33"/>
     </row>
     <row r="72" spans="2:74" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="94" t="s">
+      <c r="B72" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="C72" s="95"/>
-      <c r="D72" s="96" t="s">
+      <c r="C72" s="90"/>
+      <c r="D72" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="E72" s="97"/>
-      <c r="F72" s="97"/>
-      <c r="G72" s="97"/>
-      <c r="H72" s="97"/>
-      <c r="I72" s="97"/>
-      <c r="J72" s="97"/>
-      <c r="K72" s="98"/>
-      <c r="M72" s="70" t="s">
+      <c r="E72" s="79"/>
+      <c r="F72" s="79"/>
+      <c r="G72" s="79"/>
+      <c r="H72" s="79"/>
+      <c r="I72" s="79"/>
+      <c r="J72" s="79"/>
+      <c r="K72" s="80"/>
+      <c r="M72" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="N72" s="70"/>
-      <c r="O72" s="71" t="s">
+      <c r="N72" s="81"/>
+      <c r="O72" s="82" t="s">
         <v>11</v>
       </c>
       <c r="AD72" s="33"/>
@@ -6033,27 +6017,27 @@
       <c r="BF72" s="37"/>
     </row>
     <row r="73" spans="2:74" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="99" t="s">
+      <c r="B73" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="C73" s="100"/>
-      <c r="D73" s="101" t="s">
+      <c r="C73" s="85"/>
+      <c r="D73" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="E73" s="102"/>
-      <c r="F73" s="99" t="s">
+      <c r="E73" s="87"/>
+      <c r="F73" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="G73" s="100"/>
-      <c r="H73" s="101" t="s">
+      <c r="G73" s="85"/>
+      <c r="H73" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="I73" s="103"/>
-      <c r="J73" s="103"/>
-      <c r="K73" s="102"/>
-      <c r="M73" s="70"/>
-      <c r="N73" s="70"/>
-      <c r="O73" s="71"/>
+      <c r="I73" s="88"/>
+      <c r="J73" s="88"/>
+      <c r="K73" s="87"/>
+      <c r="M73" s="81"/>
+      <c r="N73" s="81"/>
+      <c r="O73" s="82"/>
       <c r="AD73" s="33"/>
     </row>
     <row r="74" spans="2:74" x14ac:dyDescent="0.3">
@@ -6061,12 +6045,12 @@
       <c r="AF74" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AG74" s="148" t="s">
+      <c r="AG74" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="AH74" s="148"/>
-      <c r="AI74" s="148"/>
-      <c r="AJ74" s="148"/>
+      <c r="AH74" s="91"/>
+      <c r="AI74" s="91"/>
+      <c r="AJ74" s="91"/>
       <c r="AL74" s="7" t="s">
         <v>12</v>
       </c>
@@ -6076,25 +6060,25 @@
       <c r="AN74" s="65"/>
       <c r="AO74" s="65"/>
       <c r="AP74" s="65"/>
-      <c r="AS74" s="94" t="s">
+      <c r="AS74" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="AT74" s="95"/>
-      <c r="AU74" s="96" t="s">
+      <c r="AT74" s="90"/>
+      <c r="AU74" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="AV74" s="97"/>
-      <c r="AW74" s="97"/>
-      <c r="AX74" s="97"/>
-      <c r="AY74" s="97"/>
-      <c r="AZ74" s="97"/>
-      <c r="BA74" s="97"/>
-      <c r="BB74" s="98"/>
-      <c r="BD74" s="70" t="s">
+      <c r="AV74" s="79"/>
+      <c r="AW74" s="79"/>
+      <c r="AX74" s="79"/>
+      <c r="AY74" s="79"/>
+      <c r="AZ74" s="79"/>
+      <c r="BA74" s="79"/>
+      <c r="BB74" s="80"/>
+      <c r="BD74" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="BE74" s="70"/>
-      <c r="BF74" s="71" t="s">
+      <c r="BE74" s="81"/>
+      <c r="BF74" s="82" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6102,32 +6086,32 @@
       <c r="B75" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="107" t="s">
+      <c r="C75" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="D75" s="108"/>
-      <c r="E75" s="108"/>
-      <c r="F75" s="109"/>
-      <c r="G75" s="110" t="s">
+      <c r="D75" s="94"/>
+      <c r="E75" s="94"/>
+      <c r="F75" s="95"/>
+      <c r="G75" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="H75" s="111"/>
-      <c r="I75" s="111"/>
-      <c r="J75" s="111"/>
-      <c r="K75" s="111"/>
-      <c r="L75" s="111"/>
-      <c r="M75" s="111"/>
-      <c r="N75" s="111"/>
-      <c r="O75" s="112"/>
+      <c r="H75" s="97"/>
+      <c r="I75" s="97"/>
+      <c r="J75" s="97"/>
+      <c r="K75" s="97"/>
+      <c r="L75" s="97"/>
+      <c r="M75" s="97"/>
+      <c r="N75" s="97"/>
+      <c r="O75" s="98"/>
       <c r="R75" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="S75" s="148" t="s">
+      <c r="S75" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="T75" s="148"/>
-      <c r="U75" s="148"/>
-      <c r="V75" s="148"/>
+      <c r="T75" s="91"/>
+      <c r="U75" s="91"/>
+      <c r="V75" s="91"/>
       <c r="X75" s="7" t="s">
         <v>12</v>
       </c>
@@ -6141,211 +6125,211 @@
       <c r="AF75" s="12">
         <v>1</v>
       </c>
-      <c r="AG75" s="164" t="s">
+      <c r="AG75" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="AH75" s="164"/>
-      <c r="AI75" s="164"/>
-      <c r="AJ75" s="164"/>
+      <c r="AH75" s="92"/>
+      <c r="AI75" s="92"/>
+      <c r="AJ75" s="92"/>
       <c r="AL75" s="13">
         <v>1</v>
       </c>
-      <c r="AM75" s="66" t="s">
+      <c r="AM75" s="103" t="s">
         <v>154</v>
       </c>
-      <c r="AN75" s="67"/>
-      <c r="AO75" s="67"/>
-      <c r="AP75" s="68"/>
-      <c r="AS75" s="99" t="s">
+      <c r="AN75" s="104"/>
+      <c r="AO75" s="104"/>
+      <c r="AP75" s="105"/>
+      <c r="AS75" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="AT75" s="100"/>
-      <c r="AU75" s="101" t="s">
+      <c r="AT75" s="85"/>
+      <c r="AU75" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="AV75" s="102"/>
-      <c r="AW75" s="99" t="s">
+      <c r="AV75" s="87"/>
+      <c r="AW75" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="AX75" s="100"/>
-      <c r="AY75" s="101" t="s">
+      <c r="AX75" s="85"/>
+      <c r="AY75" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="AZ75" s="103"/>
-      <c r="BA75" s="103"/>
-      <c r="BB75" s="102"/>
-      <c r="BD75" s="70"/>
-      <c r="BE75" s="70"/>
-      <c r="BF75" s="71"/>
+      <c r="AZ75" s="88"/>
+      <c r="BA75" s="88"/>
+      <c r="BB75" s="87"/>
+      <c r="BD75" s="81"/>
+      <c r="BE75" s="81"/>
+      <c r="BF75" s="82"/>
     </row>
     <row r="76" spans="2:74" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="19">
         <v>1</v>
       </c>
-      <c r="C76" s="128" t="s">
+      <c r="C76" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="D76" s="129"/>
-      <c r="E76" s="129"/>
-      <c r="F76" s="130"/>
-      <c r="G76" s="128" t="s">
+      <c r="D76" s="69"/>
+      <c r="E76" s="69"/>
+      <c r="F76" s="70"/>
+      <c r="G76" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="H76" s="129"/>
-      <c r="I76" s="129"/>
-      <c r="J76" s="129"/>
-      <c r="K76" s="129"/>
-      <c r="L76" s="129"/>
-      <c r="M76" s="129"/>
-      <c r="N76" s="129"/>
-      <c r="O76" s="130"/>
+      <c r="H76" s="69"/>
+      <c r="I76" s="69"/>
+      <c r="J76" s="69"/>
+      <c r="K76" s="69"/>
+      <c r="L76" s="69"/>
+      <c r="M76" s="69"/>
+      <c r="N76" s="69"/>
+      <c r="O76" s="70"/>
       <c r="R76" s="12">
         <v>1</v>
       </c>
-      <c r="S76" s="164" t="s">
+      <c r="S76" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="T76" s="164"/>
-      <c r="U76" s="164"/>
-      <c r="V76" s="164"/>
+      <c r="T76" s="92"/>
+      <c r="U76" s="92"/>
+      <c r="V76" s="92"/>
       <c r="X76" s="13">
         <v>1</v>
       </c>
-      <c r="Y76" s="66" t="s">
+      <c r="Y76" s="103" t="s">
         <v>154</v>
       </c>
-      <c r="Z76" s="67"/>
-      <c r="AA76" s="67"/>
-      <c r="AB76" s="68"/>
+      <c r="Z76" s="104"/>
+      <c r="AA76" s="104"/>
+      <c r="AB76" s="105"/>
       <c r="AD76" s="33"/>
       <c r="AF76" s="12">
         <v>2</v>
       </c>
-      <c r="AG76" s="164" t="s">
+      <c r="AG76" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="AH76" s="164"/>
-      <c r="AI76" s="164"/>
-      <c r="AJ76" s="164"/>
+      <c r="AH76" s="92"/>
+      <c r="AI76" s="92"/>
+      <c r="AJ76" s="92"/>
       <c r="AL76" s="13">
         <v>2</v>
       </c>
-      <c r="AM76" s="190" t="s">
+      <c r="AM76" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="AN76" s="190"/>
-      <c r="AO76" s="190"/>
-      <c r="AP76" s="190"/>
+      <c r="AN76" s="83"/>
+      <c r="AO76" s="83"/>
+      <c r="AP76" s="83"/>
     </row>
     <row r="77" spans="2:74" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="13">
         <v>5</v>
       </c>
-      <c r="C77" s="150" t="s">
+      <c r="C77" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="D77" s="151"/>
-      <c r="E77" s="151"/>
-      <c r="F77" s="152"/>
-      <c r="G77" s="83" t="s">
+      <c r="D77" s="76"/>
+      <c r="E77" s="76"/>
+      <c r="F77" s="77"/>
+      <c r="G77" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="H77" s="84"/>
-      <c r="I77" s="84"/>
-      <c r="J77" s="84"/>
-      <c r="K77" s="84"/>
-      <c r="L77" s="84"/>
-      <c r="M77" s="84"/>
-      <c r="N77" s="84"/>
-      <c r="O77" s="85"/>
+      <c r="H77" s="72"/>
+      <c r="I77" s="72"/>
+      <c r="J77" s="72"/>
+      <c r="K77" s="72"/>
+      <c r="L77" s="72"/>
+      <c r="M77" s="72"/>
+      <c r="N77" s="72"/>
+      <c r="O77" s="73"/>
       <c r="R77" s="12">
         <v>2</v>
       </c>
-      <c r="S77" s="164" t="s">
+      <c r="S77" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="T77" s="164"/>
-      <c r="U77" s="164"/>
-      <c r="V77" s="164"/>
+      <c r="T77" s="92"/>
+      <c r="U77" s="92"/>
+      <c r="V77" s="92"/>
       <c r="X77" s="13">
         <v>2</v>
       </c>
-      <c r="Y77" s="69" t="s">
+      <c r="Y77" s="106" t="s">
         <v>161</v>
       </c>
-      <c r="Z77" s="69"/>
-      <c r="AA77" s="69"/>
-      <c r="AB77" s="69"/>
+      <c r="Z77" s="106"/>
+      <c r="AA77" s="106"/>
+      <c r="AB77" s="106"/>
       <c r="AD77" s="33"/>
       <c r="AF77" s="12">
         <v>3</v>
       </c>
-      <c r="AG77" s="122" t="s">
+      <c r="AG77" s="99" t="s">
         <v>162</v>
       </c>
-      <c r="AH77" s="122"/>
-      <c r="AI77" s="122"/>
-      <c r="AJ77" s="122"/>
+      <c r="AH77" s="99"/>
+      <c r="AI77" s="99"/>
+      <c r="AJ77" s="99"/>
       <c r="AL77" s="13">
         <v>3</v>
       </c>
-      <c r="AM77" s="189" t="s">
+      <c r="AM77" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="AN77" s="189"/>
-      <c r="AO77" s="189"/>
-      <c r="AP77" s="189"/>
+      <c r="AN77" s="74"/>
+      <c r="AO77" s="74"/>
+      <c r="AP77" s="74"/>
       <c r="AS77" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AT77" s="107" t="s">
+      <c r="AT77" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="AU77" s="108"/>
-      <c r="AV77" s="108"/>
-      <c r="AW77" s="109"/>
-      <c r="AX77" s="110" t="s">
+      <c r="AU77" s="94"/>
+      <c r="AV77" s="94"/>
+      <c r="AW77" s="95"/>
+      <c r="AX77" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="AY77" s="111"/>
-      <c r="AZ77" s="111"/>
-      <c r="BA77" s="111"/>
-      <c r="BB77" s="111"/>
-      <c r="BC77" s="111"/>
-      <c r="BD77" s="111"/>
-      <c r="BE77" s="111"/>
-      <c r="BF77" s="112"/>
+      <c r="AY77" s="97"/>
+      <c r="AZ77" s="97"/>
+      <c r="BA77" s="97"/>
+      <c r="BB77" s="97"/>
+      <c r="BC77" s="97"/>
+      <c r="BD77" s="97"/>
+      <c r="BE77" s="97"/>
+      <c r="BF77" s="98"/>
     </row>
     <row r="78" spans="2:74" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="13">
         <v>6</v>
       </c>
-      <c r="C78" s="150" t="s">
+      <c r="C78" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="D78" s="151"/>
-      <c r="E78" s="151"/>
-      <c r="F78" s="152"/>
-      <c r="G78" s="83" t="s">
+      <c r="D78" s="76"/>
+      <c r="E78" s="76"/>
+      <c r="F78" s="77"/>
+      <c r="G78" s="71" t="s">
         <v>165</v>
       </c>
-      <c r="H78" s="84"/>
-      <c r="I78" s="84"/>
-      <c r="J78" s="84"/>
-      <c r="K78" s="84"/>
-      <c r="L78" s="84"/>
-      <c r="M78" s="84"/>
-      <c r="N78" s="84"/>
-      <c r="O78" s="85"/>
+      <c r="H78" s="72"/>
+      <c r="I78" s="72"/>
+      <c r="J78" s="72"/>
+      <c r="K78" s="72"/>
+      <c r="L78" s="72"/>
+      <c r="M78" s="72"/>
+      <c r="N78" s="72"/>
+      <c r="O78" s="73"/>
       <c r="R78" s="26">
         <v>3</v>
       </c>
-      <c r="S78" s="96" t="s">
+      <c r="S78" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="T78" s="97"/>
-      <c r="U78" s="97"/>
-      <c r="V78" s="98"/>
+      <c r="T78" s="79"/>
+      <c r="U78" s="79"/>
+      <c r="V78" s="80"/>
       <c r="X78" s="29"/>
       <c r="Y78" s="16"/>
       <c r="Z78" s="16"/>
@@ -6355,54 +6339,54 @@
       <c r="AL78" s="13">
         <v>4</v>
       </c>
-      <c r="AM78" s="189" t="s">
+      <c r="AM78" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="AN78" s="189"/>
-      <c r="AO78" s="189"/>
-      <c r="AP78" s="189"/>
+      <c r="AN78" s="74"/>
+      <c r="AO78" s="74"/>
+      <c r="AP78" s="74"/>
       <c r="AS78" s="19">
         <v>1</v>
       </c>
-      <c r="AT78" s="128" t="s">
+      <c r="AT78" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="AU78" s="129"/>
-      <c r="AV78" s="129"/>
-      <c r="AW78" s="130"/>
-      <c r="AX78" s="128" t="s">
+      <c r="AU78" s="69"/>
+      <c r="AV78" s="69"/>
+      <c r="AW78" s="70"/>
+      <c r="AX78" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="AY78" s="129"/>
-      <c r="AZ78" s="129"/>
-      <c r="BA78" s="129"/>
-      <c r="BB78" s="129"/>
-      <c r="BC78" s="129"/>
-      <c r="BD78" s="129"/>
-      <c r="BE78" s="129"/>
-      <c r="BF78" s="130"/>
+      <c r="AY78" s="69"/>
+      <c r="AZ78" s="69"/>
+      <c r="BA78" s="69"/>
+      <c r="BB78" s="69"/>
+      <c r="BC78" s="69"/>
+      <c r="BD78" s="69"/>
+      <c r="BE78" s="69"/>
+      <c r="BF78" s="70"/>
     </row>
     <row r="79" spans="2:74" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="13">
         <v>7</v>
       </c>
-      <c r="C79" s="150" t="s">
+      <c r="C79" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="D79" s="151"/>
-      <c r="E79" s="151"/>
-      <c r="F79" s="152"/>
-      <c r="G79" s="128" t="s">
+      <c r="D79" s="76"/>
+      <c r="E79" s="76"/>
+      <c r="F79" s="77"/>
+      <c r="G79" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="H79" s="129"/>
-      <c r="I79" s="129"/>
-      <c r="J79" s="129"/>
-      <c r="K79" s="129"/>
-      <c r="L79" s="129"/>
-      <c r="M79" s="129"/>
-      <c r="N79" s="129"/>
-      <c r="O79" s="130"/>
+      <c r="H79" s="69"/>
+      <c r="I79" s="69"/>
+      <c r="J79" s="69"/>
+      <c r="K79" s="69"/>
+      <c r="L79" s="69"/>
+      <c r="M79" s="69"/>
+      <c r="N79" s="69"/>
+      <c r="O79" s="70"/>
       <c r="R79" s="24"/>
       <c r="S79" s="21"/>
       <c r="T79" s="21"/>
@@ -6412,33 +6396,33 @@
       <c r="AS79" s="13">
         <v>2</v>
       </c>
-      <c r="AT79" s="150" t="s">
+      <c r="AT79" s="75" t="s">
         <v>168</v>
       </c>
-      <c r="AU79" s="151"/>
-      <c r="AV79" s="151"/>
-      <c r="AW79" s="152"/>
-      <c r="AX79" s="83" t="s">
+      <c r="AU79" s="76"/>
+      <c r="AV79" s="76"/>
+      <c r="AW79" s="77"/>
+      <c r="AX79" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="AY79" s="84"/>
-      <c r="AZ79" s="84"/>
-      <c r="BA79" s="84"/>
-      <c r="BB79" s="84"/>
-      <c r="BC79" s="84"/>
-      <c r="BD79" s="84"/>
-      <c r="BE79" s="84"/>
-      <c r="BF79" s="85"/>
+      <c r="AY79" s="72"/>
+      <c r="AZ79" s="72"/>
+      <c r="BA79" s="72"/>
+      <c r="BB79" s="72"/>
+      <c r="BC79" s="72"/>
+      <c r="BD79" s="72"/>
+      <c r="BE79" s="72"/>
+      <c r="BF79" s="73"/>
     </row>
     <row r="80" spans="2:74" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="65" t="s">
         <v>1</v>
       </c>
       <c r="C80" s="65"/>
-      <c r="D80" s="90" t="s">
+      <c r="D80" s="66" t="s">
         <v>215</v>
       </c>
-      <c r="E80" s="90"/>
+      <c r="E80" s="66"/>
       <c r="R80" s="15"/>
       <c r="S80" s="22"/>
       <c r="T80" s="22"/>
@@ -6448,111 +6432,111 @@
       <c r="AS80" s="13">
         <v>3</v>
       </c>
-      <c r="AT80" s="150" t="s">
+      <c r="AT80" s="75" t="s">
         <v>170</v>
       </c>
-      <c r="AU80" s="151"/>
-      <c r="AV80" s="151"/>
-      <c r="AW80" s="152"/>
-      <c r="AX80" s="83" t="s">
+      <c r="AU80" s="76"/>
+      <c r="AV80" s="76"/>
+      <c r="AW80" s="77"/>
+      <c r="AX80" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="AY80" s="84"/>
-      <c r="AZ80" s="84"/>
-      <c r="BA80" s="84"/>
-      <c r="BB80" s="84"/>
-      <c r="BC80" s="84"/>
-      <c r="BD80" s="84"/>
-      <c r="BE80" s="84"/>
-      <c r="BF80" s="85"/>
+      <c r="AY80" s="72"/>
+      <c r="AZ80" s="72"/>
+      <c r="BA80" s="72"/>
+      <c r="BB80" s="72"/>
+      <c r="BC80" s="72"/>
+      <c r="BD80" s="72"/>
+      <c r="BE80" s="72"/>
+      <c r="BF80" s="73"/>
     </row>
     <row r="81" spans="2:58" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="94" t="s">
+      <c r="B81" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="C81" s="95"/>
-      <c r="D81" s="96" t="s">
+      <c r="C81" s="90"/>
+      <c r="D81" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="E81" s="97"/>
-      <c r="F81" s="97"/>
-      <c r="G81" s="97"/>
-      <c r="H81" s="97"/>
-      <c r="I81" s="97"/>
-      <c r="J81" s="97"/>
-      <c r="K81" s="98"/>
-      <c r="M81" s="70" t="s">
+      <c r="E81" s="79"/>
+      <c r="F81" s="79"/>
+      <c r="G81" s="79"/>
+      <c r="H81" s="79"/>
+      <c r="I81" s="79"/>
+      <c r="J81" s="79"/>
+      <c r="K81" s="80"/>
+      <c r="M81" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="N81" s="70"/>
-      <c r="O81" s="71" t="s">
+      <c r="N81" s="81"/>
+      <c r="O81" s="82" t="s">
         <v>11</v>
       </c>
       <c r="AD81" s="33"/>
       <c r="AS81" s="13">
         <v>4</v>
       </c>
-      <c r="AT81" s="150" t="s">
+      <c r="AT81" s="75" t="s">
         <v>173</v>
       </c>
-      <c r="AU81" s="151"/>
-      <c r="AV81" s="151"/>
-      <c r="AW81" s="152"/>
-      <c r="AX81" s="83" t="s">
+      <c r="AU81" s="76"/>
+      <c r="AV81" s="76"/>
+      <c r="AW81" s="77"/>
+      <c r="AX81" s="71" t="s">
         <v>174</v>
       </c>
-      <c r="AY81" s="84"/>
-      <c r="AZ81" s="84"/>
-      <c r="BA81" s="84"/>
-      <c r="BB81" s="84"/>
-      <c r="BC81" s="84"/>
-      <c r="BD81" s="84"/>
-      <c r="BE81" s="84"/>
-      <c r="BF81" s="85"/>
+      <c r="AY81" s="72"/>
+      <c r="AZ81" s="72"/>
+      <c r="BA81" s="72"/>
+      <c r="BB81" s="72"/>
+      <c r="BC81" s="72"/>
+      <c r="BD81" s="72"/>
+      <c r="BE81" s="72"/>
+      <c r="BF81" s="73"/>
     </row>
     <row r="82" spans="2:58" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="99" t="s">
+      <c r="B82" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="C82" s="100"/>
-      <c r="D82" s="101" t="s">
+      <c r="C82" s="85"/>
+      <c r="D82" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="E82" s="102"/>
-      <c r="F82" s="99" t="s">
+      <c r="E82" s="87"/>
+      <c r="F82" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="G82" s="100"/>
-      <c r="H82" s="101" t="s">
+      <c r="G82" s="85"/>
+      <c r="H82" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="I82" s="103"/>
-      <c r="J82" s="103"/>
-      <c r="K82" s="102"/>
-      <c r="M82" s="70"/>
-      <c r="N82" s="70"/>
-      <c r="O82" s="71"/>
+      <c r="I82" s="88"/>
+      <c r="J82" s="88"/>
+      <c r="K82" s="87"/>
+      <c r="M82" s="81"/>
+      <c r="N82" s="81"/>
+      <c r="O82" s="82"/>
       <c r="AD82" s="33"/>
       <c r="AS82" s="13">
         <v>5</v>
       </c>
-      <c r="AT82" s="150" t="s">
+      <c r="AT82" s="75" t="s">
         <v>175</v>
       </c>
-      <c r="AU82" s="151"/>
-      <c r="AV82" s="151"/>
-      <c r="AW82" s="152"/>
-      <c r="AX82" s="83" t="s">
+      <c r="AU82" s="76"/>
+      <c r="AV82" s="76"/>
+      <c r="AW82" s="77"/>
+      <c r="AX82" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="AY82" s="84"/>
-      <c r="AZ82" s="84"/>
-      <c r="BA82" s="84"/>
-      <c r="BB82" s="84"/>
-      <c r="BC82" s="84"/>
-      <c r="BD82" s="84"/>
-      <c r="BE82" s="84"/>
-      <c r="BF82" s="85"/>
+      <c r="AY82" s="72"/>
+      <c r="AZ82" s="72"/>
+      <c r="BA82" s="72"/>
+      <c r="BB82" s="72"/>
+      <c r="BC82" s="72"/>
+      <c r="BD82" s="72"/>
+      <c r="BE82" s="72"/>
+      <c r="BF82" s="73"/>
     </row>
     <row r="83" spans="2:58" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="29"/>
@@ -6573,54 +6557,54 @@
       <c r="AS83" s="13">
         <v>6</v>
       </c>
-      <c r="AT83" s="150" t="s">
+      <c r="AT83" s="75" t="s">
         <v>176</v>
       </c>
-      <c r="AU83" s="151"/>
-      <c r="AV83" s="151"/>
-      <c r="AW83" s="152"/>
-      <c r="AX83" s="83" t="s">
+      <c r="AU83" s="76"/>
+      <c r="AV83" s="76"/>
+      <c r="AW83" s="77"/>
+      <c r="AX83" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="AY83" s="84"/>
-      <c r="AZ83" s="84"/>
-      <c r="BA83" s="84"/>
-      <c r="BB83" s="84"/>
-      <c r="BC83" s="84"/>
-      <c r="BD83" s="84"/>
-      <c r="BE83" s="84"/>
-      <c r="BF83" s="85"/>
+      <c r="AY83" s="72"/>
+      <c r="AZ83" s="72"/>
+      <c r="BA83" s="72"/>
+      <c r="BB83" s="72"/>
+      <c r="BC83" s="72"/>
+      <c r="BD83" s="72"/>
+      <c r="BE83" s="72"/>
+      <c r="BF83" s="73"/>
     </row>
     <row r="84" spans="2:58" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C84" s="107" t="s">
+      <c r="C84" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="D84" s="108"/>
-      <c r="E84" s="108"/>
-      <c r="F84" s="109"/>
-      <c r="G84" s="110" t="s">
+      <c r="D84" s="94"/>
+      <c r="E84" s="94"/>
+      <c r="F84" s="95"/>
+      <c r="G84" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="H84" s="111"/>
-      <c r="I84" s="111"/>
-      <c r="J84" s="111"/>
-      <c r="K84" s="111"/>
-      <c r="L84" s="111"/>
-      <c r="M84" s="111"/>
-      <c r="N84" s="111"/>
-      <c r="O84" s="112"/>
+      <c r="H84" s="97"/>
+      <c r="I84" s="97"/>
+      <c r="J84" s="97"/>
+      <c r="K84" s="97"/>
+      <c r="L84" s="97"/>
+      <c r="M84" s="97"/>
+      <c r="N84" s="97"/>
+      <c r="O84" s="98"/>
       <c r="R84" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="S84" s="148" t="s">
+      <c r="S84" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="T84" s="148"/>
-      <c r="U84" s="148"/>
-      <c r="V84" s="148"/>
+      <c r="T84" s="91"/>
+      <c r="U84" s="91"/>
+      <c r="V84" s="91"/>
       <c r="X84" s="7" t="s">
         <v>12</v>
       </c>
@@ -6634,95 +6618,95 @@
       <c r="AS84" s="13">
         <v>7</v>
       </c>
-      <c r="AT84" s="150" t="s">
+      <c r="AT84" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="AU84" s="151"/>
-      <c r="AV84" s="151"/>
-      <c r="AW84" s="152"/>
-      <c r="AX84" s="128" t="s">
+      <c r="AU84" s="76"/>
+      <c r="AV84" s="76"/>
+      <c r="AW84" s="77"/>
+      <c r="AX84" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="AY84" s="129"/>
-      <c r="AZ84" s="129"/>
-      <c r="BA84" s="129"/>
-      <c r="BB84" s="129"/>
-      <c r="BC84" s="129"/>
-      <c r="BD84" s="129"/>
-      <c r="BE84" s="129"/>
-      <c r="BF84" s="130"/>
+      <c r="AY84" s="69"/>
+      <c r="AZ84" s="69"/>
+      <c r="BA84" s="69"/>
+      <c r="BB84" s="69"/>
+      <c r="BC84" s="69"/>
+      <c r="BD84" s="69"/>
+      <c r="BE84" s="69"/>
+      <c r="BF84" s="70"/>
     </row>
     <row r="85" spans="2:58" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="35">
         <v>1</v>
       </c>
-      <c r="C85" s="118" t="s">
+      <c r="C85" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="D85" s="118"/>
-      <c r="E85" s="118"/>
-      <c r="F85" s="118"/>
-      <c r="G85" s="118" t="s">
+      <c r="D85" s="67"/>
+      <c r="E85" s="67"/>
+      <c r="F85" s="67"/>
+      <c r="G85" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="H85" s="118"/>
-      <c r="I85" s="118"/>
-      <c r="J85" s="118"/>
-      <c r="K85" s="118"/>
-      <c r="L85" s="118"/>
-      <c r="M85" s="118"/>
-      <c r="N85" s="118"/>
-      <c r="O85" s="118"/>
+      <c r="H85" s="67"/>
+      <c r="I85" s="67"/>
+      <c r="J85" s="67"/>
+      <c r="K85" s="67"/>
+      <c r="L85" s="67"/>
+      <c r="M85" s="67"/>
+      <c r="N85" s="67"/>
+      <c r="O85" s="67"/>
       <c r="R85" s="12">
         <v>1</v>
       </c>
-      <c r="S85" s="164" t="s">
+      <c r="S85" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="T85" s="164"/>
-      <c r="U85" s="164"/>
-      <c r="V85" s="164"/>
+      <c r="T85" s="92"/>
+      <c r="U85" s="92"/>
+      <c r="V85" s="92"/>
       <c r="X85" s="19">
         <v>1</v>
       </c>
-      <c r="Y85" s="78" t="s">
+      <c r="Y85" s="125" t="s">
         <v>179</v>
       </c>
-      <c r="Z85" s="79"/>
-      <c r="AA85" s="79"/>
-      <c r="AB85" s="80"/>
+      <c r="Z85" s="126"/>
+      <c r="AA85" s="126"/>
+      <c r="AB85" s="112"/>
       <c r="AD85" s="33"/>
     </row>
     <row r="86" spans="2:58" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="35">
         <v>2</v>
       </c>
-      <c r="C86" s="118" t="s">
+      <c r="C86" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="D86" s="118"/>
-      <c r="E86" s="118"/>
-      <c r="F86" s="118"/>
-      <c r="G86" s="118" t="s">
+      <c r="D86" s="67"/>
+      <c r="E86" s="67"/>
+      <c r="F86" s="67"/>
+      <c r="G86" s="67" t="s">
         <v>181</v>
       </c>
-      <c r="H86" s="118"/>
-      <c r="I86" s="118"/>
-      <c r="J86" s="118"/>
-      <c r="K86" s="118"/>
-      <c r="L86" s="118"/>
-      <c r="M86" s="118"/>
-      <c r="N86" s="118"/>
-      <c r="O86" s="118"/>
+      <c r="H86" s="67"/>
+      <c r="I86" s="67"/>
+      <c r="J86" s="67"/>
+      <c r="K86" s="67"/>
+      <c r="L86" s="67"/>
+      <c r="M86" s="67"/>
+      <c r="N86" s="67"/>
+      <c r="O86" s="67"/>
       <c r="R86" s="12">
         <v>2</v>
       </c>
-      <c r="S86" s="164" t="s">
+      <c r="S86" s="92" t="s">
         <v>182</v>
       </c>
-      <c r="T86" s="164"/>
-      <c r="U86" s="164"/>
-      <c r="V86" s="164"/>
+      <c r="T86" s="92"/>
+      <c r="U86" s="92"/>
+      <c r="V86" s="92"/>
       <c r="X86" s="38"/>
       <c r="Y86" s="42"/>
       <c r="Z86" s="42"/>
@@ -6734,55 +6718,55 @@
       <c r="B87" s="35">
         <v>3</v>
       </c>
-      <c r="C87" s="118" t="s">
+      <c r="C87" s="67" t="s">
         <v>183</v>
       </c>
-      <c r="D87" s="118"/>
-      <c r="E87" s="118"/>
-      <c r="F87" s="118"/>
-      <c r="G87" s="118" t="s">
+      <c r="D87" s="67"/>
+      <c r="E87" s="67"/>
+      <c r="F87" s="67"/>
+      <c r="G87" s="67" t="s">
         <v>184</v>
       </c>
-      <c r="H87" s="118"/>
-      <c r="I87" s="118"/>
-      <c r="J87" s="118"/>
-      <c r="K87" s="118"/>
-      <c r="L87" s="118"/>
-      <c r="M87" s="118"/>
-      <c r="N87" s="118"/>
-      <c r="O87" s="118"/>
+      <c r="H87" s="67"/>
+      <c r="I87" s="67"/>
+      <c r="J87" s="67"/>
+      <c r="K87" s="67"/>
+      <c r="L87" s="67"/>
+      <c r="M87" s="67"/>
+      <c r="N87" s="67"/>
+      <c r="O87" s="67"/>
       <c r="R87" s="12">
         <v>3</v>
       </c>
-      <c r="S87" s="122" t="s">
+      <c r="S87" s="99" t="s">
         <v>185</v>
       </c>
-      <c r="T87" s="122"/>
-      <c r="U87" s="122"/>
-      <c r="V87" s="122"/>
+      <c r="T87" s="99"/>
+      <c r="U87" s="99"/>
+      <c r="V87" s="99"/>
       <c r="AD87" s="33"/>
     </row>
     <row r="88" spans="2:58" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="35">
         <v>4</v>
       </c>
-      <c r="C88" s="118" t="s">
+      <c r="C88" s="67" t="s">
         <v>186</v>
       </c>
-      <c r="D88" s="118"/>
-      <c r="E88" s="118"/>
-      <c r="F88" s="118"/>
-      <c r="G88" s="118" t="s">
+      <c r="D88" s="67"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="67"/>
+      <c r="G88" s="67" t="s">
         <v>187</v>
       </c>
-      <c r="H88" s="118"/>
-      <c r="I88" s="118"/>
-      <c r="J88" s="118"/>
-      <c r="K88" s="118"/>
-      <c r="L88" s="118"/>
-      <c r="M88" s="118"/>
-      <c r="N88" s="118"/>
-      <c r="O88" s="118"/>
+      <c r="H88" s="67"/>
+      <c r="I88" s="67"/>
+      <c r="J88" s="67"/>
+      <c r="K88" s="67"/>
+      <c r="L88" s="67"/>
+      <c r="M88" s="67"/>
+      <c r="N88" s="67"/>
+      <c r="O88" s="67"/>
       <c r="R88" s="15"/>
       <c r="S88" s="60"/>
       <c r="T88" s="60"/>
@@ -6794,23 +6778,23 @@
       <c r="B89" s="35">
         <v>5</v>
       </c>
-      <c r="C89" s="150" t="s">
+      <c r="C89" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="D89" s="151"/>
-      <c r="E89" s="151"/>
-      <c r="F89" s="152"/>
-      <c r="G89" s="128" t="s">
+      <c r="D89" s="76"/>
+      <c r="E89" s="76"/>
+      <c r="F89" s="77"/>
+      <c r="G89" s="68" t="s">
         <v>188</v>
       </c>
-      <c r="H89" s="129"/>
-      <c r="I89" s="129"/>
-      <c r="J89" s="129"/>
-      <c r="K89" s="129"/>
-      <c r="L89" s="129"/>
-      <c r="M89" s="129"/>
-      <c r="N89" s="129"/>
-      <c r="O89" s="130"/>
+      <c r="H89" s="69"/>
+      <c r="I89" s="69"/>
+      <c r="J89" s="69"/>
+      <c r="K89" s="69"/>
+      <c r="L89" s="69"/>
+      <c r="M89" s="69"/>
+      <c r="N89" s="69"/>
+      <c r="O89" s="70"/>
       <c r="R89" s="15"/>
       <c r="S89" s="60"/>
       <c r="T89" s="60"/>
@@ -6823,46 +6807,46 @@
       <c r="AD90" s="33"/>
     </row>
     <row r="91" spans="2:58" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="167" t="s">
+      <c r="B91" s="161" t="s">
         <v>189</v>
       </c>
-      <c r="C91" s="167"/>
-      <c r="D91" s="167"/>
-      <c r="E91" s="167"/>
-      <c r="F91" s="167"/>
-      <c r="G91" s="167"/>
-      <c r="H91" s="167"/>
-      <c r="I91" s="167"/>
-      <c r="J91" s="167"/>
-      <c r="K91" s="167"/>
-      <c r="L91" s="167"/>
-      <c r="M91" s="167"/>
-      <c r="N91" s="167"/>
-      <c r="O91" s="167"/>
-      <c r="P91" s="167"/>
-      <c r="Q91" s="167"/>
-      <c r="R91" s="167"/>
-      <c r="S91" s="167"/>
-      <c r="T91" s="167"/>
-      <c r="U91" s="167"/>
-      <c r="V91" s="167"/>
-      <c r="W91" s="167"/>
-      <c r="X91" s="167"/>
-      <c r="Y91" s="167"/>
-      <c r="Z91" s="167"/>
-      <c r="AA91" s="167"/>
-      <c r="AB91" s="167"/>
-      <c r="AC91" s="167"/>
+      <c r="C91" s="161"/>
+      <c r="D91" s="161"/>
+      <c r="E91" s="161"/>
+      <c r="F91" s="161"/>
+      <c r="G91" s="161"/>
+      <c r="H91" s="161"/>
+      <c r="I91" s="161"/>
+      <c r="J91" s="161"/>
+      <c r="K91" s="161"/>
+      <c r="L91" s="161"/>
+      <c r="M91" s="161"/>
+      <c r="N91" s="161"/>
+      <c r="O91" s="161"/>
+      <c r="P91" s="161"/>
+      <c r="Q91" s="161"/>
+      <c r="R91" s="161"/>
+      <c r="S91" s="161"/>
+      <c r="T91" s="161"/>
+      <c r="U91" s="161"/>
+      <c r="V91" s="161"/>
+      <c r="W91" s="161"/>
+      <c r="X91" s="161"/>
+      <c r="Y91" s="161"/>
+      <c r="Z91" s="161"/>
+      <c r="AA91" s="161"/>
+      <c r="AB91" s="161"/>
+      <c r="AC91" s="161"/>
       <c r="AD91" s="33"/>
       <c r="AF91" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AG91" s="148" t="s">
+      <c r="AG91" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="AH91" s="148"/>
-      <c r="AI91" s="148"/>
-      <c r="AJ91" s="148"/>
+      <c r="AH91" s="91"/>
+      <c r="AI91" s="91"/>
+      <c r="AJ91" s="91"/>
       <c r="AL91" s="7" t="s">
         <v>12</v>
       </c>
@@ -6872,25 +6856,25 @@
       <c r="AN91" s="65"/>
       <c r="AO91" s="65"/>
       <c r="AP91" s="65"/>
-      <c r="AS91" s="94" t="s">
+      <c r="AS91" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="AT91" s="95"/>
-      <c r="AU91" s="96" t="s">
+      <c r="AT91" s="90"/>
+      <c r="AU91" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="AV91" s="97"/>
-      <c r="AW91" s="97"/>
-      <c r="AX91" s="97"/>
-      <c r="AY91" s="97"/>
-      <c r="AZ91" s="97"/>
-      <c r="BA91" s="97"/>
-      <c r="BB91" s="98"/>
-      <c r="BD91" s="70" t="s">
+      <c r="AV91" s="79"/>
+      <c r="AW91" s="79"/>
+      <c r="AX91" s="79"/>
+      <c r="AY91" s="79"/>
+      <c r="AZ91" s="79"/>
+      <c r="BA91" s="79"/>
+      <c r="BB91" s="80"/>
+      <c r="BD91" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="BE91" s="70"/>
-      <c r="BF91" s="71" t="s">
+      <c r="BE91" s="81"/>
+      <c r="BF91" s="82" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6927,71 +6911,71 @@
       <c r="AF92" s="12">
         <v>1</v>
       </c>
-      <c r="AG92" s="164" t="s">
+      <c r="AG92" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="AH92" s="164"/>
-      <c r="AI92" s="164"/>
-      <c r="AJ92" s="164"/>
+      <c r="AH92" s="92"/>
+      <c r="AI92" s="92"/>
+      <c r="AJ92" s="92"/>
       <c r="AL92" s="13">
         <v>1</v>
       </c>
-      <c r="AM92" s="190" t="s">
+      <c r="AM92" s="83" t="s">
         <v>190</v>
       </c>
-      <c r="AN92" s="190"/>
-      <c r="AO92" s="190"/>
-      <c r="AP92" s="190"/>
-      <c r="AS92" s="99" t="s">
+      <c r="AN92" s="83"/>
+      <c r="AO92" s="83"/>
+      <c r="AP92" s="83"/>
+      <c r="AS92" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="AT92" s="100"/>
-      <c r="AU92" s="101" t="s">
+      <c r="AT92" s="85"/>
+      <c r="AU92" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="AV92" s="102"/>
-      <c r="AW92" s="99" t="s">
+      <c r="AV92" s="87"/>
+      <c r="AW92" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="AX92" s="100"/>
-      <c r="AY92" s="101" t="s">
+      <c r="AX92" s="85"/>
+      <c r="AY92" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="AZ92" s="103"/>
-      <c r="BA92" s="103"/>
-      <c r="BB92" s="102"/>
-      <c r="BD92" s="70"/>
-      <c r="BE92" s="70"/>
-      <c r="BF92" s="71"/>
+      <c r="AZ92" s="88"/>
+      <c r="BA92" s="88"/>
+      <c r="BB92" s="87"/>
+      <c r="BD92" s="81"/>
+      <c r="BE92" s="81"/>
+      <c r="BF92" s="82"/>
     </row>
     <row r="93" spans="2:58" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="65" t="s">
         <v>1</v>
       </c>
       <c r="C93" s="65"/>
-      <c r="D93" s="90" t="s">
+      <c r="D93" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="E93" s="90"/>
+      <c r="E93" s="66"/>
       <c r="AD93" s="33"/>
       <c r="AF93" s="12">
         <v>2</v>
       </c>
-      <c r="AG93" s="164" t="s">
+      <c r="AG93" s="92" t="s">
         <v>191</v>
       </c>
-      <c r="AH93" s="164"/>
-      <c r="AI93" s="164"/>
-      <c r="AJ93" s="164"/>
+      <c r="AH93" s="92"/>
+      <c r="AI93" s="92"/>
+      <c r="AJ93" s="92"/>
       <c r="AL93" s="13">
         <v>2</v>
       </c>
-      <c r="AM93" s="189" t="s">
+      <c r="AM93" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="AN93" s="189"/>
-      <c r="AO93" s="189"/>
-      <c r="AP93" s="189"/>
+      <c r="AN93" s="74"/>
+      <c r="AO93" s="74"/>
+      <c r="AP93" s="74"/>
       <c r="AS93" s="29"/>
       <c r="AT93" s="16"/>
       <c r="AU93" s="16"/>
@@ -7008,189 +6992,189 @@
       <c r="BF93" s="16"/>
     </row>
     <row r="94" spans="2:58" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="94" t="s">
+      <c r="B94" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="C94" s="95"/>
-      <c r="D94" s="96" t="s">
+      <c r="C94" s="90"/>
+      <c r="D94" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="E94" s="97"/>
-      <c r="F94" s="97"/>
-      <c r="G94" s="97"/>
-      <c r="H94" s="97"/>
-      <c r="I94" s="97"/>
-      <c r="J94" s="97"/>
-      <c r="K94" s="98"/>
-      <c r="M94" s="70" t="s">
+      <c r="E94" s="79"/>
+      <c r="F94" s="79"/>
+      <c r="G94" s="79"/>
+      <c r="H94" s="79"/>
+      <c r="I94" s="79"/>
+      <c r="J94" s="79"/>
+      <c r="K94" s="80"/>
+      <c r="M94" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="N94" s="70"/>
-      <c r="O94" s="71" t="s">
+      <c r="N94" s="81"/>
+      <c r="O94" s="82" t="s">
         <v>194</v>
       </c>
       <c r="AD94" s="33"/>
       <c r="AF94" s="12">
         <v>3</v>
       </c>
-      <c r="AG94" s="122" t="s">
+      <c r="AG94" s="99" t="s">
         <v>185</v>
       </c>
-      <c r="AH94" s="122"/>
-      <c r="AI94" s="122"/>
-      <c r="AJ94" s="122"/>
+      <c r="AH94" s="99"/>
+      <c r="AI94" s="99"/>
+      <c r="AJ94" s="99"/>
       <c r="AS94" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AT94" s="107" t="s">
+      <c r="AT94" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="AU94" s="108"/>
-      <c r="AV94" s="108"/>
-      <c r="AW94" s="109"/>
-      <c r="AX94" s="110" t="s">
+      <c r="AU94" s="94"/>
+      <c r="AV94" s="94"/>
+      <c r="AW94" s="95"/>
+      <c r="AX94" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="AY94" s="111"/>
-      <c r="AZ94" s="111"/>
-      <c r="BA94" s="111"/>
-      <c r="BB94" s="111"/>
-      <c r="BC94" s="111"/>
-      <c r="BD94" s="111"/>
-      <c r="BE94" s="111"/>
-      <c r="BF94" s="112"/>
+      <c r="AY94" s="97"/>
+      <c r="AZ94" s="97"/>
+      <c r="BA94" s="97"/>
+      <c r="BB94" s="97"/>
+      <c r="BC94" s="97"/>
+      <c r="BD94" s="97"/>
+      <c r="BE94" s="97"/>
+      <c r="BF94" s="98"/>
     </row>
     <row r="95" spans="2:58" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="113"/>
-      <c r="C95" s="114"/>
-      <c r="D95" s="115"/>
-      <c r="E95" s="116"/>
-      <c r="F95" s="116"/>
-      <c r="G95" s="116"/>
-      <c r="H95" s="116"/>
-      <c r="I95" s="116"/>
-      <c r="J95" s="116"/>
-      <c r="K95" s="117"/>
-      <c r="M95" s="70"/>
-      <c r="N95" s="70"/>
-      <c r="O95" s="71"/>
+      <c r="B95" s="182"/>
+      <c r="C95" s="183"/>
+      <c r="D95" s="157"/>
+      <c r="E95" s="158"/>
+      <c r="F95" s="158"/>
+      <c r="G95" s="158"/>
+      <c r="H95" s="158"/>
+      <c r="I95" s="158"/>
+      <c r="J95" s="158"/>
+      <c r="K95" s="159"/>
+      <c r="M95" s="81"/>
+      <c r="N95" s="81"/>
+      <c r="O95" s="82"/>
       <c r="AD95" s="33"/>
       <c r="AS95" s="35">
         <v>1</v>
       </c>
-      <c r="AT95" s="118" t="s">
+      <c r="AT95" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="AU95" s="118"/>
-      <c r="AV95" s="118"/>
-      <c r="AW95" s="118"/>
-      <c r="AX95" s="118" t="s">
+      <c r="AU95" s="67"/>
+      <c r="AV95" s="67"/>
+      <c r="AW95" s="67"/>
+      <c r="AX95" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="AY95" s="118"/>
-      <c r="AZ95" s="118"/>
-      <c r="BA95" s="118"/>
-      <c r="BB95" s="118"/>
-      <c r="BC95" s="118"/>
-      <c r="BD95" s="118"/>
-      <c r="BE95" s="118"/>
-      <c r="BF95" s="118"/>
+      <c r="AY95" s="67"/>
+      <c r="AZ95" s="67"/>
+      <c r="BA95" s="67"/>
+      <c r="BB95" s="67"/>
+      <c r="BC95" s="67"/>
+      <c r="BD95" s="67"/>
+      <c r="BE95" s="67"/>
+      <c r="BF95" s="67"/>
     </row>
     <row r="96" spans="2:58" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="99" t="s">
+      <c r="B96" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="C96" s="100"/>
-      <c r="D96" s="101" t="s">
+      <c r="C96" s="85"/>
+      <c r="D96" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="E96" s="102"/>
-      <c r="F96" s="99" t="s">
+      <c r="E96" s="87"/>
+      <c r="F96" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="G96" s="100"/>
-      <c r="H96" s="101" t="s">
+      <c r="G96" s="85"/>
+      <c r="H96" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="I96" s="103"/>
-      <c r="J96" s="103"/>
-      <c r="K96" s="102"/>
-      <c r="M96" s="70"/>
-      <c r="N96" s="70"/>
-      <c r="O96" s="71"/>
+      <c r="I96" s="88"/>
+      <c r="J96" s="88"/>
+      <c r="K96" s="87"/>
+      <c r="M96" s="81"/>
+      <c r="N96" s="81"/>
+      <c r="O96" s="82"/>
       <c r="AD96" s="33"/>
       <c r="AS96" s="35">
         <v>2</v>
       </c>
-      <c r="AT96" s="118" t="s">
+      <c r="AT96" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="AU96" s="118"/>
-      <c r="AV96" s="118"/>
-      <c r="AW96" s="118"/>
-      <c r="AX96" s="118" t="s">
+      <c r="AU96" s="67"/>
+      <c r="AV96" s="67"/>
+      <c r="AW96" s="67"/>
+      <c r="AX96" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="AY96" s="118"/>
-      <c r="AZ96" s="118"/>
-      <c r="BA96" s="118"/>
-      <c r="BB96" s="118"/>
-      <c r="BC96" s="118"/>
-      <c r="BD96" s="118"/>
-      <c r="BE96" s="118"/>
-      <c r="BF96" s="118"/>
+      <c r="AY96" s="67"/>
+      <c r="AZ96" s="67"/>
+      <c r="BA96" s="67"/>
+      <c r="BB96" s="67"/>
+      <c r="BC96" s="67"/>
+      <c r="BD96" s="67"/>
+      <c r="BE96" s="67"/>
+      <c r="BF96" s="67"/>
     </row>
     <row r="97" spans="2:58" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AD97" s="33"/>
       <c r="AS97" s="35"/>
-      <c r="AT97" s="118" t="s">
+      <c r="AT97" s="67" t="s">
         <v>196</v>
       </c>
-      <c r="AU97" s="118"/>
-      <c r="AV97" s="118"/>
-      <c r="AW97" s="118"/>
-      <c r="AX97" s="118" t="s">
+      <c r="AU97" s="67"/>
+      <c r="AV97" s="67"/>
+      <c r="AW97" s="67"/>
+      <c r="AX97" s="67" t="s">
         <v>197</v>
       </c>
-      <c r="AY97" s="118"/>
-      <c r="AZ97" s="118"/>
-      <c r="BA97" s="118"/>
-      <c r="BB97" s="118"/>
-      <c r="BC97" s="118"/>
-      <c r="BD97" s="118"/>
-      <c r="BE97" s="118"/>
-      <c r="BF97" s="118"/>
+      <c r="AY97" s="67"/>
+      <c r="AZ97" s="67"/>
+      <c r="BA97" s="67"/>
+      <c r="BB97" s="67"/>
+      <c r="BC97" s="67"/>
+      <c r="BD97" s="67"/>
+      <c r="BE97" s="67"/>
+      <c r="BF97" s="67"/>
     </row>
     <row r="98" spans="2:58" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C98" s="107" t="s">
+      <c r="C98" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="D98" s="108"/>
-      <c r="E98" s="108"/>
-      <c r="F98" s="109"/>
-      <c r="G98" s="110" t="s">
+      <c r="D98" s="94"/>
+      <c r="E98" s="94"/>
+      <c r="F98" s="95"/>
+      <c r="G98" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="H98" s="111"/>
-      <c r="I98" s="111"/>
-      <c r="J98" s="111"/>
-      <c r="K98" s="111"/>
-      <c r="L98" s="111"/>
-      <c r="M98" s="111"/>
-      <c r="N98" s="111"/>
-      <c r="O98" s="112"/>
+      <c r="H98" s="97"/>
+      <c r="I98" s="97"/>
+      <c r="J98" s="97"/>
+      <c r="K98" s="97"/>
+      <c r="L98" s="97"/>
+      <c r="M98" s="97"/>
+      <c r="N98" s="97"/>
+      <c r="O98" s="98"/>
       <c r="R98" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="S98" s="148" t="s">
+      <c r="S98" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="T98" s="148"/>
-      <c r="U98" s="148"/>
-      <c r="V98" s="148"/>
+      <c r="T98" s="91"/>
+      <c r="U98" s="91"/>
+      <c r="V98" s="91"/>
       <c r="X98" s="7" t="s">
         <v>12</v>
       </c>
@@ -7202,167 +7186,167 @@
       <c r="AB98" s="65"/>
       <c r="AD98" s="33"/>
       <c r="AS98" s="35"/>
-      <c r="AT98" s="83" t="s">
+      <c r="AT98" s="71" t="s">
         <v>183</v>
       </c>
-      <c r="AU98" s="84"/>
-      <c r="AV98" s="84"/>
-      <c r="AW98" s="85"/>
-      <c r="AX98" s="83" t="s">
+      <c r="AU98" s="72"/>
+      <c r="AV98" s="72"/>
+      <c r="AW98" s="73"/>
+      <c r="AX98" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="AY98" s="84"/>
-      <c r="AZ98" s="84"/>
-      <c r="BA98" s="84"/>
-      <c r="BB98" s="84"/>
-      <c r="BC98" s="84"/>
-      <c r="BD98" s="84"/>
-      <c r="BE98" s="84"/>
-      <c r="BF98" s="85"/>
+      <c r="AY98" s="72"/>
+      <c r="AZ98" s="72"/>
+      <c r="BA98" s="72"/>
+      <c r="BB98" s="72"/>
+      <c r="BC98" s="72"/>
+      <c r="BD98" s="72"/>
+      <c r="BE98" s="72"/>
+      <c r="BF98" s="73"/>
     </row>
     <row r="99" spans="2:58" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="44">
         <v>2</v>
       </c>
-      <c r="C99" s="104" t="s">
+      <c r="C99" s="138" t="s">
         <v>198</v>
       </c>
-      <c r="D99" s="105"/>
-      <c r="E99" s="105"/>
-      <c r="F99" s="106"/>
-      <c r="G99" s="104" t="s">
+      <c r="D99" s="139"/>
+      <c r="E99" s="139"/>
+      <c r="F99" s="140"/>
+      <c r="G99" s="138" t="s">
         <v>199</v>
       </c>
-      <c r="H99" s="105"/>
-      <c r="I99" s="105"/>
-      <c r="J99" s="105"/>
-      <c r="K99" s="105"/>
-      <c r="L99" s="105"/>
-      <c r="M99" s="105"/>
-      <c r="N99" s="105"/>
-      <c r="O99" s="106"/>
+      <c r="H99" s="139"/>
+      <c r="I99" s="139"/>
+      <c r="J99" s="139"/>
+      <c r="K99" s="139"/>
+      <c r="L99" s="139"/>
+      <c r="M99" s="139"/>
+      <c r="N99" s="139"/>
+      <c r="O99" s="140"/>
       <c r="R99" s="12">
         <v>1</v>
       </c>
-      <c r="S99" s="164" t="s">
+      <c r="S99" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="T99" s="164"/>
-      <c r="U99" s="164"/>
-      <c r="V99" s="164"/>
+      <c r="T99" s="92"/>
+      <c r="U99" s="92"/>
+      <c r="V99" s="92"/>
       <c r="X99" s="13">
         <v>1</v>
       </c>
-      <c r="Y99" s="104" t="s">
+      <c r="Y99" s="138" t="s">
         <v>200</v>
       </c>
-      <c r="Z99" s="105"/>
-      <c r="AA99" s="105"/>
-      <c r="AB99" s="106"/>
+      <c r="Z99" s="139"/>
+      <c r="AA99" s="139"/>
+      <c r="AB99" s="140"/>
       <c r="AD99" s="33"/>
       <c r="AS99" s="35">
         <v>3</v>
       </c>
-      <c r="AT99" s="83" t="s">
+      <c r="AT99" s="71" t="s">
         <v>186</v>
       </c>
-      <c r="AU99" s="84"/>
-      <c r="AV99" s="84"/>
-      <c r="AW99" s="85"/>
-      <c r="AX99" s="83" t="s">
+      <c r="AU99" s="72"/>
+      <c r="AV99" s="72"/>
+      <c r="AW99" s="73"/>
+      <c r="AX99" s="71" t="s">
         <v>201</v>
       </c>
-      <c r="AY99" s="84"/>
-      <c r="AZ99" s="84"/>
-      <c r="BA99" s="84"/>
-      <c r="BB99" s="84"/>
-      <c r="BC99" s="84"/>
-      <c r="BD99" s="84"/>
-      <c r="BE99" s="84"/>
-      <c r="BF99" s="85"/>
+      <c r="AY99" s="72"/>
+      <c r="AZ99" s="72"/>
+      <c r="BA99" s="72"/>
+      <c r="BB99" s="72"/>
+      <c r="BC99" s="72"/>
+      <c r="BD99" s="72"/>
+      <c r="BE99" s="72"/>
+      <c r="BF99" s="73"/>
     </row>
     <row r="100" spans="2:58" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="44">
         <v>3</v>
       </c>
-      <c r="C100" s="104" t="s">
+      <c r="C100" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="D100" s="105"/>
-      <c r="E100" s="105"/>
-      <c r="F100" s="106"/>
-      <c r="G100" s="104" t="s">
+      <c r="D100" s="139"/>
+      <c r="E100" s="139"/>
+      <c r="F100" s="140"/>
+      <c r="G100" s="138" t="s">
         <v>199</v>
       </c>
-      <c r="H100" s="105"/>
-      <c r="I100" s="105"/>
-      <c r="J100" s="105"/>
-      <c r="K100" s="105"/>
-      <c r="L100" s="105"/>
-      <c r="M100" s="105"/>
-      <c r="N100" s="105"/>
-      <c r="O100" s="106"/>
+      <c r="H100" s="139"/>
+      <c r="I100" s="139"/>
+      <c r="J100" s="139"/>
+      <c r="K100" s="139"/>
+      <c r="L100" s="139"/>
+      <c r="M100" s="139"/>
+      <c r="N100" s="139"/>
+      <c r="O100" s="140"/>
       <c r="R100" s="13">
         <v>2</v>
       </c>
-      <c r="S100" s="83" t="s">
+      <c r="S100" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="T100" s="84"/>
-      <c r="U100" s="84"/>
-      <c r="V100" s="85"/>
+      <c r="T100" s="72"/>
+      <c r="U100" s="72"/>
+      <c r="V100" s="73"/>
       <c r="X100" s="13">
         <v>2</v>
       </c>
-      <c r="Y100" s="104" t="s">
+      <c r="Y100" s="138" t="s">
         <v>204</v>
       </c>
-      <c r="Z100" s="105"/>
-      <c r="AA100" s="105"/>
-      <c r="AB100" s="106"/>
+      <c r="Z100" s="139"/>
+      <c r="AA100" s="139"/>
+      <c r="AB100" s="140"/>
       <c r="AD100" s="33"/>
       <c r="AS100" s="35">
         <v>4</v>
       </c>
-      <c r="AT100" s="118" t="s">
+      <c r="AT100" s="67" t="s">
         <v>196</v>
       </c>
-      <c r="AU100" s="118"/>
-      <c r="AV100" s="118"/>
-      <c r="AW100" s="118"/>
-      <c r="AX100" s="118" t="s">
+      <c r="AU100" s="67"/>
+      <c r="AV100" s="67"/>
+      <c r="AW100" s="67"/>
+      <c r="AX100" s="67" t="s">
         <v>174</v>
       </c>
-      <c r="AY100" s="118"/>
-      <c r="AZ100" s="118"/>
-      <c r="BA100" s="118"/>
-      <c r="BB100" s="118"/>
-      <c r="BC100" s="118"/>
-      <c r="BD100" s="118"/>
-      <c r="BE100" s="118"/>
-      <c r="BF100" s="118"/>
+      <c r="AY100" s="67"/>
+      <c r="AZ100" s="67"/>
+      <c r="BA100" s="67"/>
+      <c r="BB100" s="67"/>
+      <c r="BC100" s="67"/>
+      <c r="BD100" s="67"/>
+      <c r="BE100" s="67"/>
+      <c r="BF100" s="67"/>
     </row>
     <row r="101" spans="2:58" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="44">
         <v>4</v>
       </c>
-      <c r="C101" s="104" t="s">
+      <c r="C101" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="D101" s="105"/>
-      <c r="E101" s="105"/>
-      <c r="F101" s="106"/>
-      <c r="G101" s="104" t="s">
+      <c r="D101" s="139"/>
+      <c r="E101" s="139"/>
+      <c r="F101" s="140"/>
+      <c r="G101" s="138" t="s">
         <v>199</v>
       </c>
-      <c r="H101" s="105"/>
-      <c r="I101" s="105"/>
-      <c r="J101" s="105"/>
-      <c r="K101" s="105"/>
-      <c r="L101" s="105"/>
-      <c r="M101" s="105"/>
-      <c r="N101" s="105"/>
-      <c r="O101" s="106"/>
+      <c r="H101" s="139"/>
+      <c r="I101" s="139"/>
+      <c r="J101" s="139"/>
+      <c r="K101" s="139"/>
+      <c r="L101" s="139"/>
+      <c r="M101" s="139"/>
+      <c r="N101" s="139"/>
+      <c r="O101" s="140"/>
       <c r="S101" s="27"/>
       <c r="T101" s="27"/>
       <c r="U101" s="27"/>
@@ -7370,64 +7354,64 @@
       <c r="X101" s="13">
         <v>3</v>
       </c>
-      <c r="Y101" s="104" t="s">
+      <c r="Y101" s="138" t="s">
         <v>206</v>
       </c>
-      <c r="Z101" s="105"/>
-      <c r="AA101" s="105"/>
-      <c r="AB101" s="106"/>
+      <c r="Z101" s="139"/>
+      <c r="AA101" s="139"/>
+      <c r="AB101" s="140"/>
       <c r="AD101" s="33"/>
       <c r="AS101" s="35">
         <v>4</v>
       </c>
-      <c r="AT101" s="118" t="s">
+      <c r="AT101" s="67" t="s">
         <v>207</v>
       </c>
-      <c r="AU101" s="118"/>
-      <c r="AV101" s="118"/>
-      <c r="AW101" s="118"/>
-      <c r="AX101" s="118" t="s">
+      <c r="AU101" s="67"/>
+      <c r="AV101" s="67"/>
+      <c r="AW101" s="67"/>
+      <c r="AX101" s="67" t="s">
         <v>187</v>
       </c>
-      <c r="AY101" s="118"/>
-      <c r="AZ101" s="118"/>
-      <c r="BA101" s="118"/>
-      <c r="BB101" s="118"/>
-      <c r="BC101" s="118"/>
-      <c r="BD101" s="118"/>
-      <c r="BE101" s="118"/>
-      <c r="BF101" s="118"/>
+      <c r="AY101" s="67"/>
+      <c r="AZ101" s="67"/>
+      <c r="BA101" s="67"/>
+      <c r="BB101" s="67"/>
+      <c r="BC101" s="67"/>
+      <c r="BD101" s="67"/>
+      <c r="BE101" s="67"/>
+      <c r="BF101" s="67"/>
     </row>
     <row r="102" spans="2:58" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="44">
         <v>5</v>
       </c>
-      <c r="C102" s="93" t="s">
+      <c r="C102" s="148" t="s">
         <v>208</v>
       </c>
-      <c r="D102" s="93"/>
-      <c r="E102" s="93"/>
-      <c r="F102" s="93"/>
-      <c r="G102" s="93" t="s">
+      <c r="D102" s="148"/>
+      <c r="E102" s="148"/>
+      <c r="F102" s="148"/>
+      <c r="G102" s="148" t="s">
         <v>199</v>
       </c>
-      <c r="H102" s="93"/>
-      <c r="I102" s="93"/>
-      <c r="J102" s="93"/>
-      <c r="K102" s="93"/>
-      <c r="L102" s="93"/>
-      <c r="M102" s="93"/>
-      <c r="N102" s="93"/>
-      <c r="O102" s="93"/>
+      <c r="H102" s="148"/>
+      <c r="I102" s="148"/>
+      <c r="J102" s="148"/>
+      <c r="K102" s="148"/>
+      <c r="L102" s="148"/>
+      <c r="M102" s="148"/>
+      <c r="N102" s="148"/>
+      <c r="O102" s="148"/>
       <c r="X102" s="13">
         <v>4</v>
       </c>
-      <c r="Y102" s="93" t="s">
+      <c r="Y102" s="148" t="s">
         <v>209</v>
       </c>
-      <c r="Z102" s="93"/>
-      <c r="AA102" s="93"/>
-      <c r="AB102" s="93"/>
+      <c r="Z102" s="148"/>
+      <c r="AA102" s="148"/>
+      <c r="AB102" s="148"/>
       <c r="AD102" s="33"/>
       <c r="AS102" s="35">
         <v>5</v>
@@ -7438,17 +7422,17 @@
       <c r="AU102" s="40"/>
       <c r="AV102" s="40"/>
       <c r="AW102" s="41"/>
-      <c r="AX102" s="128" t="s">
+      <c r="AX102" s="68" t="s">
         <v>188</v>
       </c>
-      <c r="AY102" s="129"/>
-      <c r="AZ102" s="129"/>
-      <c r="BA102" s="129"/>
-      <c r="BB102" s="129"/>
-      <c r="BC102" s="129"/>
-      <c r="BD102" s="129"/>
-      <c r="BE102" s="129"/>
-      <c r="BF102" s="130"/>
+      <c r="AY102" s="69"/>
+      <c r="AZ102" s="69"/>
+      <c r="BA102" s="69"/>
+      <c r="BB102" s="69"/>
+      <c r="BC102" s="69"/>
+      <c r="BD102" s="69"/>
+      <c r="BE102" s="69"/>
+      <c r="BF102" s="70"/>
     </row>
     <row r="103" spans="2:58" x14ac:dyDescent="0.3">
       <c r="AD103" s="33"/>
@@ -8930,85 +8914,377 @@
     </row>
   </sheetData>
   <mergeCells count="474">
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="AT100:AW100"/>
-    <mergeCell ref="AX100:BF100"/>
-    <mergeCell ref="AX102:BF102"/>
-    <mergeCell ref="AT101:AW101"/>
-    <mergeCell ref="AX101:BF101"/>
-    <mergeCell ref="AT99:AW99"/>
-    <mergeCell ref="AX99:BF99"/>
-    <mergeCell ref="AM93:AP93"/>
-    <mergeCell ref="AT97:AW97"/>
-    <mergeCell ref="AX97:BF97"/>
-    <mergeCell ref="AT98:AW98"/>
-    <mergeCell ref="AX98:BF98"/>
-    <mergeCell ref="AT95:AW95"/>
-    <mergeCell ref="AX95:BF95"/>
-    <mergeCell ref="AT96:AW96"/>
-    <mergeCell ref="AX96:BF96"/>
-    <mergeCell ref="G88:O88"/>
-    <mergeCell ref="C89:F89"/>
-    <mergeCell ref="G89:O89"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="AX84:BF84"/>
-    <mergeCell ref="AU91:BB91"/>
-    <mergeCell ref="BD91:BE92"/>
-    <mergeCell ref="BF91:BF92"/>
-    <mergeCell ref="AM92:AP92"/>
-    <mergeCell ref="AS92:AT92"/>
-    <mergeCell ref="AU92:AV92"/>
-    <mergeCell ref="AW92:AX92"/>
-    <mergeCell ref="AY92:BB92"/>
-    <mergeCell ref="AS91:AT91"/>
-    <mergeCell ref="AG91:AJ91"/>
-    <mergeCell ref="AM91:AP91"/>
-    <mergeCell ref="AG92:AJ92"/>
-    <mergeCell ref="AT77:AW77"/>
-    <mergeCell ref="AX77:BF77"/>
-    <mergeCell ref="AT79:AW79"/>
-    <mergeCell ref="AX79:BF79"/>
-    <mergeCell ref="AG77:AJ77"/>
-    <mergeCell ref="AM77:AP77"/>
-    <mergeCell ref="AS75:AT75"/>
-    <mergeCell ref="AG75:AJ75"/>
-    <mergeCell ref="AG94:AJ94"/>
-    <mergeCell ref="AT94:AW94"/>
-    <mergeCell ref="AX94:BF94"/>
-    <mergeCell ref="AG93:AJ93"/>
-    <mergeCell ref="AT69:AW69"/>
-    <mergeCell ref="AX69:BF69"/>
-    <mergeCell ref="AG74:AJ74"/>
-    <mergeCell ref="AM74:AP74"/>
-    <mergeCell ref="AS74:AT74"/>
-    <mergeCell ref="AU74:BB74"/>
-    <mergeCell ref="BD74:BE75"/>
-    <mergeCell ref="BF74:BF75"/>
-    <mergeCell ref="AU75:AV75"/>
-    <mergeCell ref="AW75:AX75"/>
-    <mergeCell ref="AY75:BB75"/>
-    <mergeCell ref="AT83:AW83"/>
-    <mergeCell ref="AX83:BF83"/>
-    <mergeCell ref="AM78:AP78"/>
-    <mergeCell ref="AT81:AW81"/>
-    <mergeCell ref="AX81:BF81"/>
-    <mergeCell ref="AT82:AW82"/>
-    <mergeCell ref="AX82:BF82"/>
-    <mergeCell ref="AT80:AW80"/>
-    <mergeCell ref="AX80:BF80"/>
-    <mergeCell ref="AT78:AW78"/>
-    <mergeCell ref="AX78:BF78"/>
-    <mergeCell ref="AM75:AP75"/>
-    <mergeCell ref="AG76:AJ76"/>
+    <mergeCell ref="Y75:AB75"/>
+    <mergeCell ref="Y76:AB76"/>
+    <mergeCell ref="Y77:AB77"/>
+    <mergeCell ref="M22:N24"/>
+    <mergeCell ref="O22:O24"/>
+    <mergeCell ref="M35:N36"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="M49:N50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="M61:N62"/>
+    <mergeCell ref="O61:O62"/>
+    <mergeCell ref="M72:N73"/>
+    <mergeCell ref="O72:O73"/>
+    <mergeCell ref="Y55:AB55"/>
+    <mergeCell ref="Y56:AB56"/>
+    <mergeCell ref="Y64:AB64"/>
+    <mergeCell ref="Y65:AB65"/>
+    <mergeCell ref="Y66:AB66"/>
+    <mergeCell ref="Y67:AB67"/>
+    <mergeCell ref="Y68:AB68"/>
+    <mergeCell ref="AO17:BE17"/>
+    <mergeCell ref="Y38:AB38"/>
+    <mergeCell ref="Y39:AB39"/>
+    <mergeCell ref="Y40:AB40"/>
+    <mergeCell ref="Y52:AB52"/>
+    <mergeCell ref="Y53:AB53"/>
+    <mergeCell ref="Y54:AB54"/>
+    <mergeCell ref="A1:W2"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B3:J4"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:K49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C102:F102"/>
+    <mergeCell ref="G102:O102"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:K72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="C99:F99"/>
+    <mergeCell ref="C100:F100"/>
+    <mergeCell ref="C101:F101"/>
+    <mergeCell ref="G99:O99"/>
+    <mergeCell ref="G100:O100"/>
+    <mergeCell ref="G101:O101"/>
+    <mergeCell ref="C98:F98"/>
+    <mergeCell ref="G98:O98"/>
+    <mergeCell ref="B94:C95"/>
+    <mergeCell ref="D94:K95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="M94:N96"/>
+    <mergeCell ref="O94:O96"/>
+    <mergeCell ref="S78:V78"/>
+    <mergeCell ref="C86:F86"/>
+    <mergeCell ref="G86:O86"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:K61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="G68:O68"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="G75:O75"/>
+    <mergeCell ref="G67:O67"/>
+    <mergeCell ref="C69:F69"/>
+    <mergeCell ref="G69:O69"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="G70:O70"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="G85:O85"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="G65:O65"/>
+    <mergeCell ref="G66:O66"/>
+    <mergeCell ref="G45:O45"/>
+    <mergeCell ref="G44:O44"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="G42:O42"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="G43:O43"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G53:O53"/>
+    <mergeCell ref="G54:O54"/>
+    <mergeCell ref="G56:O56"/>
+    <mergeCell ref="G57:O57"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="G52:O52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="G55:O55"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="B17:W17"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="D22:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:O27"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="G30:O30"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="Y29:AB29"/>
+    <mergeCell ref="X17:AN17"/>
+    <mergeCell ref="Y26:AB26"/>
+    <mergeCell ref="G26:O26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="Y27:AB27"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="G28:O28"/>
+    <mergeCell ref="G29:O29"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G39:O39"/>
+    <mergeCell ref="G40:O40"/>
+    <mergeCell ref="G41:O41"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:K35"/>
+    <mergeCell ref="S43:V43"/>
+    <mergeCell ref="S44:V44"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="G38:O38"/>
+    <mergeCell ref="S45:V45"/>
+    <mergeCell ref="S46:V46"/>
+    <mergeCell ref="R43:R46"/>
+    <mergeCell ref="S52:V52"/>
+    <mergeCell ref="S53:V53"/>
+    <mergeCell ref="S54:V54"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="S31:V31"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="S29:V30"/>
+    <mergeCell ref="S33:V33"/>
+    <mergeCell ref="S38:V38"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="S40:V40"/>
+    <mergeCell ref="S41:V41"/>
+    <mergeCell ref="S42:V42"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="S64:V64"/>
+    <mergeCell ref="S65:V65"/>
+    <mergeCell ref="S66:V66"/>
+    <mergeCell ref="S75:V75"/>
+    <mergeCell ref="S76:V76"/>
+    <mergeCell ref="S77:V77"/>
+    <mergeCell ref="S68:V68"/>
+    <mergeCell ref="S67:V67"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="G64:O64"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="G76:O76"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="Y98:AB98"/>
+    <mergeCell ref="Y99:AB99"/>
+    <mergeCell ref="Y100:AB100"/>
+    <mergeCell ref="Y101:AB101"/>
+    <mergeCell ref="Y102:AB102"/>
+    <mergeCell ref="S84:V84"/>
+    <mergeCell ref="S85:V85"/>
+    <mergeCell ref="S86:V86"/>
+    <mergeCell ref="S87:V87"/>
+    <mergeCell ref="Y84:AB84"/>
+    <mergeCell ref="Y85:AB85"/>
+    <mergeCell ref="S98:V98"/>
+    <mergeCell ref="S99:V99"/>
+    <mergeCell ref="S100:V100"/>
+    <mergeCell ref="G77:O77"/>
+    <mergeCell ref="C78:F78"/>
+    <mergeCell ref="G78:O78"/>
+    <mergeCell ref="C79:F79"/>
+    <mergeCell ref="G79:O79"/>
+    <mergeCell ref="C87:F87"/>
+    <mergeCell ref="G87:O87"/>
+    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="AF19:BF19"/>
+    <mergeCell ref="B91:AC91"/>
+    <mergeCell ref="AG22:AJ22"/>
+    <mergeCell ref="AM22:AP22"/>
+    <mergeCell ref="AG23:AJ23"/>
+    <mergeCell ref="AM23:AP23"/>
+    <mergeCell ref="AG24:AJ24"/>
+    <mergeCell ref="AM24:AP24"/>
+    <mergeCell ref="B19:AB19"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:O32"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:O31"/>
+    <mergeCell ref="S55:V55"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:K81"/>
+    <mergeCell ref="M81:N82"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="G84:O84"/>
+    <mergeCell ref="AG29:AJ29"/>
+    <mergeCell ref="AG28:AJ28"/>
+    <mergeCell ref="AM30:AP30"/>
+    <mergeCell ref="AM31:AP31"/>
+    <mergeCell ref="AF25:AF26"/>
+    <mergeCell ref="AG25:AJ26"/>
+    <mergeCell ref="AM25:AP25"/>
+    <mergeCell ref="AG27:AJ27"/>
+    <mergeCell ref="AM26:AP26"/>
+    <mergeCell ref="AM27:AP27"/>
+    <mergeCell ref="AM28:AP28"/>
+    <mergeCell ref="AM29:AP29"/>
+    <mergeCell ref="BJ29:BM29"/>
+    <mergeCell ref="BN29:BV29"/>
+    <mergeCell ref="BI24:BJ24"/>
+    <mergeCell ref="BK24:BL24"/>
+    <mergeCell ref="AS22:AT23"/>
+    <mergeCell ref="AU22:BB23"/>
+    <mergeCell ref="BD22:BE24"/>
+    <mergeCell ref="BI22:BJ23"/>
+    <mergeCell ref="BK22:BR23"/>
+    <mergeCell ref="BT22:BU24"/>
+    <mergeCell ref="AT27:AW27"/>
+    <mergeCell ref="AX27:BF27"/>
+    <mergeCell ref="AT36:AW36"/>
+    <mergeCell ref="AX36:BF36"/>
+    <mergeCell ref="AT28:AW28"/>
+    <mergeCell ref="AX28:BF28"/>
+    <mergeCell ref="AT29:AW29"/>
+    <mergeCell ref="AX29:BF29"/>
+    <mergeCell ref="AT30:AW30"/>
+    <mergeCell ref="AX30:BF30"/>
+    <mergeCell ref="AT31:AW31"/>
+    <mergeCell ref="AX31:BF31"/>
+    <mergeCell ref="AT32:AW32"/>
+    <mergeCell ref="AX32:BF32"/>
+    <mergeCell ref="AT33:AW33"/>
+    <mergeCell ref="AX33:BF33"/>
+    <mergeCell ref="AT34:AW34"/>
+    <mergeCell ref="AX34:BF34"/>
+    <mergeCell ref="AT35:AW35"/>
+    <mergeCell ref="AX35:BF35"/>
+    <mergeCell ref="AT48:AW48"/>
+    <mergeCell ref="AX48:BF48"/>
+    <mergeCell ref="AT49:AW49"/>
+    <mergeCell ref="AX49:BF49"/>
+    <mergeCell ref="AG41:AJ41"/>
+    <mergeCell ref="AG42:AJ42"/>
+    <mergeCell ref="AG43:AJ43"/>
+    <mergeCell ref="AG44:AJ44"/>
+    <mergeCell ref="BV22:BV24"/>
+    <mergeCell ref="BM24:BN24"/>
+    <mergeCell ref="BO24:BR24"/>
+    <mergeCell ref="BJ26:BM26"/>
+    <mergeCell ref="BN26:BV26"/>
+    <mergeCell ref="BJ27:BM27"/>
+    <mergeCell ref="BN27:BV27"/>
+    <mergeCell ref="BJ28:BM28"/>
+    <mergeCell ref="BN28:BV28"/>
+    <mergeCell ref="BF22:BF24"/>
+    <mergeCell ref="AS24:AT24"/>
+    <mergeCell ref="AU24:AV24"/>
+    <mergeCell ref="AW24:AX24"/>
+    <mergeCell ref="AY24:BB24"/>
+    <mergeCell ref="AT26:AW26"/>
+    <mergeCell ref="AX26:BF26"/>
+    <mergeCell ref="AM44:AP44"/>
+    <mergeCell ref="AM41:AP41"/>
+    <mergeCell ref="AM42:AP42"/>
+    <mergeCell ref="AM43:AP43"/>
+    <mergeCell ref="AM45:AP45"/>
+    <mergeCell ref="AT47:AW47"/>
+    <mergeCell ref="AX47:BF47"/>
+    <mergeCell ref="AM46:AP46"/>
+    <mergeCell ref="AS41:AT41"/>
+    <mergeCell ref="AU41:BB41"/>
+    <mergeCell ref="BD41:BE42"/>
+    <mergeCell ref="BF41:BF42"/>
+    <mergeCell ref="AS42:AT42"/>
+    <mergeCell ref="AU42:AV42"/>
+    <mergeCell ref="AW42:AX42"/>
+    <mergeCell ref="AY42:BB42"/>
+    <mergeCell ref="AT44:AW44"/>
+    <mergeCell ref="AX44:BF44"/>
+    <mergeCell ref="AT45:AW45"/>
+    <mergeCell ref="AX45:BF45"/>
+    <mergeCell ref="AT46:AW46"/>
+    <mergeCell ref="AX46:BF46"/>
+    <mergeCell ref="AM47:AP47"/>
+    <mergeCell ref="AT50:AW50"/>
+    <mergeCell ref="AX50:BF50"/>
+    <mergeCell ref="AT51:AW51"/>
+    <mergeCell ref="AX51:BF51"/>
+    <mergeCell ref="AT53:AW53"/>
+    <mergeCell ref="AT54:AW54"/>
+    <mergeCell ref="AX53:BF53"/>
+    <mergeCell ref="AX54:BF54"/>
+    <mergeCell ref="AT52:AW52"/>
+    <mergeCell ref="AX52:BF52"/>
+    <mergeCell ref="AG58:AJ58"/>
+    <mergeCell ref="AM58:AP58"/>
+    <mergeCell ref="AG59:AJ59"/>
+    <mergeCell ref="AM59:AP59"/>
+    <mergeCell ref="AG60:AJ60"/>
+    <mergeCell ref="AM60:AP60"/>
+    <mergeCell ref="AG61:AJ61"/>
+    <mergeCell ref="AM61:AP61"/>
+    <mergeCell ref="AG62:AJ62"/>
+    <mergeCell ref="AM62:AP62"/>
+    <mergeCell ref="AS58:AT58"/>
+    <mergeCell ref="AU58:BB58"/>
+    <mergeCell ref="BD58:BE59"/>
+    <mergeCell ref="BF58:BF59"/>
+    <mergeCell ref="AS59:AT59"/>
+    <mergeCell ref="AU59:AV59"/>
+    <mergeCell ref="AW59:AX59"/>
+    <mergeCell ref="AY59:BB59"/>
+    <mergeCell ref="AT61:AW61"/>
+    <mergeCell ref="AX61:BF61"/>
+    <mergeCell ref="BI58:BJ58"/>
+    <mergeCell ref="BK58:BR58"/>
+    <mergeCell ref="BT58:BU59"/>
+    <mergeCell ref="BV58:BV59"/>
+    <mergeCell ref="BI59:BJ59"/>
+    <mergeCell ref="BK59:BL59"/>
+    <mergeCell ref="BM59:BN59"/>
+    <mergeCell ref="BO59:BR59"/>
+    <mergeCell ref="BJ61:BM61"/>
+    <mergeCell ref="BN61:BV61"/>
     <mergeCell ref="AM76:AP76"/>
     <mergeCell ref="BJ62:BM62"/>
     <mergeCell ref="BN62:BV62"/>
@@ -9033,377 +9309,85 @@
     <mergeCell ref="AX68:BF68"/>
     <mergeCell ref="AT62:AW62"/>
     <mergeCell ref="AX62:BF62"/>
-    <mergeCell ref="BI58:BJ58"/>
-    <mergeCell ref="BK58:BR58"/>
-    <mergeCell ref="BT58:BU59"/>
-    <mergeCell ref="BV58:BV59"/>
-    <mergeCell ref="BI59:BJ59"/>
-    <mergeCell ref="BK59:BL59"/>
-    <mergeCell ref="BM59:BN59"/>
-    <mergeCell ref="BO59:BR59"/>
-    <mergeCell ref="BJ61:BM61"/>
-    <mergeCell ref="BN61:BV61"/>
-    <mergeCell ref="AS58:AT58"/>
-    <mergeCell ref="AU58:BB58"/>
-    <mergeCell ref="BD58:BE59"/>
-    <mergeCell ref="BF58:BF59"/>
-    <mergeCell ref="AS59:AT59"/>
-    <mergeCell ref="AU59:AV59"/>
-    <mergeCell ref="AW59:AX59"/>
-    <mergeCell ref="AY59:BB59"/>
-    <mergeCell ref="AT61:AW61"/>
-    <mergeCell ref="AX61:BF61"/>
-    <mergeCell ref="AG58:AJ58"/>
-    <mergeCell ref="AM58:AP58"/>
-    <mergeCell ref="AG59:AJ59"/>
-    <mergeCell ref="AM59:AP59"/>
-    <mergeCell ref="AG60:AJ60"/>
-    <mergeCell ref="AM60:AP60"/>
-    <mergeCell ref="AG61:AJ61"/>
-    <mergeCell ref="AM61:AP61"/>
-    <mergeCell ref="AG62:AJ62"/>
-    <mergeCell ref="AM62:AP62"/>
-    <mergeCell ref="AT50:AW50"/>
-    <mergeCell ref="AX50:BF50"/>
-    <mergeCell ref="AT51:AW51"/>
-    <mergeCell ref="AX51:BF51"/>
-    <mergeCell ref="AT53:AW53"/>
-    <mergeCell ref="AT54:AW54"/>
-    <mergeCell ref="AX53:BF53"/>
-    <mergeCell ref="AX54:BF54"/>
-    <mergeCell ref="AT52:AW52"/>
-    <mergeCell ref="AX52:BF52"/>
-    <mergeCell ref="AM44:AP44"/>
-    <mergeCell ref="AM41:AP41"/>
-    <mergeCell ref="AM42:AP42"/>
-    <mergeCell ref="AM43:AP43"/>
-    <mergeCell ref="AM45:AP45"/>
-    <mergeCell ref="AT47:AW47"/>
-    <mergeCell ref="AX47:BF47"/>
-    <mergeCell ref="AM46:AP46"/>
-    <mergeCell ref="AS41:AT41"/>
-    <mergeCell ref="AU41:BB41"/>
-    <mergeCell ref="BD41:BE42"/>
-    <mergeCell ref="BF41:BF42"/>
-    <mergeCell ref="AS42:AT42"/>
-    <mergeCell ref="AU42:AV42"/>
-    <mergeCell ref="AW42:AX42"/>
-    <mergeCell ref="AY42:BB42"/>
-    <mergeCell ref="AT44:AW44"/>
-    <mergeCell ref="AX44:BF44"/>
-    <mergeCell ref="AT45:AW45"/>
-    <mergeCell ref="AX45:BF45"/>
-    <mergeCell ref="AT46:AW46"/>
-    <mergeCell ref="AX46:BF46"/>
-    <mergeCell ref="AM47:AP47"/>
-    <mergeCell ref="AT48:AW48"/>
-    <mergeCell ref="AX48:BF48"/>
-    <mergeCell ref="AT49:AW49"/>
-    <mergeCell ref="AX49:BF49"/>
-    <mergeCell ref="AG41:AJ41"/>
-    <mergeCell ref="AG42:AJ42"/>
-    <mergeCell ref="AG43:AJ43"/>
-    <mergeCell ref="AG44:AJ44"/>
-    <mergeCell ref="BV22:BV24"/>
-    <mergeCell ref="BM24:BN24"/>
-    <mergeCell ref="BO24:BR24"/>
-    <mergeCell ref="BJ26:BM26"/>
-    <mergeCell ref="BN26:BV26"/>
-    <mergeCell ref="BJ27:BM27"/>
-    <mergeCell ref="BN27:BV27"/>
-    <mergeCell ref="BJ28:BM28"/>
-    <mergeCell ref="BN28:BV28"/>
-    <mergeCell ref="BF22:BF24"/>
-    <mergeCell ref="AS24:AT24"/>
-    <mergeCell ref="AU24:AV24"/>
-    <mergeCell ref="AW24:AX24"/>
-    <mergeCell ref="AY24:BB24"/>
-    <mergeCell ref="AT26:AW26"/>
-    <mergeCell ref="AX26:BF26"/>
-    <mergeCell ref="AT36:AW36"/>
-    <mergeCell ref="AX36:BF36"/>
-    <mergeCell ref="AT28:AW28"/>
-    <mergeCell ref="AX28:BF28"/>
-    <mergeCell ref="AT29:AW29"/>
-    <mergeCell ref="AX29:BF29"/>
-    <mergeCell ref="AT30:AW30"/>
-    <mergeCell ref="AX30:BF30"/>
-    <mergeCell ref="AT31:AW31"/>
-    <mergeCell ref="AX31:BF31"/>
-    <mergeCell ref="AT32:AW32"/>
-    <mergeCell ref="AX32:BF32"/>
-    <mergeCell ref="AT33:AW33"/>
-    <mergeCell ref="AX33:BF33"/>
-    <mergeCell ref="AT34:AW34"/>
-    <mergeCell ref="AX34:BF34"/>
-    <mergeCell ref="AT35:AW35"/>
-    <mergeCell ref="AX35:BF35"/>
-    <mergeCell ref="BJ29:BM29"/>
-    <mergeCell ref="BN29:BV29"/>
-    <mergeCell ref="BI24:BJ24"/>
-    <mergeCell ref="BK24:BL24"/>
-    <mergeCell ref="AS22:AT23"/>
-    <mergeCell ref="AU22:BB23"/>
-    <mergeCell ref="BD22:BE24"/>
-    <mergeCell ref="BI22:BJ23"/>
-    <mergeCell ref="BK22:BR23"/>
-    <mergeCell ref="BT22:BU24"/>
-    <mergeCell ref="AT27:AW27"/>
-    <mergeCell ref="AX27:BF27"/>
-    <mergeCell ref="AG29:AJ29"/>
-    <mergeCell ref="AG28:AJ28"/>
-    <mergeCell ref="AM30:AP30"/>
-    <mergeCell ref="AM31:AP31"/>
-    <mergeCell ref="AF25:AF26"/>
-    <mergeCell ref="AG25:AJ26"/>
-    <mergeCell ref="AM25:AP25"/>
-    <mergeCell ref="AG27:AJ27"/>
-    <mergeCell ref="AM26:AP26"/>
-    <mergeCell ref="AM27:AP27"/>
-    <mergeCell ref="AM28:AP28"/>
-    <mergeCell ref="AM29:AP29"/>
-    <mergeCell ref="AF19:BF19"/>
-    <mergeCell ref="B91:AC91"/>
-    <mergeCell ref="AG22:AJ22"/>
-    <mergeCell ref="AM22:AP22"/>
-    <mergeCell ref="AG23:AJ23"/>
-    <mergeCell ref="AM23:AP23"/>
-    <mergeCell ref="AG24:AJ24"/>
-    <mergeCell ref="AM24:AP24"/>
-    <mergeCell ref="B19:AB19"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:O32"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:O31"/>
-    <mergeCell ref="S55:V55"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:K81"/>
-    <mergeCell ref="M81:N82"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="H82:K82"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="G84:O84"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="Y98:AB98"/>
-    <mergeCell ref="Y99:AB99"/>
-    <mergeCell ref="Y100:AB100"/>
-    <mergeCell ref="Y101:AB101"/>
-    <mergeCell ref="Y102:AB102"/>
-    <mergeCell ref="S84:V84"/>
-    <mergeCell ref="S85:V85"/>
-    <mergeCell ref="S86:V86"/>
-    <mergeCell ref="S87:V87"/>
-    <mergeCell ref="Y84:AB84"/>
-    <mergeCell ref="Y85:AB85"/>
-    <mergeCell ref="S98:V98"/>
-    <mergeCell ref="S99:V99"/>
-    <mergeCell ref="S100:V100"/>
-    <mergeCell ref="G77:O77"/>
-    <mergeCell ref="C78:F78"/>
-    <mergeCell ref="G78:O78"/>
-    <mergeCell ref="C79:F79"/>
-    <mergeCell ref="G79:O79"/>
-    <mergeCell ref="C87:F87"/>
-    <mergeCell ref="G87:O87"/>
-    <mergeCell ref="C88:F88"/>
-    <mergeCell ref="S64:V64"/>
-    <mergeCell ref="S65:V65"/>
-    <mergeCell ref="S66:V66"/>
-    <mergeCell ref="S75:V75"/>
-    <mergeCell ref="S76:V76"/>
-    <mergeCell ref="S77:V77"/>
-    <mergeCell ref="S68:V68"/>
-    <mergeCell ref="S67:V67"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="G64:O64"/>
-    <mergeCell ref="C76:F76"/>
-    <mergeCell ref="G76:O76"/>
-    <mergeCell ref="C77:F77"/>
-    <mergeCell ref="S45:V45"/>
-    <mergeCell ref="S46:V46"/>
-    <mergeCell ref="R43:R46"/>
-    <mergeCell ref="S52:V52"/>
-    <mergeCell ref="S53:V53"/>
-    <mergeCell ref="S54:V54"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="S31:V31"/>
-    <mergeCell ref="S32:V32"/>
-    <mergeCell ref="S29:V30"/>
-    <mergeCell ref="S33:V33"/>
-    <mergeCell ref="S38:V38"/>
-    <mergeCell ref="S39:V39"/>
-    <mergeCell ref="S40:V40"/>
-    <mergeCell ref="S41:V41"/>
-    <mergeCell ref="S42:V42"/>
-    <mergeCell ref="S28:V28"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G39:O39"/>
-    <mergeCell ref="G40:O40"/>
-    <mergeCell ref="G41:O41"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:K35"/>
-    <mergeCell ref="S43:V43"/>
-    <mergeCell ref="S44:V44"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="G38:O38"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:O27"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="G30:O30"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="Y29:AB29"/>
-    <mergeCell ref="X17:AN17"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="B17:W17"/>
-    <mergeCell ref="Y26:AB26"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="G26:O26"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="D22:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="Y27:AB27"/>
-    <mergeCell ref="Y28:AB28"/>
-    <mergeCell ref="G28:O28"/>
-    <mergeCell ref="G29:O29"/>
-    <mergeCell ref="G53:O53"/>
-    <mergeCell ref="G54:O54"/>
-    <mergeCell ref="G56:O56"/>
-    <mergeCell ref="G57:O57"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="G52:O52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="G55:O55"/>
-    <mergeCell ref="G45:O45"/>
-    <mergeCell ref="G44:O44"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="G42:O42"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="G43:O43"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="S78:V78"/>
-    <mergeCell ref="C86:F86"/>
-    <mergeCell ref="G86:O86"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:K61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="G68:O68"/>
-    <mergeCell ref="C75:F75"/>
-    <mergeCell ref="G75:O75"/>
-    <mergeCell ref="G67:O67"/>
-    <mergeCell ref="C69:F69"/>
-    <mergeCell ref="G69:O69"/>
-    <mergeCell ref="C70:F70"/>
-    <mergeCell ref="G70:O70"/>
-    <mergeCell ref="C85:F85"/>
-    <mergeCell ref="G85:O85"/>
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="C67:F67"/>
-    <mergeCell ref="G65:O65"/>
-    <mergeCell ref="G66:O66"/>
-    <mergeCell ref="C102:F102"/>
-    <mergeCell ref="G102:O102"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:K72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="C99:F99"/>
-    <mergeCell ref="C100:F100"/>
-    <mergeCell ref="C101:F101"/>
-    <mergeCell ref="G99:O99"/>
-    <mergeCell ref="G100:O100"/>
-    <mergeCell ref="G101:O101"/>
-    <mergeCell ref="C98:F98"/>
-    <mergeCell ref="G98:O98"/>
-    <mergeCell ref="B94:C95"/>
-    <mergeCell ref="D94:K95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="H96:K96"/>
-    <mergeCell ref="M94:N96"/>
-    <mergeCell ref="O94:O96"/>
-    <mergeCell ref="AO17:BE17"/>
-    <mergeCell ref="Y38:AB38"/>
-    <mergeCell ref="Y39:AB39"/>
-    <mergeCell ref="Y40:AB40"/>
-    <mergeCell ref="Y52:AB52"/>
-    <mergeCell ref="Y53:AB53"/>
-    <mergeCell ref="Y54:AB54"/>
-    <mergeCell ref="A1:W2"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B3:J4"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:K49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="Y75:AB75"/>
-    <mergeCell ref="Y76:AB76"/>
-    <mergeCell ref="Y77:AB77"/>
-    <mergeCell ref="M22:N24"/>
-    <mergeCell ref="O22:O24"/>
-    <mergeCell ref="M35:N36"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="M49:N50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="M61:N62"/>
-    <mergeCell ref="O61:O62"/>
-    <mergeCell ref="M72:N73"/>
-    <mergeCell ref="O72:O73"/>
-    <mergeCell ref="Y55:AB55"/>
-    <mergeCell ref="Y56:AB56"/>
-    <mergeCell ref="Y64:AB64"/>
-    <mergeCell ref="Y65:AB65"/>
-    <mergeCell ref="Y66:AB66"/>
-    <mergeCell ref="Y67:AB67"/>
-    <mergeCell ref="Y68:AB68"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="AT69:AW69"/>
+    <mergeCell ref="AX69:BF69"/>
+    <mergeCell ref="AG74:AJ74"/>
+    <mergeCell ref="AM74:AP74"/>
+    <mergeCell ref="AS74:AT74"/>
+    <mergeCell ref="AU74:BB74"/>
+    <mergeCell ref="BD74:BE75"/>
+    <mergeCell ref="BF74:BF75"/>
+    <mergeCell ref="AU75:AV75"/>
+    <mergeCell ref="AW75:AX75"/>
+    <mergeCell ref="AY75:BB75"/>
+    <mergeCell ref="AM75:AP75"/>
+    <mergeCell ref="AT77:AW77"/>
+    <mergeCell ref="AX77:BF77"/>
+    <mergeCell ref="AT79:AW79"/>
+    <mergeCell ref="AX79:BF79"/>
+    <mergeCell ref="AG77:AJ77"/>
+    <mergeCell ref="AM77:AP77"/>
+    <mergeCell ref="AS75:AT75"/>
+    <mergeCell ref="AG75:AJ75"/>
+    <mergeCell ref="AG94:AJ94"/>
+    <mergeCell ref="AT94:AW94"/>
+    <mergeCell ref="AX94:BF94"/>
+    <mergeCell ref="AG93:AJ93"/>
+    <mergeCell ref="AT83:AW83"/>
+    <mergeCell ref="AX83:BF83"/>
+    <mergeCell ref="AM78:AP78"/>
+    <mergeCell ref="AT81:AW81"/>
+    <mergeCell ref="AX81:BF81"/>
+    <mergeCell ref="AT82:AW82"/>
+    <mergeCell ref="AX82:BF82"/>
+    <mergeCell ref="AT80:AW80"/>
+    <mergeCell ref="AX80:BF80"/>
+    <mergeCell ref="AT78:AW78"/>
+    <mergeCell ref="AX78:BF78"/>
+    <mergeCell ref="AG76:AJ76"/>
+    <mergeCell ref="G88:O88"/>
+    <mergeCell ref="C89:F89"/>
+    <mergeCell ref="G89:O89"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="AX84:BF84"/>
+    <mergeCell ref="AU91:BB91"/>
+    <mergeCell ref="BD91:BE92"/>
+    <mergeCell ref="BF91:BF92"/>
+    <mergeCell ref="AM92:AP92"/>
+    <mergeCell ref="AS92:AT92"/>
+    <mergeCell ref="AU92:AV92"/>
+    <mergeCell ref="AW92:AX92"/>
+    <mergeCell ref="AY92:BB92"/>
+    <mergeCell ref="AS91:AT91"/>
+    <mergeCell ref="AG91:AJ91"/>
+    <mergeCell ref="AM91:AP91"/>
+    <mergeCell ref="AG92:AJ92"/>
+    <mergeCell ref="AT100:AW100"/>
+    <mergeCell ref="AX100:BF100"/>
+    <mergeCell ref="AX102:BF102"/>
+    <mergeCell ref="AT101:AW101"/>
+    <mergeCell ref="AX101:BF101"/>
+    <mergeCell ref="AT99:AW99"/>
+    <mergeCell ref="AX99:BF99"/>
+    <mergeCell ref="AM93:AP93"/>
+    <mergeCell ref="AT97:AW97"/>
+    <mergeCell ref="AX97:BF97"/>
+    <mergeCell ref="AT98:AW98"/>
+    <mergeCell ref="AX98:BF98"/>
+    <mergeCell ref="AT95:AW95"/>
+    <mergeCell ref="AX95:BF95"/>
+    <mergeCell ref="AT96:AW96"/>
+    <mergeCell ref="AX96:BF96"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
